--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE82223-4CF2-4580-AA12-75A4735D13AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -46,28 +48,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -324,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -454,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -478,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -609,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -636,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -660,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -710,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -742,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -956,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -981,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1007,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1107,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1211,13 +1203,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1286,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1335,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1381,7 +1373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1406,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1430,7 +1422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1474,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1498,7 +1490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1523,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1550,7 +1542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1577,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1604,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1628,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1652,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1759,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1786,7 +1778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1810,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1834,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1860,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1892,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2073,7 +2065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2106,7 +2098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2131,7 +2123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2157,7 +2149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2184,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2208,7 +2200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2232,7 +2224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2257,7 +2249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2282,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2307,7 +2299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -2331,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2361,12 +2353,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2396,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="672">
   <si>
     <t>SearchID</t>
   </si>
@@ -4079,18 +4071,6 @@
     <t>PET species: Red throated loon, herring gull, long-tailed duck</t>
   </si>
   <si>
-    <t>Generally, most human activities had a negative influence on most of the
-species considered: 7 of the 15 sea–species–activity combinations
-showed a significant or highly significant negative influence on local
-abundance, while no significant relationship was detected or the activity was not selected as an explaining variable in the model for 6 cases.
-European herring gull (herring gull hereafter) was the only species that
-was significantly attracted by human activities (namely bottom-trawling
-in both seas).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 2: bottom trawling significant effect on all birds except common murre NA values. Significant avoidance of bottom trawling: red-throated loon, long-tailed duck. Significant attraction: herring gull. </t>
-  </si>
-  <si>
     <t>This controlled bottom trawling field experiment using a benthic
 dredge provided new insights into the immediate biological and
 biogeochemical effects of bottom trawling and the potential recovery of
@@ -4114,9 +4094,6 @@
   </si>
   <si>
     <t>Oxygen consumption rates were lower inside the track (significant), In the trawl track there was a large efflux of ammonium, but one to two weeks after dredging, fluxes were negligible. Mean phosphate effluxes were higher in the track scour cores than outside the track scour. However, these differences were not statistically significant and there was no effect of time.</t>
-  </si>
-  <si>
-    <t>human activity including bottom-trawling fishing intensity</t>
   </si>
   <si>
     <t>Trawling disturbance</t>
@@ -4561,9 +4538,6 @@
     <t>Ophiuroidea _ Phoronida _ Bilvalvia _ Polychaeta _ Gastropoda _ Echinodermata _ Neophrop nervegicus</t>
   </si>
   <si>
-    <t>Red-throated loon _ herring gull _ common murre _ long-tailed duck</t>
-  </si>
-  <si>
     <t>Mullus barbatus</t>
   </si>
   <si>
@@ -4690,11 +4664,32 @@
 neighbouring stocks (Svedäng et al. 2002, this paper
 Fig. S2).</t>
   </si>
+  <si>
+    <t>Significant avoidance. The negative response of red-throated loons to bottom-trawling was most likely caused by the presence of the fishing vessels</t>
+  </si>
+  <si>
+    <t>Significant attraction. In contrast, our results suggest that herring gulls do not avoid ships (Camphuysen et al., 1999), and are even attracted to ships in areas used for bottom-trawling, corresponding to their frequent aggregations around fishing vessels associated with the feeding opportunities offered by bycatch discards (Garthe and Hüppop, 1994).</t>
+  </si>
+  <si>
+    <t>Density of bottom trawl vessels</t>
+  </si>
+  <si>
+    <t>Significant avoidance. In contrast, long-tailed ducks, as the only benthic feeders in this study, were significantly and negatively affected by bottom-trawling, possibly due to a combined effect of disturbance from the vessels and reduced food availability caused by physical damage to the seafloor and its benthic fauna (Schröder et al., 2008).</t>
+  </si>
+  <si>
+    <t>Gavia stellata</t>
+  </si>
+  <si>
+    <t>Larus argentatus</t>
+  </si>
+  <si>
+    <t>Clangula hyemalis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4820,7 +4815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4875,6 +4870,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5159,35 +5155,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="92.140625" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.7109375" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" style="12" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="92.109375" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
+    <col min="24" max="25" width="32.6640625" customWidth="1"/>
+    <col min="34" max="35" width="17.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
+    <col min="40" max="40" width="15.88671875" customWidth="1"/>
+    <col min="41" max="41" width="15.88671875" style="12" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" style="12" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
+    <col min="50" max="50" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -5253,7 +5250,7 @@
       <c r="AW1" s="22"/>
       <c r="AX1" s="22"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5405,7 +5402,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5479,7 +5476,7 @@
         <v>476</v>
       </c>
       <c r="Z3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5509,13 +5506,13 @@
         <v>134</v>
       </c>
       <c r="AL3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AM3" t="s">
         <v>231</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5525,7 +5522,7 @@
       </c>
       <c r="AT3" s="16"/>
       <c r="AU3" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -5534,10 +5531,10 @@
         <v>207</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -5611,7 +5608,7 @@
         <v>476</v>
       </c>
       <c r="Z4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5641,7 +5638,7 @@
         <v>134</v>
       </c>
       <c r="AL4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AM4" t="s">
         <v>232</v>
@@ -5650,7 +5647,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5660,7 +5657,7 @@
       </c>
       <c r="AT4" s="16"/>
       <c r="AU4" s="12" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5669,10 +5666,10 @@
         <v>210</v>
       </c>
       <c r="AX4" s="13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -5746,7 +5743,7 @@
         <v>476</v>
       </c>
       <c r="Z5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5776,7 +5773,7 @@
         <v>134</v>
       </c>
       <c r="AL5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AM5" t="s">
         <v>232</v>
@@ -5785,7 +5782,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5795,7 +5792,7 @@
       </c>
       <c r="AT5" s="16"/>
       <c r="AU5" s="12" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -5805,7 +5802,7 @@
       </c>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>256</v>
       </c>
@@ -5876,13 +5873,13 @@
         <v>69</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AA6" s="12">
         <v>2</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AF6" s="12">
         <v>4.3</v>
@@ -5909,7 +5906,7 @@
         <v>233</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AP6" s="12" t="s">
         <v>523</v>
@@ -5922,7 +5919,7 @@
       </c>
       <c r="AT6" s="16"/>
       <c r="AU6" s="12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AV6" s="12" t="s">
         <v>203</v>
@@ -5931,10 +5928,10 @@
         <v>208</v>
       </c>
       <c r="AX6" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>256</v>
       </c>
@@ -6005,7 +6002,7 @@
         <v>69</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AA7" s="12">
         <v>2</v>
@@ -6035,10 +6032,10 @@
         <v>233</v>
       </c>
       <c r="AO7" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AQ7" s="12" t="s">
         <v>164</v>
@@ -6048,7 +6045,7 @@
       </c>
       <c r="AT7" s="16"/>
       <c r="AU7" s="12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AV7" s="12" t="s">
         <v>206</v>
@@ -6057,7 +6054,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>256</v>
       </c>
@@ -6128,7 +6125,7 @@
         <v>69</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AA8" s="12">
         <v>2</v>
@@ -6150,7 +6147,7 @@
       </c>
       <c r="AN8" s="19"/>
       <c r="AO8" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AP8" s="12" t="s">
         <v>523</v>
@@ -6163,7 +6160,7 @@
       </c>
       <c r="AT8" s="16"/>
       <c r="AU8" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AV8" s="12" t="s">
         <v>199</v>
@@ -6172,7 +6169,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>265</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>70</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AA9" s="12">
         <v>2</v>
@@ -6301,7 +6298,7 @@
       </c>
       <c r="AT9" s="16"/>
       <c r="AU9" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AV9" s="12" t="s">
         <v>199</v>
@@ -6310,10 +6307,10 @@
         <v>208</v>
       </c>
       <c r="AX9" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>265</v>
       </c>
@@ -6384,7 +6381,7 @@
         <v>69</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AA10" s="12">
         <v>2</v>
@@ -6439,7 +6436,7 @@
       </c>
       <c r="AT10" s="16"/>
       <c r="AU10" s="12" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AV10" s="12" t="s">
         <v>199</v>
@@ -6448,10 +6445,10 @@
         <v>208</v>
       </c>
       <c r="AX10" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>274</v>
       </c>
@@ -6552,13 +6549,13 @@
         <v>141</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AM11" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AO11" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AQ11" s="12" t="s">
         <v>164</v>
@@ -6582,10 +6579,10 @@
         <v>209</v>
       </c>
       <c r="AX11" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>274</v>
       </c>
@@ -6656,7 +6653,7 @@
         <v>215</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AA12" s="12">
         <v>2</v>
@@ -6686,13 +6683,13 @@
         <v>141</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AM12" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO12" s="19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>164</v>
@@ -6716,10 +6713,10 @@
         <v>209</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>285</v>
       </c>
@@ -6793,7 +6790,7 @@
         <v>488</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AA13" s="12">
         <v>2</v>
@@ -6826,7 +6823,7 @@
         <v>141</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AM13" s="12" t="s">
         <v>232</v>
@@ -6857,7 +6854,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>285</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>488</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AA14" s="12">
         <v>2</v>
@@ -6964,7 +6961,7 @@
         <v>141</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AM14" s="12" t="s">
         <v>232</v>
@@ -6995,7 +6992,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>306</v>
       </c>
@@ -7066,7 +7063,7 @@
         <v>72</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AA15" s="12">
         <v>2</v>
@@ -7078,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AF15" s="12">
         <v>4.3</v>
@@ -7105,7 +7102,7 @@
         <v>233</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>164</v>
@@ -7115,7 +7112,7 @@
       </c>
       <c r="AT15" s="16"/>
       <c r="AU15" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AV15" s="12" t="s">
         <v>199</v>
@@ -7124,10 +7121,10 @@
         <v>208</v>
       </c>
       <c r="AX15" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>323</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>503</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AA16" s="19">
         <v>2</v>
@@ -7253,7 +7250,7 @@
       </c>
       <c r="AT16" s="17"/>
       <c r="AU16" s="19" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AV16" s="19" t="s">
         <v>199</v>
@@ -7265,7 +7262,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>340</v>
       </c>
@@ -7336,7 +7333,7 @@
         <v>69</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AA17" s="19">
         <v>2</v>
@@ -7366,10 +7363,10 @@
         <v>233</v>
       </c>
       <c r="AO17" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP17" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AQ17" s="19" t="s">
         <v>164</v>
@@ -7382,16 +7379,16 @@
       </c>
       <c r="AT17" s="17"/>
       <c r="AU17" s="19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AW17" s="19" t="s">
         <v>208</v>
       </c>
       <c r="AX17" s="20" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>349</v>
       </c>
@@ -7462,7 +7459,7 @@
         <v>216</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AA18" s="12">
         <v>2</v>
@@ -7498,7 +7495,7 @@
         <v>134</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AM18" s="12" t="s">
         <v>233</v>
@@ -7529,7 +7526,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>349</v>
       </c>
@@ -7600,7 +7597,7 @@
         <v>216</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AA19" s="12">
         <v>2</v>
@@ -7633,7 +7630,7 @@
         <v>134</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AM19" s="12" t="s">
         <v>233</v>
@@ -7664,7 +7661,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>359</v>
       </c>
@@ -7735,7 +7732,7 @@
         <v>216</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AA20" s="12">
         <v>2</v>
@@ -7765,7 +7762,7 @@
         <v>148</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AM20" s="12" t="s">
         <v>233</v>
@@ -7793,7 +7790,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>359</v>
       </c>
@@ -7864,7 +7861,7 @@
         <v>216</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AA21" s="12">
         <v>2</v>
@@ -7891,7 +7888,7 @@
         <v>148</v>
       </c>
       <c r="AL21" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AM21" s="12" t="s">
         <v>233</v>
@@ -7919,7 +7916,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>367</v>
       </c>
@@ -8051,7 +8048,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>376</v>
       </c>
@@ -8122,7 +8119,7 @@
         <v>69</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AA23" s="12">
         <v>2</v>
@@ -8180,7 +8177,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="12" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" s="12" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>376</v>
       </c>
@@ -8251,7 +8248,7 @@
         <v>69</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AA24" s="12">
         <v>2</v>
@@ -8309,7 +8306,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>376</v>
       </c>
@@ -8380,7 +8377,7 @@
         <v>69</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AA25" s="12">
         <v>2</v>
@@ -8437,7 +8434,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>384</v>
       </c>
@@ -8538,7 +8535,7 @@
         <v>148</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AM26" s="12" t="s">
         <v>233</v>
@@ -8572,7 +8569,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>409</v>
       </c>
@@ -8643,7 +8640,7 @@
         <v>216</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AA27" s="12">
         <v>2</v>
@@ -8673,7 +8670,7 @@
         <v>134</v>
       </c>
       <c r="AL27" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AM27" s="12" t="s">
         <v>232</v>
@@ -8682,7 +8679,7 @@
         <v>160</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AQ27" s="12" t="s">
         <v>164</v>
@@ -8704,7 +8701,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>409</v>
       </c>
@@ -8775,7 +8772,7 @@
         <v>216</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AA28" s="12">
         <v>2</v>
@@ -8805,7 +8802,7 @@
         <v>134</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AM28" s="12" t="s">
         <v>232</v>
@@ -8814,7 +8811,7 @@
         <v>160</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AQ28" s="12" t="s">
         <v>164</v>
@@ -8836,7 +8833,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>417</v>
       </c>
@@ -8931,7 +8928,7 @@
         <v>148</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AM29" s="12" t="s">
         <v>233</v>
@@ -8962,7 +8959,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>417</v>
       </c>
@@ -9057,7 +9054,7 @@
         <v>148</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AM30" s="12" t="s">
         <v>233</v>
@@ -9088,7 +9085,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>423</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>550</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AA31" s="12">
         <v>2</v>
@@ -9189,13 +9186,13 @@
         <v>150</v>
       </c>
       <c r="AL31" s="12" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="AM31" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AO31" s="12" t="s">
-        <v>558</v>
+        <v>667</v>
       </c>
       <c r="AQ31" s="12" t="s">
         <v>164</v>
@@ -9205,19 +9202,19 @@
       </c>
       <c r="AT31" s="16"/>
       <c r="AU31" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV31" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW31" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX31" s="13" t="s">
-        <v>552</v>
+        <v>208</v>
+      </c>
+      <c r="AX31" s="28" t="s">
+        <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>423</v>
       </c>
@@ -9270,7 +9267,7 @@
         <v>21</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T32" s="12" t="s">
         <v>46</v>
@@ -9291,7 +9288,7 @@
         <v>550</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AA32" s="12">
         <v>2</v>
@@ -9312,22 +9309,19 @@
         <v>111</v>
       </c>
       <c r="AH32" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI32" s="12" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="AK32" s="12" t="s">
         <v>150</v>
       </c>
       <c r="AL32" s="12" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="AM32" s="12" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>558</v>
+        <v>667</v>
       </c>
       <c r="AQ32" s="12" t="s">
         <v>164</v>
@@ -9337,39 +9331,39 @@
       </c>
       <c r="AT32" s="16"/>
       <c r="AU32" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AV32" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW32" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX32" s="12" t="s">
-        <v>553</v>
+        <v>207</v>
+      </c>
+      <c r="AX32" s="28" t="s">
+        <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E33" s="12">
         <v>2021</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>248</v>
@@ -9381,13 +9375,13 @@
         <v>248</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N33" s="12" t="s">
         <v>253</v>
@@ -9396,7 +9390,7 @@
         <v>254</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>21</v>
@@ -9405,22 +9399,25 @@
         <v>23</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AA33" s="12">
         <v>2</v>
@@ -9431,32 +9428,29 @@
       <c r="AC33" s="12">
         <v>3</v>
       </c>
-      <c r="AE33" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF33" s="12">
-        <v>4.3</v>
+      <c r="AE33" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG33" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH33" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI33" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AK33" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL33" s="12" t="s">
-        <v>549</v>
+        <v>670</v>
       </c>
       <c r="AM33" s="12" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO33" s="12" t="s">
-        <v>555</v>
+        <v>667</v>
       </c>
       <c r="AQ33" s="12" t="s">
         <v>164</v>
@@ -9466,87 +9460,93 @@
       </c>
       <c r="AT33" s="16"/>
       <c r="AU33" s="12" t="s">
-        <v>556</v>
+        <v>601</v>
+      </c>
+      <c r="AV33" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="AW33" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX33" s="12" t="s">
-        <v>557</v>
+        <v>207</v>
+      </c>
+      <c r="AX33" s="28" t="s">
+        <v>666</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E34" s="12">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O34" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="V34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="W34" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="X34" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AA34" s="12">
         <v>2</v>
@@ -9557,32 +9557,29 @@
       <c r="AC34" s="12">
         <v>3</v>
       </c>
-      <c r="AE34" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="AF34" s="12">
-        <v>4.3</v>
+      <c r="AE34" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF34" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG34" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH34" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI34" s="12" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AK34" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL34" s="12" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="AM34" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>559</v>
+        <v>667</v>
       </c>
       <c r="AQ34" s="12" t="s">
         <v>164</v>
@@ -9592,54 +9589,57 @@
       </c>
       <c r="AT34" s="16"/>
       <c r="AU34" s="12" t="s">
-        <v>561</v>
+        <v>601</v>
+      </c>
+      <c r="AV34" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="AW34" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX34" s="13" t="s">
-        <v>560</v>
+        <v>208</v>
+      </c>
+      <c r="AX34" s="28" t="s">
+        <v>668</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="E35" s="12">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>455</v>
+        <v>344</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>456</v>
+        <v>248</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>457</v>
+        <v>248</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>458</v>
+        <v>248</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="N35" s="12" t="s">
         <v>253</v>
@@ -9648,34 +9648,31 @@
         <v>254</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W35" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X35" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y35" s="12" t="s">
-        <v>563</v>
-      </c>
       <c r="Z35" s="12" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AA35" s="12">
         <v>2</v>
@@ -9684,102 +9681,94 @@
         <v>2</v>
       </c>
       <c r="AC35" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE35" s="13" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="AF35" s="12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AG35" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AH35" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AI35" s="12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AK35" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL35" s="12" t="s">
-        <v>636</v>
+        <v>549</v>
       </c>
       <c r="AM35" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN35" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO35" s="12" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="AQ35" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT35" s="16" t="s">
-        <v>565</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT35" s="16"/>
       <c r="AU35" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="AV35" s="12" t="s">
-        <v>199</v>
+        <v>554</v>
       </c>
       <c r="AW35" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX35" s="13" t="s">
-        <v>568</v>
+        <v>209</v>
+      </c>
+      <c r="AX35" s="12" t="s">
+        <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="E36" s="12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>464</v>
+        <v>352</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>254</v>
@@ -9794,25 +9783,22 @@
         <v>31</v>
       </c>
       <c r="T36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="V36" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="W36" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X36" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y36" s="12" t="s">
-        <v>569</v>
-      </c>
       <c r="Z36" s="12" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AA36" s="12">
         <v>2</v>
@@ -9824,7 +9810,7 @@
         <v>3</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="AF36" s="12">
         <v>4.3</v>
@@ -9833,16 +9819,22 @@
         <v>110</v>
       </c>
       <c r="AH36" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI36" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="AK36" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+      <c r="AL36" s="12" t="s">
+        <v>631</v>
       </c>
       <c r="AM36" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="AQ36" s="12" t="s">
         <v>164</v>
@@ -9852,90 +9844,90 @@
       </c>
       <c r="AT36" s="16"/>
       <c r="AU36" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="AV36" s="12" t="s">
-        <v>113</v>
+        <v>558</v>
       </c>
       <c r="AW36" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX36" s="12" t="s">
-        <v>572</v>
+        <v>209</v>
+      </c>
+      <c r="AX36" s="13" t="s">
+        <v>557</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>607</v>
+        <v>451</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>608</v>
+        <v>452</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>609</v>
+        <v>453</v>
       </c>
       <c r="E37" s="12">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>610</v>
+        <v>455</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>611</v>
+        <v>456</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>612</v>
+        <v>457</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>613</v>
+        <v>458</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>614</v>
+        <v>459</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>615</v>
+        <v>460</v>
       </c>
       <c r="N37" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>616</v>
+        <v>254</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X37" s="12" t="s">
         <v>216</v>
       </c>
+      <c r="Y37" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="Z37" s="12" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="AA37" s="12">
         <v>2</v>
@@ -9946,44 +9938,47 @@
       <c r="AC37" s="12">
         <v>2</v>
       </c>
+      <c r="AE37" s="13" t="s">
+        <v>564</v>
+      </c>
       <c r="AF37" s="12">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG37" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AH37" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI37" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ37" s="12" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK37" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AL37" s="12" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="AM37" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN37" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO37" s="12" t="s">
-        <v>658</v>
+        <v>563</v>
       </c>
       <c r="AQ37" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR37" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT37" s="12" t="s">
-        <v>659</v>
+        <v>170</v>
+      </c>
+      <c r="AT37" s="16" t="s">
+        <v>562</v>
       </c>
       <c r="AU37" s="12" t="s">
-        <v>660</v>
+        <v>561</v>
       </c>
       <c r="AV37" s="12" t="s">
         <v>199</v>
@@ -9992,48 +9987,48 @@
         <v>207</v>
       </c>
       <c r="AX37" s="13" t="s">
-        <v>661</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>617</v>
+        <v>461</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>618</v>
+        <v>462</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>619</v>
+        <v>463</v>
       </c>
       <c r="E38" s="12">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>246</v>
+        <v>464</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>621</v>
+        <v>466</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>623</v>
+        <v>468</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>624</v>
+        <v>469</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>253</v>
@@ -10042,31 +10037,34 @@
         <v>254</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="W38" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X38" s="12" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>663</v>
+        <v>566</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="AA38" s="12">
         <v>2</v>
@@ -10077,94 +10075,92 @@
       <c r="AC38" s="12">
         <v>3</v>
       </c>
-      <c r="AF38" s="12" t="s">
-        <v>477</v>
+      <c r="AE38" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="AF38" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG38" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH38" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI38" s="12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="AK38" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL38" s="12" t="s">
-        <v>662</v>
+        <v>148</v>
       </c>
       <c r="AM38" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN38" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>665</v>
+        <v>568</v>
       </c>
       <c r="AQ38" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR38" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT38" s="16"/>
       <c r="AU38" s="12" t="s">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="AV38" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX38" s="13" t="s">
-        <v>666</v>
+        <v>208</v>
+      </c>
+      <c r="AX38" s="12" t="s">
+        <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E39" s="12">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>248</v>
+        <v>608</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="N39" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>254</v>
+        <v>613</v>
       </c>
       <c r="P39" s="12" t="s">
         <v>255</v>
@@ -10173,25 +10169,25 @@
         <v>21</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="W39" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X39" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y39" s="12" t="s">
-        <v>663</v>
+        <v>216</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="AA39" s="12">
         <v>2</v>
@@ -10200,90 +10196,96 @@
         <v>2</v>
       </c>
       <c r="AC39" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF39" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF39" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG39" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH39" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI39" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="AJ39" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AK39" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL39" s="12" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="AM39" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN39" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO39" s="12" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="AQ39" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR39" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT39" s="12" t="s">
+        <v>655</v>
+      </c>
       <c r="AU39" s="12" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW39" s="12" t="s">
         <v>207</v>
       </c>
       <c r="AX39" s="13" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>472</v>
+        <v>616</v>
       </c>
       <c r="E40" s="12">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>473</v>
+        <v>246</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>280</v>
+        <v>617</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>248</v>
+        <v>618</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>248</v>
+        <v>619</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>474</v>
+        <v>620</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>475</v>
+        <v>621</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>253</v>
@@ -10292,34 +10294,31 @@
         <v>254</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="T40" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="W40" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X40" s="12" t="s">
         <v>113</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AA40" s="12">
         <v>2</v>
@@ -10330,213 +10329,348 @@
       <c r="AC40" s="12">
         <v>3</v>
       </c>
-      <c r="AF40" s="12">
-        <v>4.3</v>
+      <c r="AF40" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG40" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH40" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI40" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="AK40" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL40" s="12" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="AM40" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="AN40" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="AQ40" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AR40" s="12" t="s">
+      <c r="AU40" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="AV40" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW40" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX40" s="13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2010</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W41" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y41" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z41" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF41" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI41" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK41" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL41" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="AM41" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN41" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO41" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="AQ41" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU41" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="AV41" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW41" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX41" s="13" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E42" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z42" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH42" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK42" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL42" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM42" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO42" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="AQ42" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR42" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT40" s="16"/>
-      <c r="AU40" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="AV40" s="12" t="s">
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="AV42" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AW40" s="12" t="s">
+      <c r="AW42" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="AX40" s="12" t="s">
-        <v>577</v>
+      <c r="AX42" s="12" t="s">
+        <v>574</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E41" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E42" s="15">
-        <v>2020</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q42" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF42" s="15">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>403</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="E43" s="11">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>407</v>
+        <v>303</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>253</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>21</v>
@@ -10544,198 +10678,93 @@
       <c r="R43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="S43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y43" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AE43" s="11" t="s">
-        <v>540</v>
-      </c>
       <c r="AF43" s="11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E44" s="15">
+        <v>2020</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF44" s="15">
         <v>4.5</v>
       </c>
-      <c r="AG43" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH43" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK43" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM43" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO43" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="AQ43" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU43" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="AV43" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX43" s="11" t="s">
-        <v>539</v>
-      </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E44" s="11">
-        <v>2018</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V44" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="AF44" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="AG44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH44" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI44" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK44" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM44" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO44" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="AQ44" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR44" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV44" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="E45" s="11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>248</v>
@@ -10744,13 +10773,13 @@
         <v>248</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>253</v>
@@ -10759,7 +10788,7 @@
         <v>254</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>21</v>
@@ -10767,62 +10796,106 @@
       <c r="R45" s="11" t="s">
         <v>84</v>
       </c>
+      <c r="S45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="X45" s="11" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>504</v>
+        <v>538</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE45" s="11" t="s">
+        <v>540</v>
       </c>
       <c r="AF45" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG45" s="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="AH45" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AI45" s="11" t="s">
-        <v>140</v>
+      <c r="AK45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM45" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO45" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="AQ45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU45" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="AV45" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW45" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX45" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>443</v>
+        <v>315</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>444</v>
+        <v>316</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>445</v>
+        <v>317</v>
       </c>
       <c r="E46" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>446</v>
+        <v>301</v>
       </c>
       <c r="H46" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>447</v>
-      </c>
       <c r="J46" s="11" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>450</v>
+        <v>321</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>253</v>
@@ -10831,7 +10904,7 @@
         <v>254</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>21</v>
@@ -10839,7 +10912,186 @@
       <c r="R46" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AF46" s="11">
+      <c r="S46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z46" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF46" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="AG46" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH46" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI46" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK46" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM46" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO46" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AQ46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR46" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV46" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E47" s="11">
+        <v>2020</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E48" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF48" s="11">
         <v>4.3</v>
       </c>
     </row>
@@ -10854,14 +11106,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q14 P6:Q8 P47:P1048576 P15:P46"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH47:AH1048576 AH3:AH46">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q14 P6:Q8 P15:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ47:AQ1048576 AQ3:AQ46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10871,95 +11123,95 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AM47:AM1048576 AM3:AM46</xm:sqref>
+          <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R47:R1048576 R3:R46</xm:sqref>
+          <xm:sqref>R3:R1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
-          <xm:sqref>S47:S1048576 S3:S46</xm:sqref>
+          <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
-          <xm:sqref>T47:T1048576 T3:T46</xm:sqref>
+          <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
-          <xm:sqref>U47:U1048576 U3:U46</xm:sqref>
+          <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V47:V1048576 V3:V46</xm:sqref>
+          <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
-          <xm:sqref>W47:W1048576 W3:W46</xm:sqref>
+          <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA47:AA1048576 AA3:AA46</xm:sqref>
+          <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB47:AB1048576 AB3:AB46</xm:sqref>
+          <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC47:AC1048576 AC3:AC46</xm:sqref>
+          <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG47:AG1048576 AG3:AG46</xm:sqref>
+          <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AK47:AK1048576 AK3:AK46</xm:sqref>
+          <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
-          <xm:sqref>X47:X1048576 X3:X46</xm:sqref>
+          <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
           <x14:formula1>
             <xm:f>Validation!$AW$3:$AW$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AW47:AW1048576 AW3:AW46</xm:sqref>
+          <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AV47:AV1048576 AV3:AV46</xm:sqref>
+          <xm:sqref>AV3:AV1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10968,24 +11220,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -11051,7 +11303,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11203,7 +11455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11260,7 +11512,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -11317,7 +11569,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -11373,7 +11625,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11418,7 +11670,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11460,7 +11712,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11498,7 +11750,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11533,7 +11785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11565,7 +11817,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11600,7 +11852,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11632,7 +11884,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -11667,7 +11919,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -11696,7 +11948,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -11725,7 +11977,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -11745,7 +11997,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -11753,22 +12005,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -11803,7 +12055,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -11829,7 +12081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -11852,7 +12104,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -11863,7 +12115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -11874,7 +12126,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -11882,12 +12134,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -11910,7 +12162,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -11936,7 +12188,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -11962,7 +12214,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -11982,7 +12234,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -11997,7 +12249,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12011,7 +12263,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -12019,10 +12271,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12043,45 +12295,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
@@ -12128,7 +12380,7 @@
       <c r="AF1" s="22"/>
       <c r="AG1" s="22"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -12229,7 +12481,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12295,7 +12547,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12346,7 +12598,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12400,7 +12652,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12442,7 +12694,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12487,7 +12739,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12525,7 +12777,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12563,7 +12815,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12598,7 +12850,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12630,7 +12882,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -12662,7 +12914,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -12691,7 +12943,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -12714,7 +12966,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -12740,7 +12992,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -12757,7 +13009,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -12768,7 +13020,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -12782,7 +13034,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -12796,7 +13048,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -12807,7 +13059,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -12821,7 +13073,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -12832,7 +13084,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -12843,7 +13095,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -12851,7 +13103,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -12859,7 +13111,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -12867,7 +13119,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -12881,7 +13133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -12892,7 +13144,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -12903,7 +13155,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -12914,7 +13166,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -12922,7 +13174,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -12930,12 +13182,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -12955,6 +13207,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13068,22 +13335,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13097,27 +13372,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE82223-4CF2-4580-AA12-75A4735D13AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CEE2BC-A9E2-437E-9C2D-8B45D918E808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="665">
   <si>
     <t>SearchID</t>
   </si>
@@ -3824,9 +3824,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>4.3 _ 4.5</t>
-  </si>
-  <si>
     <t>Percarid crustaceans</t>
   </si>
   <si>
@@ -3869,21 +3866,9 @@
     <t>We found no evidence for the states hypotheses on fishery effects</t>
   </si>
   <si>
-    <t>No significant effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In all 3 species we found a negative correlation between the density of adult cockles and the densities of recruits in the same summer. </t>
-  </si>
-  <si>
-    <t>Pearson product-moment correlation</t>
-  </si>
-  <si>
     <t>Lophelia reefs</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of litter items_Trawl mark density_fishing intensity </t>
-  </si>
-  <si>
     <t>Trawling pressure (average number of times seabed trawled per year)</t>
   </si>
   <si>
@@ -3893,18 +3878,12 @@
     <t>Benthic invertebrate ectotherms</t>
   </si>
   <si>
-    <t>A temperature-dependent relationshio between the benthos and trawling pressure. There was a significant, temp-dependet linear relationship between log10 community biomass and log10 trawling pressure. The relationship was negative in cold water (8degrees centigrade), approximately neutral in intermediate temperature (9.5degrees centigrade) and positive in warm water (11degrees centigrade). Changes in community biomass with trawling pressure were greatest at low levels of trawl disturbance. The relationship between community abundance, trawling pressure and bottom water temperature was not significant. There was however, a significant relationship between mean body mass and trawling pressure. That is, increasing trawling pressure was associated with an increase in mean body mass in warm water and a decrease in mean body mass in cold water, with changes most pronounced when trawling pressure was low.  It is important to ackowledge that the relationships remain correlational and that correation does not demonstrate causation.</t>
-  </si>
-  <si>
     <t>Fisheries and climate change are recognised as priorities for marine conservation and management. Understanding the relative roles of these drivers and how they interact should therefore be prominent features of future marine ecological research.</t>
   </si>
   <si>
     <t>Van veen grabs</t>
   </si>
   <si>
-    <t>scientific trawl survey</t>
-  </si>
-  <si>
     <t>Trawling disturbance/ intensity</t>
   </si>
   <si>
@@ -3912,9 +3891,6 @@
   </si>
   <si>
     <t>both response variable categories apply to this paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epifaunal community- No signficant differences were detected for total epifaunal abundance, species richness and Shannon diversity between the 4 sites. Epifaunal biomass was significantly higher at Nm than at Hd. Hd and Md show a gross disturbance. The paired samples t test detected significant differences between Lm and Hd, and Md. </t>
   </si>
   <si>
     <t>Infaunal community- Infaunal tital abundance was significantly different across sites, abudance at Md and Nm being higher than abundance at Hd and Lm. Infaunal species richness was significantly higher at Nm, while the other sites were similar. Diversity based on Shannon index were similar at all sites.</t>
@@ -4018,24 +3994,6 @@
   </si>
   <si>
     <t>Fished seabed habitat recovery as a function of time between disturbance</t>
-  </si>
-  <si>
-    <t>Chi-squared analyses</t>
-  </si>
-  <si>
-    <t>Feeding guild, reef station and reefs</t>
-  </si>
-  <si>
-    <t>microparticle ingestion</t>
-  </si>
-  <si>
-    <t>Underwater camera and ROV, also one year Van veen grab from 2003, Raman spectroscopy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although number of ingestest particles clearly differed between feeding guilds, stations and between the two reefs, none of these differences were statistically significant. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This investigation showed that most debris was lost fishing gear. </t>
   </si>
   <si>
     <t>Carapace length</t>
@@ -4228,18 +4186,6 @@
     <t>This study did not find any consistent biogeochemical effects concerning the pulsed bipolar currents used by the electrotrawling fishery for North Sea sole or for Ensis electrofishing using alternating currents.</t>
   </si>
   <si>
-    <t>Smooth clam densities differed significantly according to both
-year (ANCOVA F(1,94) ¼ 16.7, p &lt; 0.0001) and transect (ANCOVA,
-F(15,94) ¼ 13.7, p &lt; 0.005). Densities were higher in 2004 than in
-2010 (Tukey’s HSD, p ¼ 0.0001). Accordingly, smooth clam biomass
-differed significantly between years (ANCOVA, F(1,94) ¼ 2.43,
-p &lt; 0.00001; Tukey HSD, p ¼ 0.0001) and transects (ANCOVA,
-F(15,94) ¼ 2.41, p ¼ 0.005; Tukey HSD, p ¼ 0.09 between T1eT2 and
-T1eT3). No significant differences were found in smooth clam
-modal value according to year (ANCOVA, F(1,68) ¼ 0.67, p ¼ 0.42) or
-transect (ANCOVA, F(15,68) ¼ 1.69, p ¼ 0.07).</t>
-  </si>
-  <si>
     <t>Number of selected species caught per creel</t>
   </si>
   <si>
@@ -4274,81 +4220,7 @@
     <t>direct impact of mechanised clam dedging</t>
   </si>
   <si>
-    <t>Infaunal and epifaunal species with
-soft-body or fragile shells were the most impacted by the fishing activity (e.g. the sea urchin
-Echinocardium mediterraneum (∼89%) and the bivalve Ensis minor (∼74%)). Our results
-showed different levels of impact by target species and fishing area.  The composition of discards and the impact caused to
-discarded species was assessed using a three-level scale (undamaged; minor or partial damage;
-and lethal damage). Our study revealed that a large proportion of the catch (between 67–82%
-weight) is discarded. Even though about 63% of the discarded species were undamaged, 11%
-showed minor or partial damage and 26% lethal damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly species-dependent- Focusing on the discards
-associated exclusively with C. gallina, about 67.04% underwent
-no damage, 10.82% presented minor or partial damage and
-22.14% showed lethal damage. Of the discards associated exclusively
-with D. trunculus, 59.12% underwent no damage, 11.41%
-showed minor or partial damage and 29.47% showed lethal damage.
-The impact of the mechanized clam dredging showed significant
-differences in the proportion of discarded megabenthic fauna
-with lethal damage between the three clam fishing areas studied
-(Table 4). Considering the differences in the impact of
-fishing activity by survey (September, November and January),
-no significant differences were detected in the proportion of species
-showing lethal damage but significant differences in the proportion
-of individuals showing minor or partial damage was
-observed. However, when looking at the interaction of clam fishing
-area and survey, we observed significant differences in the
-proportion of both lethal and minor or partially damaged individuals.
-The proportion of discarded megabenthic fauna showing
-lethally damaged individuals was highest in January (27%), followed
-by November (26%) and the lowest in September (24%).
-Those showing minor or partially damaged individuals tended
-to increase progressively from September to January (from 10%
-to 14%).
-The sea urchin E. mediterraneum (89%) and the bivalve Ensis
-minor (74%) were the species most affected by the clam dredging
-activity (Figure 4A). Damaged individuals of both species showed
-exclusively lethal damage; no minor or partial damage was
-observed. Individuals of E. mediterraneum usually appeared
-with crushed or pinched exoskeletons (Figure 5), whilst individuals
-of E. minor were segmented towards the middle of the
-body or in small fragments. Other affected species were the crustacean
-caramote prawn P. kerathurus (45%), the crabs L. vernalis
-(35%) and P. latipes (34%) and the bivalves M. stultorum (34%)
-and A. tuberculata (13%). Impacted individuals of caramote
-prawn showed only lethal or severe damage, such as segmented
-individuals or individuals with critical physical injuries (contusions)
-on the cephalothorax or the abdomen. No individuals
-with minor or partial damage were detected. Crabs (L. vernalis
-and P. latipes) showed similar proportions of individuals with
-minor or partial damage (between 15–17%) and lethal or severe
-damage (between 18–19%). Individuals with minor or partial
-damage showed wounds on the carapace, the mutilation of
-chela or the mutilation of ≤ 2 pereopods, while crabs with lethal
-or severe damage exhibited injured or crushed carapaces or the
-mutilation of &gt;2 pereopods. The bivalves M. stultorum with
-minor or partial damage (15%) showed mainly cropped siphons
-and some displayed shells that were slightly cracked around the
-outer lip. Those showing lethal or severe damage (19%) had critical
-breaks in the shell, broken or crushed hinges or the entire
-individual was smashed. Bivalves A. tuberculata with minor or
-partial damage (11%) showed damaged or cropped feet, whereas
-individuals with lethal or severe damage (2%) showed the separation
-of shell valves or holes in the shell.
-</t>
-  </si>
-  <si>
     <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both species richness and abundance of fish was lower at
-impacted coral sites compared to non-impacted
-ones. This is a serious negative impact on one of the
-ecological functions of cold-water coral reefs. The use of towed video equipment proved
-difficult for documenting changes in species richness,
-abundance and colony height over time. </t>
   </si>
   <si>
     <t>This paper was difficult to analyse.</t>
@@ -4411,22 +4283,6 @@
     <t>increased Fishing effort</t>
   </si>
   <si>
-    <t>Over higher slopes or rougher ground theheavily fished locations show a more homogeneous rugosity distribution than those lightly fished, indicatingpossible smoothing of the seabed. Together with the geographic distribution of fishing activity, compositional
-differences between organic material from western and
-eastern branches suggest that there may be a zonal trend in anthropogenically
-introduced sediment supply. However further work is needed, as there was a lack of replicates and the limited number of
-samples presented here, does not allow for robust statistical analysis of
-any relationship or difference.There were no statistically significant
-results for any of the two-sample T-tests (assuming unequal variances)
-preformed, but there were strong indications that there was a difference
-between contributions of some lipid groups, (e.g. alcohols t= −9.3,
-p=.07). Other studies have suggested that lipids are too labile to examine
-this question (Sañé et al., 2013), but here we have shown that
-lipids may be used as sensitive biomarkers and may provide greater
-insight into the alteration of organic material in the canyon by natural
-and/or trawling processes.</t>
-  </si>
-  <si>
     <t>slope angle</t>
   </si>
   <si>
@@ -4684,6 +4540,42 @@
   </si>
   <si>
     <t>Clangula hyemalis</t>
+  </si>
+  <si>
+    <t>Diversity indices</t>
+  </si>
+  <si>
+    <t>assemblages are plotted against fishing pressure (average of the 3-</t>
+  </si>
+  <si>
+    <t>month period before suprabenthos sampling, Fig. 8), no trends are</t>
+  </si>
+  <si>
+    <t>evident in Rocassa (Cabecera fishing ground) and BaranaS (Barana</t>
+  </si>
+  <si>
+    <t>fishing ground) where fishing occurs only seasonally. Sot assem-</t>
+  </si>
+  <si>
+    <t>blages (Cara Norte fishing ground), subjected to a more continuous</t>
+  </si>
+  <si>
+    <t>fishing regime throughout the year, appears to show a decrease in</t>
+  </si>
+  <si>
+    <t>density, number of species and number of trophic groups with</t>
+  </si>
+  <si>
+    <t>increasing fishing pressure, while the other biodiversity indices</t>
+  </si>
+  <si>
+    <t>reach their lowest values for intermediate values of fishing pres-</t>
+  </si>
+  <si>
+    <t>sure (suggesting and inverted hump-shaped curve).</t>
+  </si>
+  <si>
+    <t>Fishing pressure</t>
   </si>
 </sst>
 </file>
@@ -4849,6 +4741,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4870,7 +4763,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5156,12 +5048,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX48"/>
+  <dimension ref="A1:AX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AM11" sqref="AM11"/>
+      <selection pane="bottomLeft" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5185,70 +5077,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25" t="s">
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="27" t="s">
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="21" t="s">
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="22" t="s">
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5476,7 +5368,7 @@
         <v>476</v>
       </c>
       <c r="Z3" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5506,13 +5398,13 @@
         <v>134</v>
       </c>
       <c r="AL3" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="AM3" t="s">
         <v>231</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5522,7 +5414,7 @@
       </c>
       <c r="AT3" s="16"/>
       <c r="AU3" s="12" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -5531,7 +5423,7 @@
         <v>207</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5608,7 +5500,7 @@
         <v>476</v>
       </c>
       <c r="Z4" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5638,7 +5530,7 @@
         <v>134</v>
       </c>
       <c r="AL4" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="AM4" t="s">
         <v>232</v>
@@ -5647,7 +5539,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5657,7 +5549,7 @@
       </c>
       <c r="AT4" s="16"/>
       <c r="AU4" s="12" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5666,7 +5558,7 @@
         <v>210</v>
       </c>
       <c r="AX4" s="13" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
@@ -5743,7 +5635,7 @@
         <v>476</v>
       </c>
       <c r="Z5" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5773,7 +5665,7 @@
         <v>134</v>
       </c>
       <c r="AL5" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="AM5" t="s">
         <v>232</v>
@@ -5782,7 +5674,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5792,7 +5684,7 @@
       </c>
       <c r="AT5" s="16"/>
       <c r="AU5" s="12" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -5873,13 +5765,13 @@
         <v>69</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="AA6" s="12">
         <v>2</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="AF6" s="12">
         <v>4.3</v>
@@ -5900,16 +5792,16 @@
         <v>150</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM6" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AQ6" s="12" t="s">
         <v>164</v>
@@ -5919,7 +5811,7 @@
       </c>
       <c r="AT6" s="16"/>
       <c r="AU6" s="12" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="AV6" s="12" t="s">
         <v>203</v>
@@ -5928,7 +5820,7 @@
         <v>208</v>
       </c>
       <c r="AX6" s="13" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6002,7 +5894,7 @@
         <v>69</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="AA7" s="12">
         <v>2</v>
@@ -6026,16 +5918,16 @@
         <v>150</v>
       </c>
       <c r="AL7" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM7" s="19" t="s">
         <v>233</v>
       </c>
       <c r="AO7" s="12" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="AQ7" s="12" t="s">
         <v>164</v>
@@ -6045,13 +5937,16 @@
       </c>
       <c r="AT7" s="16"/>
       <c r="AU7" s="12" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="AV7" s="12" t="s">
         <v>206</v>
       </c>
       <c r="AW7" s="12" t="s">
         <v>208</v>
+      </c>
+      <c r="AX7" s="21" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -6125,7 +6020,7 @@
         <v>69</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="AA8" s="12">
         <v>2</v>
@@ -6137,20 +6032,29 @@
         <v>110</v>
       </c>
       <c r="AH8" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="AL8" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM8" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN8" s="19"/>
       <c r="AO8" s="12" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="AQ8" s="12" t="s">
         <v>164</v>
@@ -6160,54 +6064,57 @@
       </c>
       <c r="AT8" s="16"/>
       <c r="AU8" s="12" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="AV8" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW8" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AX8" s="21" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E9" s="12">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>253</v>
@@ -6228,37 +6135,28 @@
         <v>45</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="AA9" s="12">
         <v>2</v>
       </c>
-      <c r="AB9" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>481</v>
-      </c>
       <c r="AF9" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG9" s="19" t="s">
-        <v>107</v>
+      <c r="AG9" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="AH9" s="12" t="s">
         <v>120</v>
@@ -6270,47 +6168,42 @@
         <v>113</v>
       </c>
       <c r="AK9" s="12" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL9" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="AM9" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN9" s="12" t="s">
-        <v>160</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="AM9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN9" s="19"/>
       <c r="AO9" s="12" t="s">
-        <v>482</v>
+        <v>664</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="AQ9" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS9" s="12" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="AT9" s="16"/>
       <c r="AU9" s="12" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
       <c r="AV9" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW9" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX9" s="13" t="s">
-        <v>575</v>
+        <v>209</v>
+      </c>
+      <c r="AX9" s="21" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>265</v>
       </c>
@@ -6378,10 +6271,10 @@
         <v>48</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="AA10" s="12">
         <v>2</v>
@@ -6392,11 +6285,14 @@
       <c r="AC10" s="12">
         <v>3</v>
       </c>
+      <c r="AD10" s="12" t="s">
+        <v>480</v>
+      </c>
       <c r="AF10" s="12">
         <v>4.3</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH10" s="12" t="s">
         <v>120</v>
@@ -6411,7 +6307,7 @@
         <v>141</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AM10" s="12" t="s">
         <v>232</v>
@@ -6420,10 +6316,10 @@
         <v>160</v>
       </c>
       <c r="AO10" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="AP10" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="AP10" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="AQ10" s="12" t="s">
         <v>164</v>
@@ -6436,7 +6332,7 @@
       </c>
       <c r="AT10" s="16"/>
       <c r="AU10" s="12" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="AV10" s="12" t="s">
         <v>199</v>
@@ -6445,48 +6341,48 @@
         <v>208</v>
       </c>
       <c r="AX10" s="13" t="s">
-        <v>575</v>
+        <v>654</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E11" s="12">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>253</v>
@@ -6495,7 +6391,7 @@
         <v>254</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>21</v>
@@ -6504,22 +6400,22 @@
         <v>31</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>215</v>
+        <v>48</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>484</v>
+        <v>617</v>
       </c>
       <c r="AA11" s="12">
         <v>2</v>
@@ -6530,11 +6426,11 @@
       <c r="AC11" s="12">
         <v>3</v>
       </c>
-      <c r="AF11" s="12" t="s">
-        <v>477</v>
+      <c r="AF11" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH11" s="12" t="s">
         <v>120</v>
@@ -6549,13 +6445,19 @@
         <v>141</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>623</v>
+        <v>479</v>
       </c>
       <c r="AM11" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO11" s="19" t="s">
-        <v>580</v>
+        <v>232</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="AQ11" s="12" t="s">
         <v>164</v>
@@ -6564,25 +6466,23 @@
         <v>168</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT11" s="16" t="s">
-        <v>486</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AT11" s="16"/>
       <c r="AU11" s="12" t="s">
-        <v>485</v>
+        <v>580</v>
       </c>
       <c r="AV11" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW11" s="19" t="s">
-        <v>209</v>
+      <c r="AW11" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="AX11" s="13" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>274</v>
       </c>
@@ -6653,7 +6553,7 @@
         <v>215</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>637</v>
+        <v>483</v>
       </c>
       <c r="AA12" s="12">
         <v>2</v>
@@ -6683,13 +6583,13 @@
         <v>141</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="AM12" s="12" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO12" s="19" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>164</v>
@@ -6701,10 +6601,10 @@
         <v>179</v>
       </c>
       <c r="AT12" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU12" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AV12" s="12" t="s">
         <v>199</v>
@@ -6713,48 +6613,48 @@
         <v>209</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E13" s="12">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>253</v>
@@ -6763,34 +6663,31 @@
         <v>254</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="W13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="X13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="Y13" s="12" t="s">
-        <v>488</v>
-      </c>
       <c r="Z13" s="12" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="AA13" s="12">
         <v>2</v>
@@ -6801,11 +6698,8 @@
       <c r="AC13" s="12">
         <v>3</v>
       </c>
-      <c r="AD13" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="AF13" s="12">
-        <v>4.3</v>
+      <c r="AF13" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG13" s="19" t="s">
         <v>110</v>
@@ -6823,16 +6717,13 @@
         <v>141</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN13" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO13" s="12" t="s">
-        <v>489</v>
+        <v>233</v>
+      </c>
+      <c r="AO13" s="19" t="s">
+        <v>565</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>164</v>
@@ -6840,21 +6731,26 @@
       <c r="AR13" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AT13" s="16"/>
+      <c r="AS13" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT13" s="16" t="s">
+        <v>485</v>
+      </c>
       <c r="AU13" s="12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AV13" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW13" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX13" s="12" t="s">
-        <v>494</v>
+      <c r="AW13" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX13" s="13" t="s">
+        <v>657</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>285</v>
       </c>
@@ -6925,10 +6821,10 @@
         <v>215</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="AA14" s="12">
         <v>2</v>
@@ -6940,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF14" s="12">
         <v>4.3</v>
@@ -6961,7 +6857,7 @@
         <v>141</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="AM14" s="12" t="s">
         <v>232</v>
@@ -6970,7 +6866,7 @@
         <v>161</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>164</v>
@@ -6980,57 +6876,57 @@
       </c>
       <c r="AT14" s="16"/>
       <c r="AU14" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AV14" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX14" s="12" t="s">
-        <v>493</v>
+        <v>658</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E15" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>253</v>
@@ -7039,31 +6935,34 @@
         <v>254</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>639</v>
+        <v>215</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>619</v>
       </c>
       <c r="AA15" s="12">
         <v>2</v>
@@ -7072,16 +6971,16 @@
         <v>2</v>
       </c>
       <c r="AC15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="12" t="s">
-        <v>585</v>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="AF15" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG15" s="12" t="s">
-        <v>113</v>
+      <c r="AG15" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="AH15" s="12" t="s">
         <v>120</v>
@@ -7090,217 +6989,214 @@
         <v>140</v>
       </c>
       <c r="AJ15" s="12" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AK15" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>496</v>
+        <v>605</v>
       </c>
       <c r="AM15" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN15" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>583</v>
+        <v>489</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR15" s="12" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT15" s="16"/>
       <c r="AU15" s="12" t="s">
-        <v>600</v>
+        <v>486</v>
       </c>
       <c r="AV15" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW15" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AQ16" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR16" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="AV16" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX15" s="13" t="s">
-        <v>584</v>
+      <c r="AX16" s="13" t="s">
+        <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2021</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="W16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X16" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y16" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA16" s="19">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="19">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="AF16" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="AG16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH16" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI16" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ16" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL16" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="AM16" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO16" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="AP16" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="AQ16" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR16" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="AV16" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW16" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX16" s="19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E17" s="19">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>248</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>253</v>
@@ -7309,31 +7205,34 @@
         <v>254</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="19" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W17" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>497</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="AA17" s="19">
         <v>2</v>
@@ -7342,31 +7241,40 @@
         <v>2</v>
       </c>
       <c r="AC17" s="19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>496</v>
       </c>
       <c r="AF17" s="19">
         <v>4.3</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH17" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="AJ17" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="AK17" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="AL17" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="AM17" s="19" t="s">
         <v>233</v>
       </c>
       <c r="AO17" s="19" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="AP17" s="19" t="s">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="AQ17" s="19" t="s">
         <v>164</v>
@@ -7374,159 +7282,147 @@
       <c r="AR17" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AS17" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="AT17" s="17"/>
       <c r="AU17" s="19" t="s">
-        <v>595</v>
+        <v>577</v>
+      </c>
+      <c r="AV17" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="AW17" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX17" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2018</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="19">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK18" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO18" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ18" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR18" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="AW18" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="AX17" s="20" t="s">
-        <v>593</v>
+      <c r="AX18" s="20" t="s">
+        <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2011</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z18" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA18" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="AE18" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="AF18" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="AG18" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH18" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI18" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK18" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL18" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="AM18" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO18" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AQ18" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR18" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS18" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="AV18" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW18" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX18" s="12" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>349</v>
       </c>
@@ -7597,7 +7493,7 @@
         <v>216</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="AA19" s="12">
         <v>2</v>
@@ -7609,10 +7505,10 @@
         <v>2</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AE19" s="12" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AF19" s="12">
         <v>4.3</v>
@@ -7624,19 +7520,22 @@
         <v>120</v>
       </c>
       <c r="AI19" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ19" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AK19" s="12" t="s">
         <v>134</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="AM19" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO19" s="12" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AQ19" s="12" t="s">
         <v>164</v>
@@ -7649,90 +7548,90 @@
       </c>
       <c r="AT19" s="16"/>
       <c r="AU19" s="12" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AV19" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW19" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AX19" s="12" t="s">
-        <v>509</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E20" s="12">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X20" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="AA20" s="12">
         <v>2</v>
@@ -7741,10 +7640,13 @@
         <v>2</v>
       </c>
       <c r="AC20" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>513</v>
+        <v>499</v>
+      </c>
+      <c r="AE20" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="AF20" s="12">
         <v>4.3</v>
@@ -7756,19 +7658,19 @@
         <v>120</v>
       </c>
       <c r="AI20" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK20" s="19" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="AK20" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="AM20" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="AQ20" s="12" t="s">
         <v>164</v>
@@ -7776,18 +7678,21 @@
       <c r="AR20" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS20" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT20" s="16"/>
       <c r="AU20" s="12" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AV20" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW20" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX20" s="12" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -7861,7 +7766,7 @@
         <v>216</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="AA21" s="12">
         <v>2</v>
@@ -7872,6 +7777,9 @@
       <c r="AC21" s="12">
         <v>3</v>
       </c>
+      <c r="AD21" s="12" t="s">
+        <v>505</v>
+      </c>
       <c r="AF21" s="12">
         <v>4.3</v>
       </c>
@@ -7888,13 +7796,13 @@
         <v>148</v>
       </c>
       <c r="AL21" s="12" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="AM21" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO21" s="12" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AQ21" s="12" t="s">
         <v>164</v>
@@ -7904,57 +7812,57 @@
       </c>
       <c r="AT21" s="16"/>
       <c r="AU21" s="12" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AV21" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW21" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX21" s="12" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E22" s="12">
         <v>2013</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>253</v>
@@ -7963,22 +7871,22 @@
         <v>254</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W22" s="12" t="s">
         <v>48</v>
@@ -7987,7 +7895,7 @@
         <v>216</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="AA22" s="12">
         <v>2</v>
@@ -7998,35 +7906,29 @@
       <c r="AC22" s="12">
         <v>3</v>
       </c>
-      <c r="AD22" s="13" t="s">
-        <v>528</v>
-      </c>
       <c r="AF22" s="12">
         <v>4.3</v>
       </c>
       <c r="AG22" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH22" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK22" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AK22" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AL22" s="12" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="AM22" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="AP22" s="12" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="AQ22" s="12" t="s">
         <v>164</v>
@@ -8036,57 +7938,57 @@
       </c>
       <c r="AT22" s="16"/>
       <c r="AU22" s="12" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW22" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX22" s="12" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E23" s="12">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>253</v>
@@ -8101,25 +8003,25 @@
         <v>21</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>644</v>
+        <v>513</v>
       </c>
       <c r="AA23" s="12">
         <v>2</v>
@@ -8130,10 +8032,13 @@
       <c r="AC23" s="12">
         <v>3</v>
       </c>
+      <c r="AD23" s="13" t="s">
+        <v>520</v>
+      </c>
       <c r="AF23" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG23" s="12" t="s">
+      <c r="AG23" s="19" t="s">
         <v>111</v>
       </c>
       <c r="AH23" s="12" t="s">
@@ -8146,13 +8051,16 @@
         <v>148</v>
       </c>
       <c r="AL23" s="12" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AM23" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>530</v>
+        <v>514</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>515</v>
       </c>
       <c r="AQ23" s="12" t="s">
         <v>164</v>
@@ -8160,24 +8068,21 @@
       <c r="AR23" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AS23" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="AT23" s="16"/>
       <c r="AU23" s="12" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="AV23" s="12" t="s">
         <v>113</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX23" s="13" t="s">
-        <v>533</v>
+        <v>209</v>
+      </c>
+      <c r="AX23" s="12" t="s">
+        <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="12" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>376</v>
       </c>
@@ -8248,7 +8153,7 @@
         <v>69</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="AA24" s="12">
         <v>2</v>
@@ -8275,13 +8180,13 @@
         <v>148</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AM24" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AQ24" s="12" t="s">
         <v>164</v>
@@ -8290,11 +8195,11 @@
         <v>239</v>
       </c>
       <c r="AS24" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AT24" s="16"/>
       <c r="AU24" s="12" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>113</v>
@@ -8303,10 +8208,10 @@
         <v>208</v>
       </c>
       <c r="AX24" s="13" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" s="12" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>376</v>
       </c>
@@ -8377,7 +8282,7 @@
         <v>69</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="AA25" s="12">
         <v>2</v>
@@ -8404,25 +8309,26 @@
         <v>148</v>
       </c>
       <c r="AL25" s="12" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AM25" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AQ25" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR25" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT25" s="16" t="s">
-        <v>531</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AS25" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT25" s="16"/>
       <c r="AU25" s="12" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AV25" s="12" t="s">
         <v>113</v>
@@ -8431,48 +8337,48 @@
         <v>208</v>
       </c>
       <c r="AX25" s="13" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E26" s="12">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>389</v>
+        <v>248</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>253</v>
@@ -8481,34 +8387,31 @@
         <v>254</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y26" s="12" t="s">
-        <v>514</v>
+        <v>69</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>517</v>
+        <v>625</v>
       </c>
       <c r="AA26" s="12">
         <v>2</v>
@@ -8519,95 +8422,91 @@
       <c r="AC26" s="12">
         <v>3</v>
       </c>
-      <c r="AE26" s="12" t="s">
-        <v>516</v>
-      </c>
       <c r="AF26" s="12">
         <v>4.3</v>
       </c>
       <c r="AG26" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH26" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AI26" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="AK26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>628</v>
+        <v>524</v>
       </c>
       <c r="AM26" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="AP26" s="12" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AQ26" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR26" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS26" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT26" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="AT26" s="16" t="s">
+        <v>523</v>
+      </c>
       <c r="AU26" s="12" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AV26" s="12" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX26" s="12" t="s">
-        <v>520</v>
+      <c r="AX26" s="13" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="E27" s="12">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>253</v>
@@ -8616,31 +8515,34 @@
         <v>254</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>645</v>
+        <v>509</v>
       </c>
       <c r="AA27" s="12">
         <v>2</v>
@@ -8651,8 +8553,11 @@
       <c r="AC27" s="12">
         <v>3</v>
       </c>
-      <c r="AF27" s="12" t="s">
-        <v>477</v>
+      <c r="AE27" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG27" s="12" t="s">
         <v>110</v>
@@ -8660,45 +8565,42 @@
       <c r="AH27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI27" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ27" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AK27" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL27" s="12" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="AM27" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN27" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>603</v>
+        <v>507</v>
+      </c>
+      <c r="AP27" s="12" t="s">
+        <v>511</v>
       </c>
       <c r="AQ27" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR27" s="12" t="s">
-        <v>170</v>
+        <v>239</v>
+      </c>
+      <c r="AS27" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="AT27" s="16"/>
       <c r="AU27" s="12" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="AV27" s="12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW27" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AX27" s="12" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -8772,7 +8674,7 @@
         <v>216</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="AA28" s="12">
         <v>2</v>
@@ -8802,7 +8704,7 @@
         <v>134</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="AM28" s="12" t="s">
         <v>232</v>
@@ -8811,17 +8713,17 @@
         <v>160</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="AQ28" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR28" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT28" s="16"/>
       <c r="AU28" s="12" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="AV28" s="12" t="s">
         <v>200</v>
@@ -8830,48 +8732,48 @@
         <v>208</v>
       </c>
       <c r="AX28" s="12" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E29" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>253</v>
@@ -8880,31 +8782,31 @@
         <v>254</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X29" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>543</v>
+        <v>626</v>
       </c>
       <c r="AA29" s="12">
         <v>2</v>
@@ -8913,10 +8815,10 @@
         <v>2</v>
       </c>
       <c r="AC29" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF29" s="12">
-        <v>4.3</v>
+        <v>3</v>
+      </c>
+      <c r="AF29" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG29" s="12" t="s">
         <v>110</v>
@@ -8924,39 +8826,45 @@
       <c r="AH29" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="AI29" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ29" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="AK29" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="AM29" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN29" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO29" s="12" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="AQ29" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR29" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS29" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AT29" s="16"/>
       <c r="AU29" s="12" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="AV29" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW29" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AX29" s="12" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -9030,7 +8938,7 @@
         <v>216</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="AA30" s="12">
         <v>2</v>
@@ -9054,13 +8962,13 @@
         <v>148</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="AM30" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="AQ30" s="12" t="s">
         <v>164</v>
@@ -9073,7 +8981,7 @@
       </c>
       <c r="AT30" s="16"/>
       <c r="AU30" s="12" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AV30" s="12" t="s">
         <v>199</v>
@@ -9082,30 +8990,30 @@
         <v>208</v>
       </c>
       <c r="AX30" s="12" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E31" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>248</v>
@@ -9117,13 +9025,13 @@
         <v>248</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N31" s="12" t="s">
         <v>253</v>
@@ -9132,34 +9040,31 @@
         <v>254</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T31" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y31" s="12" t="s">
-        <v>550</v>
+        <v>216</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>646</v>
+        <v>529</v>
       </c>
       <c r="AA31" s="12">
         <v>2</v>
@@ -9168,31 +9073,28 @@
         <v>2</v>
       </c>
       <c r="AC31" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE31" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="AF31" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG31" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH31" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK31" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL31" s="12" t="s">
-        <v>669</v>
+        <v>611</v>
       </c>
       <c r="AM31" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AO31" s="12" t="s">
-        <v>667</v>
+        <v>534</v>
       </c>
       <c r="AQ31" s="12" t="s">
         <v>164</v>
@@ -9200,9 +9102,12 @@
       <c r="AR31" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS31" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT31" s="16"/>
       <c r="AU31" s="12" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="AV31" s="12" t="s">
         <v>199</v>
@@ -9210,11 +9115,11 @@
       <c r="AW31" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX31" s="28" t="s">
-        <v>665</v>
+      <c r="AX31" s="12" t="s">
+        <v>533</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>423</v>
       </c>
@@ -9285,10 +9190,10 @@
         <v>113</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="AA32" s="12">
         <v>2</v>
@@ -9300,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="AE32" s="12" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="AF32" s="12" t="s">
         <v>477</v>
@@ -9315,13 +9220,13 @@
         <v>150</v>
       </c>
       <c r="AL32" s="12" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="AM32" s="12" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="AQ32" s="12" t="s">
         <v>164</v>
@@ -9331,16 +9236,16 @@
       </c>
       <c r="AT32" s="16"/>
       <c r="AU32" s="12" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="AV32" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW32" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX32" s="28" t="s">
-        <v>666</v>
+        <v>208</v>
+      </c>
+      <c r="AX32" s="21" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9396,7 +9301,7 @@
         <v>21</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T33" s="12" t="s">
         <v>46</v>
@@ -9414,10 +9319,10 @@
         <v>113</v>
       </c>
       <c r="Y33" s="12" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="AA33" s="12">
         <v>2</v>
@@ -9429,7 +9334,7 @@
         <v>3</v>
       </c>
       <c r="AE33" s="12" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="AF33" s="12" t="s">
         <v>477</v>
@@ -9444,13 +9349,13 @@
         <v>150</v>
       </c>
       <c r="AL33" s="12" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="AM33" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AO33" s="12" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="AQ33" s="12" t="s">
         <v>164</v>
@@ -9460,7 +9365,7 @@
       </c>
       <c r="AT33" s="16"/>
       <c r="AU33" s="12" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="AV33" s="12" t="s">
         <v>199</v>
@@ -9468,8 +9373,8 @@
       <c r="AW33" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AX33" s="28" t="s">
-        <v>666</v>
+      <c r="AX33" s="21" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9543,10 +9448,10 @@
         <v>113</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="AA34" s="12">
         <v>2</v>
@@ -9558,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="AF34" s="12" t="s">
         <v>477</v>
@@ -9573,13 +9478,13 @@
         <v>150</v>
       </c>
       <c r="AL34" s="12" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="AM34" s="12" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="AQ34" s="12" t="s">
         <v>164</v>
@@ -9589,39 +9494,39 @@
       </c>
       <c r="AT34" s="16"/>
       <c r="AU34" s="12" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="AV34" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW34" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX34" s="28" t="s">
-        <v>668</v>
+        <v>207</v>
+      </c>
+      <c r="AX34" s="21" t="s">
+        <v>647</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E35" s="12">
         <v>2021</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>248</v>
@@ -9633,13 +9538,13 @@
         <v>248</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N35" s="12" t="s">
         <v>253</v>
@@ -9648,7 +9553,7 @@
         <v>254</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>21</v>
@@ -9657,22 +9562,25 @@
         <v>23</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W35" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="AA35" s="12">
         <v>2</v>
@@ -9683,32 +9591,29 @@
       <c r="AC35" s="12">
         <v>3</v>
       </c>
-      <c r="AE35" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF35" s="12">
-        <v>4.3</v>
+      <c r="AE35" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF35" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG35" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI35" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AK35" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL35" s="12" t="s">
-        <v>549</v>
+        <v>652</v>
       </c>
       <c r="AM35" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO35" s="12" t="s">
-        <v>553</v>
+        <v>648</v>
       </c>
       <c r="AQ35" s="12" t="s">
         <v>164</v>
@@ -9718,87 +9623,90 @@
       </c>
       <c r="AT35" s="16"/>
       <c r="AU35" s="12" t="s">
-        <v>554</v>
+        <v>582</v>
+      </c>
+      <c r="AV35" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="AW35" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX35" s="12" t="s">
-        <v>555</v>
+        <v>208</v>
+      </c>
+      <c r="AX35" s="21" t="s">
+        <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E36" s="12">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X36" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="AA36" s="12">
         <v>2</v>
@@ -9810,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="AF36" s="12">
         <v>4.3</v>
@@ -9819,22 +9727,22 @@
         <v>110</v>
       </c>
       <c r="AH36" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AI36" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK36" s="12" t="s">
         <v>134</v>
       </c>
       <c r="AL36" s="12" t="s">
-        <v>631</v>
+        <v>535</v>
       </c>
       <c r="AM36" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="AQ36" s="12" t="s">
         <v>164</v>
@@ -9844,69 +9752,69 @@
       </c>
       <c r="AT36" s="16"/>
       <c r="AU36" s="12" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="AW36" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX36" s="13" t="s">
-        <v>557</v>
+      <c r="AX36" s="12" t="s">
+        <v>541</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E37" s="12">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="Q37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T37" s="12" t="s">
         <v>46</v>
@@ -9915,19 +9823,16 @@
         <v>55</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X37" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y37" s="12" t="s">
-        <v>560</v>
-      </c>
       <c r="Z37" s="12" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="AA37" s="12">
         <v>2</v>
@@ -9936,13 +9841,13 @@
         <v>2</v>
       </c>
       <c r="AC37" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="AF37" s="12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AG37" s="12" t="s">
         <v>110</v>
@@ -9951,84 +9856,76 @@
         <v>117</v>
       </c>
       <c r="AI37" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AK37" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL37" s="12" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="AM37" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN37" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO37" s="12" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="AQ37" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR37" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT37" s="16" t="s">
-        <v>562</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT37" s="16"/>
       <c r="AU37" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="AV37" s="12" t="s">
-        <v>199</v>
+        <v>544</v>
       </c>
       <c r="AW37" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX37" s="13" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E38" s="12">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>310</v>
+        <v>455</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>253</v>
@@ -10037,34 +9934,34 @@
         <v>254</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="W38" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X38" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="AA38" s="12">
         <v>2</v>
@@ -10073,97 +9970,108 @@
         <v>2</v>
       </c>
       <c r="AC38" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="AF38" s="12">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG38" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AH38" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI38" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="AK38" s="12" t="s">
         <v>148</v>
       </c>
+      <c r="AL38" s="12" t="s">
+        <v>613</v>
+      </c>
       <c r="AM38" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN38" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="AQ38" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR38" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT38" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="AT38" s="16" t="s">
+        <v>548</v>
+      </c>
       <c r="AU38" s="12" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="AV38" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX38" s="12" t="s">
-        <v>569</v>
+        <v>207</v>
+      </c>
+      <c r="AX38" s="13" t="s">
+        <v>551</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>604</v>
+        <v>461</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>605</v>
+        <v>462</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>606</v>
+        <v>463</v>
       </c>
       <c r="E39" s="12">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>326</v>
+        <v>464</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>607</v>
+        <v>310</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>608</v>
+        <v>465</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>609</v>
+        <v>466</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>610</v>
+        <v>467</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>611</v>
+        <v>468</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>612</v>
+        <v>469</v>
       </c>
       <c r="N39" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>613</v>
+        <v>254</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q39" s="12" t="s">
         <v>21</v>
@@ -10172,13 +10080,13 @@
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W39" s="12" t="s">
         <v>53</v>
@@ -10186,8 +10094,11 @@
       <c r="X39" s="12" t="s">
         <v>216</v>
       </c>
+      <c r="Y39" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="Z39" s="12" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="AA39" s="12">
         <v>2</v>
@@ -10196,7 +10107,10 @@
         <v>2</v>
       </c>
       <c r="AC39" s="12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE39" s="13" t="s">
+        <v>556</v>
       </c>
       <c r="AF39" s="12">
         <v>4.3</v>
@@ -10207,23 +10121,14 @@
       <c r="AH39" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI39" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ39" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AK39" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AL39" s="12" t="s">
-        <v>653</v>
-      </c>
       <c r="AM39" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO39" s="12" t="s">
-        <v>654</v>
+        <v>554</v>
       </c>
       <c r="AQ39" s="12" t="s">
         <v>164</v>
@@ -10231,67 +10136,65 @@
       <c r="AR39" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT39" s="12" t="s">
-        <v>655</v>
-      </c>
+      <c r="AT39" s="16"/>
       <c r="AU39" s="12" t="s">
-        <v>656</v>
+        <v>553</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW39" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX39" s="13" t="s">
-        <v>657</v>
+        <v>208</v>
+      </c>
+      <c r="AX39" s="12" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="E40" s="12">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>248</v>
+        <v>589</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>620</v>
+        <v>592</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>254</v>
+        <v>594</v>
       </c>
       <c r="P40" s="12" t="s">
         <v>255</v>
@@ -10300,25 +10203,25 @@
         <v>21</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="W40" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X40" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y40" s="12" t="s">
-        <v>659</v>
+        <v>216</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="AA40" s="12">
         <v>2</v>
@@ -10327,40 +10230,46 @@
         <v>2</v>
       </c>
       <c r="AC40" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF40" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF40" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG40" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH40" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI40" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="AJ40" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AK40" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL40" s="12" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="AM40" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN40" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="AQ40" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR40" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT40" s="12" t="s">
+        <v>636</v>
+      </c>
       <c r="AU40" s="12" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="AV40" s="12" t="s">
         <v>199</v>
@@ -10369,21 +10278,21 @@
         <v>207</v>
       </c>
       <c r="AX40" s="13" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="E41" s="12">
         <v>2010</v>
@@ -10392,25 +10301,25 @@
         <v>246</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="N41" s="12" t="s">
         <v>253</v>
@@ -10425,7 +10334,7 @@
         <v>21</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T41" s="12" t="s">
         <v>46</v>
@@ -10440,10 +10349,10 @@
         <v>113</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="AA41" s="12">
         <v>2</v>
@@ -10470,7 +10379,7 @@
         <v>150</v>
       </c>
       <c r="AL41" s="12" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="AM41" s="12" t="s">
         <v>232</v>
@@ -10479,63 +10388,63 @@
         <v>160</v>
       </c>
       <c r="AO41" s="12" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="AQ41" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AU41" s="12" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="AV41" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW41" s="12" t="s">
         <v>207</v>
       </c>
       <c r="AX41" s="13" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>470</v>
+        <v>595</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>471</v>
+        <v>596</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="E42" s="12">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>473</v>
+        <v>246</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>280</v>
+        <v>598</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>248</v>
+        <v>599</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>248</v>
+        <v>600</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>474</v>
+        <v>601</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>475</v>
+        <v>602</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>253</v>
@@ -10544,34 +10453,31 @@
         <v>254</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T42" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V42" s="12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X42" s="12" t="s">
         <v>113</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="Z42" s="12" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="AA42" s="12">
         <v>2</v>
@@ -10582,305 +10488,311 @@
       <c r="AC42" s="12">
         <v>3</v>
       </c>
-      <c r="AF42" s="12">
-        <v>4.3</v>
+      <c r="AF42" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG42" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH42" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI42" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="AK42" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL42" s="12" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="AM42" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="AN42" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO42" s="12" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="AQ42" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AR42" s="12" t="s">
+      <c r="AU42" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="AV42" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW42" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX42" s="13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E43" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z43" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG43" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH43" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK43" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL43" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="AM43" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO43" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="AQ43" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR43" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT42" s="16"/>
-      <c r="AU42" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="AV42" s="12" t="s">
+      <c r="AT43" s="16"/>
+      <c r="AU43" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="AV43" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AW42" s="12" t="s">
+      <c r="AW43" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="AX42" s="12" t="s">
-        <v>574</v>
+      <c r="AX43" s="12" t="s">
+        <v>560</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>2015</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G44" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I44" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J44" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K44" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L44" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M44" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="N44" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O44" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P44" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="Q44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AF43" s="11">
-        <v>4.3</v>
-      </c>
     </row>
-    <row r="44" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+    <row r="45" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>2020</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F45" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H45" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I45" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J45" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K45" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="L45" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="M44" s="15" t="s">
+      <c r="M45" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N45" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="O45" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P45" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="Q44" s="15" t="s">
+      <c r="Q45" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="15" t="s">
+      <c r="R45" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="AF44" s="15">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E45" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="AE45" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="AG45" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH45" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK45" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM45" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AO45" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="AQ45" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU45" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="AV45" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW45" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX45" s="11" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="E46" s="11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>318</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>248</v>
@@ -10889,13 +10801,13 @@
         <v>248</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>253</v>
@@ -10911,83 +10823,32 @@
       </c>
       <c r="R46" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V46" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W46" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z46" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="AF46" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="AG46" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH46" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI46" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ46" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK46" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM46" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO46" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="AQ46" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR46" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV46" s="11" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E47" s="11">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>248</v>
@@ -10996,13 +10857,13 @@
         <v>248</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>253</v>
@@ -11011,70 +10872,54 @@
         <v>254</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI47" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>443</v>
+        <v>332</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="E48" s="11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>446</v>
+        <v>336</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>248</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>447</v>
+        <v>248</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>449</v>
+        <v>337</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>253</v>
@@ -11083,7 +10928,7 @@
         <v>254</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>21</v>
@@ -11091,8 +10936,62 @@
       <c r="R48" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AF48" s="11">
-        <v>4.3</v>
+      <c r="AG48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -11106,7 +11005,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q14 P6:Q8 P15:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P16:P1048576 P6:Q9 Q3:Q15" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -11238,64 +11137,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25" t="s">
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -12334,51 +12233,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
     </row>
     <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -13207,21 +13106,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13335,30 +13225,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13372,4 +13263,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CEE2BC-A9E2-437E-9C2D-8B45D918E808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A95D1-D800-4C8A-9884-F65D20DEA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$50</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="665">
   <si>
     <t>SearchID</t>
   </si>
@@ -3843,9 +3843,6 @@
   </si>
   <si>
     <t>Proportion of damaged individuals</t>
-  </si>
-  <si>
-    <t>Mechanised clam dredging fishery_standard clam vessels</t>
   </si>
   <si>
     <t xml:space="preserve">Recruit density </t>
@@ -4576,6 +4573,9 @@
   </si>
   <si>
     <t>Fishing pressure</t>
+  </si>
+  <si>
+    <t>Donax trunculus _ Chamelea gallina</t>
   </si>
 </sst>
 </file>
@@ -5048,35 +5048,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX49"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AP8" sqref="AP8"/>
+      <selection pane="bottomLeft" activeCell="AU54" sqref="AU54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="92.109375" customWidth="1"/>
-    <col min="18" max="18" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="40" width="15.88671875" customWidth="1"/>
-    <col min="41" max="41" width="15.88671875" style="12" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="92.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="32.7109375" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="18.7109375" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" style="12" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" style="12" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="19.88671875" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="AW1" s="23"/>
       <c r="AX1" s="23"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>476</v>
       </c>
       <c r="Z3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5398,13 +5398,13 @@
         <v>134</v>
       </c>
       <c r="AL3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM3" t="s">
         <v>231</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="AT3" s="16"/>
       <c r="AU3" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -5423,10 +5423,10 @@
         <v>207</v>
       </c>
       <c r="AX3" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>476</v>
       </c>
       <c r="Z4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5530,7 +5530,7 @@
         <v>134</v>
       </c>
       <c r="AL4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM4" t="s">
         <v>232</v>
@@ -5539,7 +5539,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="AT4" s="16"/>
       <c r="AU4" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5558,10 +5558,10 @@
         <v>210</v>
       </c>
       <c r="AX4" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>476</v>
       </c>
       <c r="Z5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5665,7 +5665,7 @@
         <v>134</v>
       </c>
       <c r="AL5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM5" t="s">
         <v>232</v>
@@ -5674,7 +5674,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="AT5" s="16"/>
       <c r="AU5" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>256</v>
       </c>
@@ -5765,13 +5765,13 @@
         <v>69</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA6" s="12">
         <v>2</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF6" s="12">
         <v>4.3</v>
@@ -5798,10 +5798,10 @@
         <v>233</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AQ6" s="12" t="s">
         <v>164</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="AT6" s="16"/>
       <c r="AU6" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AV6" s="12" t="s">
         <v>203</v>
@@ -5820,10 +5820,10 @@
         <v>208</v>
       </c>
       <c r="AX6" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>256</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>69</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA7" s="12">
         <v>2</v>
@@ -5924,10 +5924,10 @@
         <v>233</v>
       </c>
       <c r="AO7" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AQ7" s="12" t="s">
         <v>164</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="AT7" s="16"/>
       <c r="AU7" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AV7" s="12" t="s">
         <v>206</v>
@@ -5946,10 +5946,10 @@
         <v>208</v>
       </c>
       <c r="AX7" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>256</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>69</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA8" s="12">
         <v>2</v>
@@ -6051,10 +6051,10 @@
       </c>
       <c r="AN8" s="19"/>
       <c r="AO8" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AQ8" s="12" t="s">
         <v>164</v>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="AT8" s="16"/>
       <c r="AU8" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AV8" s="12" t="s">
         <v>199</v>
@@ -6073,10 +6073,10 @@
         <v>209</v>
       </c>
       <c r="AX8" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>256</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA9" s="12">
         <v>2</v>
@@ -6178,10 +6178,10 @@
       </c>
       <c r="AN9" s="19"/>
       <c r="AO9" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AQ9" s="12" t="s">
         <v>164</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="AT9" s="16"/>
       <c r="AU9" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AV9" s="12" t="s">
         <v>205</v>
@@ -6200,10 +6200,10 @@
         <v>209</v>
       </c>
       <c r="AX9" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>265</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>70</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AA10" s="12">
         <v>2</v>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="AT10" s="16"/>
       <c r="AU10" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV10" s="12" t="s">
         <v>199</v>
@@ -6341,10 +6341,10 @@
         <v>208</v>
       </c>
       <c r="AX10" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>265</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>69</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AA11" s="12">
         <v>2</v>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="AT11" s="16"/>
       <c r="AU11" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AV11" s="12" t="s">
         <v>199</v>
@@ -6479,10 +6479,10 @@
         <v>208</v>
       </c>
       <c r="AX11" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>274</v>
       </c>
@@ -6583,13 +6583,16 @@
         <v>141</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM12" s="12" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO12" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>164</v>
@@ -6601,7 +6604,7 @@
         <v>179</v>
       </c>
       <c r="AT12" s="16" t="s">
-        <v>485</v>
+        <v>664</v>
       </c>
       <c r="AU12" s="12" t="s">
         <v>484</v>
@@ -6613,10 +6616,10 @@
         <v>209</v>
       </c>
       <c r="AX12" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>274</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>215</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>618</v>
+        <v>483</v>
       </c>
       <c r="AA13" s="12">
         <v>2</v>
@@ -6717,13 +6720,16 @@
         <v>141</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM13" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN13" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="AO13" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>164</v>
@@ -6735,7 +6741,7 @@
         <v>179</v>
       </c>
       <c r="AT13" s="16" t="s">
-        <v>485</v>
+        <v>664</v>
       </c>
       <c r="AU13" s="12" t="s">
         <v>484</v>
@@ -6747,48 +6753,48 @@
         <v>209</v>
       </c>
       <c r="AX13" s="13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E14" s="12">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>253</v>
@@ -6797,34 +6803,31 @@
         <v>254</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="W14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="X14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X14" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="Y14" s="12" t="s">
-        <v>487</v>
-      </c>
       <c r="Z14" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AA14" s="12">
         <v>2</v>
@@ -6835,11 +6838,8 @@
       <c r="AC14" s="12">
         <v>3</v>
       </c>
-      <c r="AD14" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF14" s="12">
-        <v>4.3</v>
+      <c r="AF14" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG14" s="19" t="s">
         <v>110</v>
@@ -6857,16 +6857,13 @@
         <v>141</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO14" s="12" t="s">
-        <v>488</v>
+        <v>233</v>
+      </c>
+      <c r="AO14" s="19" t="s">
+        <v>564</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>164</v>
@@ -6874,21 +6871,26 @@
       <c r="AR14" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AT14" s="16"/>
+      <c r="AS14" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT14" s="16" t="s">
+        <v>664</v>
+      </c>
       <c r="AU14" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AV14" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW14" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX14" s="12" t="s">
-        <v>658</v>
+      <c r="AW14" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX14" s="13" t="s">
+        <v>656</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>285</v>
       </c>
@@ -6959,10 +6961,10 @@
         <v>215</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AA15" s="12">
         <v>2</v>
@@ -6974,7 +6976,7 @@
         <v>3</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF15" s="12">
         <v>4.3</v>
@@ -6995,7 +6997,7 @@
         <v>141</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AM15" s="12" t="s">
         <v>232</v>
@@ -7004,7 +7006,7 @@
         <v>161</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>164</v>
@@ -7014,57 +7016,57 @@
       </c>
       <c r="AT15" s="16"/>
       <c r="AU15" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AV15" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW15" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX15" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E16" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>253</v>
@@ -7073,31 +7075,34 @@
         <v>254</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>620</v>
+        <v>215</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>618</v>
       </c>
       <c r="AA16" s="12">
         <v>2</v>
@@ -7106,16 +7111,16 @@
         <v>2</v>
       </c>
       <c r="AC16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="12" t="s">
-        <v>567</v>
+        <v>3</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="AF16" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG16" s="12" t="s">
-        <v>113</v>
+      <c r="AG16" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="AH16" s="12" t="s">
         <v>120</v>
@@ -7124,217 +7129,214 @@
         <v>140</v>
       </c>
       <c r="AJ16" s="12" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>492</v>
+        <v>604</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN16" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>566</v>
+        <v>488</v>
       </c>
       <c r="AQ16" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT16" s="16"/>
       <c r="AU16" s="12" t="s">
-        <v>581</v>
+        <v>485</v>
       </c>
       <c r="AV16" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW16" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX16" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR17" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="AV17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW17" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX16" s="13" t="s">
-        <v>660</v>
+      <c r="AX17" s="13" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+    <row r="18" spans="1:50" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2021</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z17" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA17" s="19">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="19">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="AF17" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="AG17" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH17" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI17" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ17" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL17" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="AM17" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO17" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="AP17" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="AQ17" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR17" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="AV17" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW17" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX17" s="19" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E18" s="19">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L18" s="19" t="s">
         <v>248</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>253</v>
@@ -7343,31 +7345,34 @@
         <v>254</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W18" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>496</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA18" s="19">
         <v>2</v>
@@ -7376,191 +7381,191 @@
         <v>2</v>
       </c>
       <c r="AC18" s="19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>495</v>
       </c>
       <c r="AF18" s="19">
         <v>4.3</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH18" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI18" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="AK18" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="AL18" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="AM18" s="19" t="s">
         <v>233</v>
       </c>
       <c r="AO18" s="19" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
       <c r="AP18" s="19" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="AQ18" s="19" t="s">
         <v>164</v>
       </c>
       <c r="AR18" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="AS18" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="AT18" s="17"/>
       <c r="AU18" s="19" t="s">
         <v>576</v>
       </c>
+      <c r="AV18" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="AW18" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX18" s="19" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2018</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA19" s="19">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="19">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="19">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH19" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM19" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO19" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="AP19" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AQ19" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR19" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS19" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AV19" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW19" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="AX18" s="20" t="s">
-        <v>662</v>
+      <c r="AX19" s="20" t="s">
+        <v>661</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="12" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2011</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z19" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="AE19" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF19" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="AG19" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI19" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ19" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK19" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL19" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="AM19" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO19" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="AQ19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR19" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS19" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="AV19" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW19" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX19" s="12" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>349</v>
       </c>
@@ -7631,7 +7636,7 @@
         <v>216</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA20" s="12">
         <v>2</v>
@@ -7643,10 +7648,10 @@
         <v>2</v>
       </c>
       <c r="AD20" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE20" s="12" t="s">
         <v>499</v>
-      </c>
-      <c r="AE20" s="12" t="s">
-        <v>500</v>
       </c>
       <c r="AF20" s="12">
         <v>4.3</v>
@@ -7658,19 +7663,22 @@
         <v>120</v>
       </c>
       <c r="AI20" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ20" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AK20" s="12" t="s">
         <v>134</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AM20" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AQ20" s="12" t="s">
         <v>164</v>
@@ -7683,90 +7691,90 @@
       </c>
       <c r="AT20" s="16"/>
       <c r="AU20" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AV20" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW20" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AX20" s="12" t="s">
-        <v>501</v>
+        <v>662</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E21" s="12">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O21" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X21" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA21" s="12">
         <v>2</v>
@@ -7775,10 +7783,13 @@
         <v>2</v>
       </c>
       <c r="AC21" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>505</v>
+        <v>498</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="AF21" s="12">
         <v>4.3</v>
@@ -7790,19 +7801,19 @@
         <v>120</v>
       </c>
       <c r="AI21" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK21" s="19" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="AK21" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="AL21" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AM21" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO21" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="AQ21" s="12" t="s">
         <v>164</v>
@@ -7810,21 +7821,24 @@
       <c r="AR21" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS21" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT21" s="16"/>
       <c r="AU21" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AV21" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW21" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX21" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>359</v>
       </c>
@@ -7895,7 +7909,7 @@
         <v>216</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA22" s="12">
         <v>2</v>
@@ -7906,6 +7920,9 @@
       <c r="AC22" s="12">
         <v>3</v>
       </c>
+      <c r="AD22" s="12" t="s">
+        <v>504</v>
+      </c>
       <c r="AF22" s="12">
         <v>4.3</v>
       </c>
@@ -7922,13 +7939,13 @@
         <v>148</v>
       </c>
       <c r="AL22" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AM22" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AQ22" s="12" t="s">
         <v>164</v>
@@ -7938,57 +7955,57 @@
       </c>
       <c r="AT22" s="16"/>
       <c r="AU22" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AV22" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW22" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX22" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E23" s="12">
         <v>2013</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>253</v>
@@ -7997,22 +8014,22 @@
         <v>254</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W23" s="12" t="s">
         <v>48</v>
@@ -8021,7 +8038,7 @@
         <v>216</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>513</v>
+        <v>623</v>
       </c>
       <c r="AA23" s="12">
         <v>2</v>
@@ -8032,35 +8049,29 @@
       <c r="AC23" s="12">
         <v>3</v>
       </c>
-      <c r="AD23" s="13" t="s">
-        <v>520</v>
-      </c>
       <c r="AF23" s="12">
         <v>4.3</v>
       </c>
       <c r="AG23" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH23" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK23" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AK23" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AL23" s="12" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="AM23" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="AP23" s="12" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="AQ23" s="12" t="s">
         <v>164</v>
@@ -8070,57 +8081,57 @@
       </c>
       <c r="AT23" s="16"/>
       <c r="AU23" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX23" s="12" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E24" s="12">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>253</v>
@@ -8135,25 +8146,25 @@
         <v>21</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>625</v>
+        <v>512</v>
       </c>
       <c r="AA24" s="12">
         <v>2</v>
@@ -8164,10 +8175,13 @@
       <c r="AC24" s="12">
         <v>3</v>
       </c>
+      <c r="AD24" s="13" t="s">
+        <v>519</v>
+      </c>
       <c r="AF24" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG24" s="12" t="s">
+      <c r="AG24" s="19" t="s">
         <v>111</v>
       </c>
       <c r="AH24" s="12" t="s">
@@ -8180,13 +8194,16 @@
         <v>148</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="AM24" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>522</v>
+        <v>513</v>
+      </c>
+      <c r="AP24" s="12" t="s">
+        <v>514</v>
       </c>
       <c r="AQ24" s="12" t="s">
         <v>164</v>
@@ -8194,24 +8211,21 @@
       <c r="AR24" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AS24" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="AT24" s="16"/>
       <c r="AU24" s="12" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>113</v>
       </c>
       <c r="AW24" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX24" s="13" t="s">
-        <v>525</v>
+        <v>209</v>
+      </c>
+      <c r="AX24" s="12" t="s">
+        <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="12" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>376</v>
       </c>
@@ -8282,7 +8296,7 @@
         <v>69</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA25" s="12">
         <v>2</v>
@@ -8309,13 +8323,13 @@
         <v>148</v>
       </c>
       <c r="AL25" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM25" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ25" s="12" t="s">
         <v>164</v>
@@ -8324,11 +8338,11 @@
         <v>239</v>
       </c>
       <c r="AS25" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AT25" s="16"/>
       <c r="AU25" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AV25" s="12" t="s">
         <v>113</v>
@@ -8337,10 +8351,10 @@
         <v>208</v>
       </c>
       <c r="AX25" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" s="12" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>376</v>
       </c>
@@ -8411,7 +8425,7 @@
         <v>69</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA26" s="12">
         <v>2</v>
@@ -8438,25 +8452,26 @@
         <v>148</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM26" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ26" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR26" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT26" s="16" t="s">
-        <v>523</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AS26" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT26" s="16"/>
       <c r="AU26" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AV26" s="12" t="s">
         <v>113</v>
@@ -8465,48 +8480,48 @@
         <v>208</v>
       </c>
       <c r="AX26" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E27" s="12">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>389</v>
+        <v>248</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>253</v>
@@ -8515,34 +8530,31 @@
         <v>254</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>506</v>
+        <v>69</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>509</v>
+        <v>624</v>
       </c>
       <c r="AA27" s="12">
         <v>2</v>
@@ -8553,95 +8565,91 @@
       <c r="AC27" s="12">
         <v>3</v>
       </c>
-      <c r="AE27" s="12" t="s">
-        <v>508</v>
-      </c>
       <c r="AF27" s="12">
         <v>4.3</v>
       </c>
       <c r="AG27" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH27" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AI27" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="AK27" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AL27" s="12" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="AM27" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="AP27" s="12" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="AQ27" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR27" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS27" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT27" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="AT27" s="16" t="s">
+        <v>522</v>
+      </c>
       <c r="AU27" s="12" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="AV27" s="12" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW27" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX27" s="12" t="s">
-        <v>512</v>
+      <c r="AX27" s="13" t="s">
+        <v>524</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="E28" s="12">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>253</v>
@@ -8650,31 +8658,34 @@
         <v>254</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>626</v>
+        <v>508</v>
       </c>
       <c r="AA28" s="12">
         <v>2</v>
@@ -8685,8 +8696,11 @@
       <c r="AC28" s="12">
         <v>3</v>
       </c>
-      <c r="AF28" s="12" t="s">
-        <v>477</v>
+      <c r="AE28" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG28" s="12" t="s">
         <v>110</v>
@@ -8694,48 +8708,45 @@
       <c r="AH28" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI28" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ28" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AK28" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AM28" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>584</v>
+        <v>506</v>
+      </c>
+      <c r="AP28" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="AQ28" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR28" s="12" t="s">
-        <v>170</v>
+        <v>239</v>
+      </c>
+      <c r="AS28" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="AT28" s="16"/>
       <c r="AU28" s="12" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="AV28" s="12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AW28" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AX28" s="12" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>409</v>
       </c>
@@ -8806,7 +8817,7 @@
         <v>216</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA29" s="12">
         <v>2</v>
@@ -8836,7 +8847,7 @@
         <v>134</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM29" s="12" t="s">
         <v>232</v>
@@ -8845,17 +8856,17 @@
         <v>160</v>
       </c>
       <c r="AO29" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AQ29" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR29" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AT29" s="16"/>
       <c r="AU29" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AV29" s="12" t="s">
         <v>200</v>
@@ -8864,48 +8875,48 @@
         <v>208</v>
       </c>
       <c r="AX29" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E30" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>253</v>
@@ -8914,31 +8925,31 @@
         <v>254</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X30" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>529</v>
+        <v>625</v>
       </c>
       <c r="AA30" s="12">
         <v>2</v>
@@ -8947,10 +8958,10 @@
         <v>2</v>
       </c>
       <c r="AC30" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF30" s="12">
-        <v>4.3</v>
+        <v>3</v>
+      </c>
+      <c r="AF30" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG30" s="12" t="s">
         <v>110</v>
@@ -8958,42 +8969,48 @@
       <c r="AH30" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="AI30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ30" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="AK30" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AM30" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN30" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="AQ30" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR30" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS30" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AT30" s="16"/>
       <c r="AU30" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AV30" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW30" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AX30" s="12" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>417</v>
       </c>
@@ -9064,7 +9081,7 @@
         <v>216</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA31" s="12">
         <v>2</v>
@@ -9088,13 +9105,13 @@
         <v>148</v>
       </c>
       <c r="AL31" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AM31" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO31" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AQ31" s="12" t="s">
         <v>164</v>
@@ -9107,7 +9124,7 @@
       </c>
       <c r="AT31" s="16"/>
       <c r="AU31" s="12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AV31" s="12" t="s">
         <v>199</v>
@@ -9116,30 +9133,30 @@
         <v>208</v>
       </c>
       <c r="AX31" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E32" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>248</v>
@@ -9151,13 +9168,13 @@
         <v>248</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>253</v>
@@ -9166,34 +9183,31 @@
         <v>254</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T32" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y32" s="12" t="s">
-        <v>536</v>
+        <v>216</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>627</v>
+        <v>528</v>
       </c>
       <c r="AA32" s="12">
         <v>2</v>
@@ -9202,31 +9216,28 @@
         <v>2</v>
       </c>
       <c r="AC32" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE32" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF32" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG32" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH32" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK32" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL32" s="12" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="AM32" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>648</v>
+        <v>533</v>
       </c>
       <c r="AQ32" s="12" t="s">
         <v>164</v>
@@ -9234,9 +9245,12 @@
       <c r="AR32" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS32" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT32" s="16"/>
       <c r="AU32" s="12" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="AV32" s="12" t="s">
         <v>199</v>
@@ -9244,11 +9258,11 @@
       <c r="AW32" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="21" t="s">
-        <v>646</v>
+      <c r="AX32" s="12" t="s">
+        <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>423</v>
       </c>
@@ -9319,10 +9333,10 @@
         <v>113</v>
       </c>
       <c r="Y33" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AA33" s="12">
         <v>2</v>
@@ -9334,7 +9348,7 @@
         <v>3</v>
       </c>
       <c r="AE33" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF33" s="12" t="s">
         <v>477</v>
@@ -9349,13 +9363,13 @@
         <v>150</v>
       </c>
       <c r="AL33" s="12" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AM33" s="12" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="AO33" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AQ33" s="12" t="s">
         <v>164</v>
@@ -9365,19 +9379,19 @@
       </c>
       <c r="AT33" s="16"/>
       <c r="AU33" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AV33" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW33" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX33" s="21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>423</v>
       </c>
@@ -9430,7 +9444,7 @@
         <v>21</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>46</v>
@@ -9448,10 +9462,10 @@
         <v>113</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AA34" s="12">
         <v>2</v>
@@ -9463,7 +9477,7 @@
         <v>3</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF34" s="12" t="s">
         <v>477</v>
@@ -9478,13 +9492,13 @@
         <v>150</v>
       </c>
       <c r="AL34" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AM34" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AQ34" s="12" t="s">
         <v>164</v>
@@ -9494,7 +9508,7 @@
       </c>
       <c r="AT34" s="16"/>
       <c r="AU34" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AV34" s="12" t="s">
         <v>199</v>
@@ -9503,10 +9517,10 @@
         <v>207</v>
       </c>
       <c r="AX34" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="12" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>423</v>
       </c>
@@ -9577,10 +9591,10 @@
         <v>113</v>
       </c>
       <c r="Y35" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AA35" s="12">
         <v>2</v>
@@ -9592,7 +9606,7 @@
         <v>3</v>
       </c>
       <c r="AE35" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF35" s="12" t="s">
         <v>477</v>
@@ -9607,13 +9621,13 @@
         <v>150</v>
       </c>
       <c r="AL35" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AM35" s="12" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO35" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AQ35" s="12" t="s">
         <v>164</v>
@@ -9623,39 +9637,39 @@
       </c>
       <c r="AT35" s="16"/>
       <c r="AU35" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AV35" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW35" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX35" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E36" s="12">
         <v>2021</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>248</v>
@@ -9667,13 +9681,13 @@
         <v>248</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N36" s="12" t="s">
         <v>253</v>
@@ -9682,7 +9696,7 @@
         <v>254</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>21</v>
@@ -9691,22 +9705,25 @@
         <v>23</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X36" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AA36" s="12">
         <v>2</v>
@@ -9717,32 +9734,29 @@
       <c r="AC36" s="12">
         <v>3</v>
       </c>
-      <c r="AE36" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF36" s="12">
-        <v>4.3</v>
+      <c r="AE36" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF36" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG36" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH36" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI36" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AK36" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL36" s="12" t="s">
-        <v>535</v>
+        <v>651</v>
       </c>
       <c r="AM36" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
       <c r="AQ36" s="12" t="s">
         <v>164</v>
@@ -9752,87 +9766,90 @@
       </c>
       <c r="AT36" s="16"/>
       <c r="AU36" s="12" t="s">
-        <v>540</v>
+        <v>581</v>
+      </c>
+      <c r="AV36" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="AW36" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX36" s="12" t="s">
-        <v>541</v>
+        <v>208</v>
+      </c>
+      <c r="AX36" s="21" t="s">
+        <v>648</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E37" s="12">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="Q37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="X37" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AA37" s="12">
         <v>2</v>
@@ -9844,7 +9861,7 @@
         <v>3</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AF37" s="12">
         <v>4.3</v>
@@ -9853,22 +9870,22 @@
         <v>110</v>
       </c>
       <c r="AH37" s="12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AI37" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK37" s="12" t="s">
         <v>134</v>
       </c>
       <c r="AL37" s="12" t="s">
-        <v>612</v>
+        <v>534</v>
       </c>
       <c r="AM37" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO37" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AQ37" s="12" t="s">
         <v>164</v>
@@ -9878,69 +9895,72 @@
       </c>
       <c r="AT37" s="16"/>
       <c r="AU37" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
+      </c>
+      <c r="AV37" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AW37" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX37" s="13" t="s">
-        <v>543</v>
+      <c r="AX37" s="12" t="s">
+        <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E38" s="12">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O38" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T38" s="12" t="s">
         <v>46</v>
@@ -9949,19 +9969,16 @@
         <v>55</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W38" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X38" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y38" s="12" t="s">
-        <v>546</v>
-      </c>
       <c r="Z38" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AA38" s="12">
         <v>2</v>
@@ -9970,13 +9987,13 @@
         <v>2</v>
       </c>
       <c r="AC38" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AF38" s="12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AG38" s="12" t="s">
         <v>110</v>
@@ -9985,84 +10002,79 @@
         <v>117</v>
       </c>
       <c r="AI38" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AK38" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL38" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM38" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN38" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AQ38" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR38" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT38" s="16" t="s">
-        <v>548</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT38" s="16"/>
       <c r="AU38" s="12" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AV38" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX38" s="13" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E39" s="12">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>310</v>
+        <v>455</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N39" s="12" t="s">
         <v>253</v>
@@ -10071,34 +10083,34 @@
         <v>254</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q39" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>44</v>
       </c>
       <c r="W39" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X39" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AA39" s="12">
         <v>2</v>
@@ -10107,97 +10119,108 @@
         <v>2</v>
       </c>
       <c r="AC39" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE39" s="13" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AF39" s="12">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG39" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AH39" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI39" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="AK39" s="12" t="s">
         <v>148</v>
       </c>
+      <c r="AL39" s="12" t="s">
+        <v>612</v>
+      </c>
       <c r="AM39" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN39" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO39" s="12" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AQ39" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR39" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT39" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="AT39" s="16" t="s">
+        <v>547</v>
+      </c>
       <c r="AU39" s="12" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW39" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX39" s="12" t="s">
-        <v>555</v>
+        <v>207</v>
+      </c>
+      <c r="AX39" s="13" t="s">
+        <v>550</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>585</v>
+        <v>461</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>586</v>
+        <v>462</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>587</v>
+        <v>463</v>
       </c>
       <c r="E40" s="12">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>326</v>
+        <v>464</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>588</v>
+        <v>310</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>589</v>
+        <v>465</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>590</v>
+        <v>466</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>591</v>
+        <v>467</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>592</v>
+        <v>468</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>593</v>
+        <v>469</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>594</v>
+        <v>254</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q40" s="12" t="s">
         <v>21</v>
@@ -10206,13 +10229,13 @@
         <v>31</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W40" s="12" t="s">
         <v>53</v>
@@ -10220,8 +10243,11 @@
       <c r="X40" s="12" t="s">
         <v>216</v>
       </c>
+      <c r="Y40" s="12" t="s">
+        <v>551</v>
+      </c>
       <c r="Z40" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AA40" s="12">
         <v>2</v>
@@ -10230,7 +10256,10 @@
         <v>2</v>
       </c>
       <c r="AC40" s="12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE40" s="13" t="s">
+        <v>555</v>
       </c>
       <c r="AF40" s="12">
         <v>4.3</v>
@@ -10241,23 +10270,14 @@
       <c r="AH40" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI40" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ40" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AK40" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AL40" s="12" t="s">
-        <v>634</v>
-      </c>
       <c r="AM40" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="AQ40" s="12" t="s">
         <v>164</v>
@@ -10265,67 +10285,65 @@
       <c r="AR40" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT40" s="12" t="s">
-        <v>636</v>
-      </c>
+      <c r="AT40" s="16"/>
       <c r="AU40" s="12" t="s">
-        <v>637</v>
+        <v>552</v>
       </c>
       <c r="AV40" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW40" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX40" s="13" t="s">
-        <v>638</v>
+        <v>208</v>
+      </c>
+      <c r="AX40" s="12" t="s">
+        <v>554</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="E41" s="12">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>248</v>
+        <v>588</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="N41" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>254</v>
+        <v>593</v>
       </c>
       <c r="P41" s="12" t="s">
         <v>255</v>
@@ -10334,25 +10352,25 @@
         <v>21</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="W41" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y41" s="12" t="s">
-        <v>640</v>
+        <v>216</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="AA41" s="12">
         <v>2</v>
@@ -10361,40 +10379,46 @@
         <v>2</v>
       </c>
       <c r="AC41" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF41" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG41" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH41" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI41" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="AJ41" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AK41" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL41" s="12" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AM41" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN41" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO41" s="12" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ41" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR41" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT41" s="12" t="s">
+        <v>635</v>
+      </c>
       <c r="AU41" s="12" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="AV41" s="12" t="s">
         <v>199</v>
@@ -10403,21 +10427,21 @@
         <v>207</v>
       </c>
       <c r="AX41" s="13" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>596</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>597</v>
       </c>
       <c r="E42" s="12">
         <v>2010</v>
@@ -10426,25 +10450,25 @@
         <v>246</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I42" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>600</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>601</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>253</v>
@@ -10459,7 +10483,7 @@
         <v>21</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T42" s="12" t="s">
         <v>46</v>
@@ -10474,10 +10498,10 @@
         <v>113</v>
       </c>
       <c r="Y42" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z42" s="12" t="s">
         <v>640</v>
-      </c>
-      <c r="Z42" s="12" t="s">
-        <v>641</v>
       </c>
       <c r="AA42" s="12">
         <v>2</v>
@@ -10504,7 +10528,7 @@
         <v>150</v>
       </c>
       <c r="AL42" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AM42" s="12" t="s">
         <v>232</v>
@@ -10513,63 +10537,63 @@
         <v>160</v>
       </c>
       <c r="AO42" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AQ42" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AU42" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV42" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW42" s="12" t="s">
         <v>207</v>
       </c>
       <c r="AX42" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>470</v>
+        <v>594</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>471</v>
+        <v>595</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>472</v>
+        <v>596</v>
       </c>
       <c r="E43" s="12">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>473</v>
+        <v>246</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>280</v>
+        <v>597</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>248</v>
+        <v>598</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>248</v>
+        <v>599</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>475</v>
+        <v>601</v>
       </c>
       <c r="N43" s="12" t="s">
         <v>253</v>
@@ -10578,34 +10602,31 @@
         <v>254</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="Q43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T43" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V43" s="12" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="W43" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X43" s="12" t="s">
         <v>113</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="AA43" s="12">
         <v>2</v>
@@ -10616,239 +10637,311 @@
       <c r="AC43" s="12">
         <v>3</v>
       </c>
-      <c r="AF43" s="12">
-        <v>4.3</v>
+      <c r="AF43" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG43" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH43" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI43" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="AK43" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL43" s="12" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="AM43" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="AN43" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO43" s="12" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
       <c r="AQ43" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AR43" s="12" t="s">
+      <c r="AU43" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="AV43" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW43" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX43" s="13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z44" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK44" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL44" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AM44" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO44" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="AQ44" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR44" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT43" s="16"/>
-      <c r="AU43" s="12" t="s">
+      <c r="AT44" s="16"/>
+      <c r="AU44" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="AV44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW44" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX44" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="AV43" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW43" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX43" s="12" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>2015</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G45" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K45" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L45" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M45" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N45" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="O45" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P45" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="Q45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R45" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+    <row r="46" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D46" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>2020</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F46" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G46" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H46" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="J46" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K46" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="L45" s="15" t="s">
+      <c r="L46" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="M45" s="15" t="s">
+      <c r="M46" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="N46" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="O45" s="15" t="s">
+      <c r="O46" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="P46" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="Q45" s="15" t="s">
+      <c r="Q46" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R45" s="15" t="s">
+      <c r="R46" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E46" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="E47" s="11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>318</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>248</v>
@@ -10857,13 +10950,13 @@
         <v>248</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>253</v>
@@ -10881,30 +10974,30 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E48" s="11">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>248</v>
@@ -10913,13 +11006,13 @@
         <v>248</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>253</v>
@@ -10928,7 +11021,7 @@
         <v>254</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>21</v>
@@ -10936,47 +11029,46 @@
       <c r="R48" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AG48" s="14"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>443</v>
+        <v>332</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="E49" s="11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>446</v>
+        <v>336</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>248</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>447</v>
+        <v>248</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>449</v>
+        <v>337</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="N49" s="11" t="s">
         <v>253</v>
@@ -10985,12 +11077,69 @@
         <v>254</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG49" s="14"/>
+    </row>
+    <row r="50" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -11005,14 +11154,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P16:P1048576 P6:Q9 Q3:Q15" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P17:P1048576 P6:Q9 Q3:Q16" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11126,17 +11275,17 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
@@ -11202,7 +11351,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11354,7 +11503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11411,7 +11560,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -11468,7 +11617,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -11524,7 +11673,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11569,7 +11718,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11611,7 +11760,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11649,7 +11798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11684,7 +11833,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11716,7 +11865,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11751,7 +11900,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11783,7 +11932,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -11818,7 +11967,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -11847,7 +11996,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -11876,7 +12025,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -11896,7 +12045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -11904,22 +12053,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -11954,7 +12103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -11980,7 +12129,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -12003,7 +12152,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -12014,7 +12163,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -12025,7 +12174,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -12033,12 +12182,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -12061,7 +12210,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -12087,7 +12236,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -12113,7 +12262,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12133,7 +12282,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12148,7 +12297,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12162,7 +12311,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -12170,10 +12319,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12201,38 +12350,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
@@ -12279,7 +12428,7 @@
       <c r="AF1" s="23"/>
       <c r="AG1" s="23"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -12380,7 +12529,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12446,7 +12595,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12497,7 +12646,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12551,7 +12700,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12593,7 +12742,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12638,7 +12787,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12676,7 +12825,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12714,7 +12863,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12749,7 +12898,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12781,7 +12930,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -12813,7 +12962,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -12842,7 +12991,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -12865,7 +13014,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -12891,7 +13040,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -12908,7 +13057,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -12919,7 +13068,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -12933,7 +13082,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -12947,7 +13096,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -12958,7 +13107,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -12972,7 +13121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -12983,7 +13132,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -12994,7 +13143,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -13002,7 +13151,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -13010,7 +13159,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -13018,7 +13167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -13032,7 +13181,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -13043,7 +13192,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -13054,7 +13203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -13065,7 +13214,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -13073,7 +13222,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -13081,12 +13230,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -13106,12 +13255,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13225,23 +13383,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -13249,7 +13406,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13263,12 +13420,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/Taken from github and not from SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94A95D1-D800-4C8A-9884-F65D20DEA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E94A95D1-D800-4C8A-9884-F65D20DEA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C955FEAC-C3F7-4BF3-B3DE-DE472A84CE62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="663">
   <si>
     <t>SearchID</t>
   </si>
@@ -3855,9 +3855,6 @@
   </si>
   <si>
     <t>Cockle fishery</t>
-  </si>
-  <si>
-    <t>Negative effects of high adult-cockle densities on recruitment were also found in L. balthica and M. arenaria</t>
   </si>
   <si>
     <t>We found no evidence for the states hypotheses on fishery effects</t>
@@ -4457,21 +4454,10 @@
     <t xml:space="preserve">Wilcoxon tests </t>
   </si>
   <si>
-    <t>Caulerpa taxifolia _ Cymodocea nodosa</t>
-  </si>
-  <si>
-    <t>Bottom fishing gear</t>
-  </si>
-  <si>
     <t>Trammel net _ 200m long _ 3m high _ bottom otter trawls</t>
   </si>
   <si>
     <t>alga distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We argue that fishing activity and fishing gear are the
-main causes of the rapid spread of C. taxifolia in the
-Ligurian Sea. </t>
   </si>
   <si>
     <t>Gadus morhua</t>
@@ -4554,12 +4540,6 @@
     <t>fishing ground) where fishing occurs only seasonally. Sot assem-</t>
   </si>
   <si>
-    <t>blages (Cara Norte fishing ground), subjected to a more continuous</t>
-  </si>
-  <si>
-    <t>fishing regime throughout the year, appears to show a decrease in</t>
-  </si>
-  <si>
     <t>density, number of species and number of trophic groups with</t>
   </si>
   <si>
@@ -4576,6 +4556,18 @@
   </si>
   <si>
     <t>Donax trunculus _ Chamelea gallina</t>
+  </si>
+  <si>
+    <t>Caulerpa taxifolia</t>
+  </si>
+  <si>
+    <t>Fishing activity</t>
+  </si>
+  <si>
+    <t>We argue that fishing activity and fishing gear are the main causes of the rapid spread of C. taxifolia in the Ligurian Sea. The spread of Caulerpa along the western Ligurian coast is clearly linked to fishing activity, in particular to the use of trammel nets and bottom otter trawls, which are among the main types of gear used in the area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So these low densities were not an effect of fishery, but of the high cockle abundance that made cockle dredging profitable. The proportions of recruit numbers estimated in August (just before cockle dredging) that were still present half a year after fishing (in March) were not different between fishing and non-fishing years nor between fished and unfished areas in fishing years. </t>
   </si>
 </sst>
 </file>
@@ -4707,7 +4699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4738,10 +4730,9 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4763,6 +4754,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4783,6 +4783,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5048,12 +5052,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AU54" sqref="AU54"/>
+      <selection pane="bottomLeft" activeCell="AT54" sqref="AT54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5077,70 +5081,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="25" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="26" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="28" t="s">
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="22" t="s">
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="23" t="s">
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5368,7 +5372,7 @@
         <v>476</v>
       </c>
       <c r="Z3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5398,13 +5402,13 @@
         <v>134</v>
       </c>
       <c r="AL3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM3" t="s">
         <v>231</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5414,7 +5418,7 @@
       </c>
       <c r="AT3" s="16"/>
       <c r="AU3" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -5422,8 +5426,8 @@
       <c r="AW3" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="13" t="s">
-        <v>561</v>
+      <c r="AX3" s="20" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5504,7 @@
         <v>476</v>
       </c>
       <c r="Z4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5530,7 +5534,7 @@
         <v>134</v>
       </c>
       <c r="AL4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM4" t="s">
         <v>232</v>
@@ -5539,7 +5543,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5549,7 +5553,7 @@
       </c>
       <c r="AT4" s="16"/>
       <c r="AU4" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5557,8 +5561,8 @@
       <c r="AW4" t="s">
         <v>210</v>
       </c>
-      <c r="AX4" s="13" t="s">
-        <v>563</v>
+      <c r="AX4" s="20" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
@@ -5635,7 +5639,7 @@
         <v>476</v>
       </c>
       <c r="Z5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5665,7 +5669,7 @@
         <v>134</v>
       </c>
       <c r="AL5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM5" t="s">
         <v>232</v>
@@ -5674,7 +5678,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5684,7 +5688,7 @@
       </c>
       <c r="AT5" s="16"/>
       <c r="AU5" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -5692,7 +5696,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="28"/>
     </row>
     <row r="6" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -5765,13 +5769,13 @@
         <v>69</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA6" s="12">
         <v>2</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF6" s="12">
         <v>4.3</v>
@@ -5798,10 +5802,10 @@
         <v>233</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AQ6" s="12" t="s">
         <v>164</v>
@@ -5811,7 +5815,7 @@
       </c>
       <c r="AT6" s="16"/>
       <c r="AU6" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AV6" s="12" t="s">
         <v>203</v>
@@ -5819,8 +5823,8 @@
       <c r="AW6" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX6" s="13" t="s">
-        <v>571</v>
+      <c r="AX6" s="20" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5894,7 +5898,7 @@
         <v>69</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA7" s="12">
         <v>2</v>
@@ -5924,10 +5928,10 @@
         <v>233</v>
       </c>
       <c r="AO7" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AQ7" s="12" t="s">
         <v>164</v>
@@ -5937,7 +5941,7 @@
       </c>
       <c r="AT7" s="16"/>
       <c r="AU7" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AV7" s="12" t="s">
         <v>206</v>
@@ -5945,8 +5949,8 @@
       <c r="AW7" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX7" s="21" t="s">
-        <v>571</v>
+      <c r="AX7" s="28" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6020,7 +6024,7 @@
         <v>69</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA8" s="12">
         <v>2</v>
@@ -6051,10 +6055,10 @@
       </c>
       <c r="AN8" s="19"/>
       <c r="AO8" s="12" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AQ8" s="12" t="s">
         <v>164</v>
@@ -6064,7 +6068,7 @@
       </c>
       <c r="AT8" s="16"/>
       <c r="AU8" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AV8" s="12" t="s">
         <v>199</v>
@@ -6072,8 +6076,8 @@
       <c r="AW8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX8" s="21" t="s">
-        <v>571</v>
+      <c r="AX8" s="28" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6147,7 +6151,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA9" s="12">
         <v>2</v>
@@ -6178,10 +6182,10 @@
       </c>
       <c r="AN9" s="19"/>
       <c r="AO9" s="12" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AQ9" s="12" t="s">
         <v>164</v>
@@ -6191,7 +6195,7 @@
       </c>
       <c r="AT9" s="16"/>
       <c r="AU9" s="12" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AV9" s="12" t="s">
         <v>205</v>
@@ -6199,8 +6203,8 @@
       <c r="AW9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX9" s="21" t="s">
-        <v>571</v>
+      <c r="AX9" s="28" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6274,7 +6278,7 @@
         <v>70</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA10" s="12">
         <v>2</v>
@@ -6332,7 +6336,7 @@
       </c>
       <c r="AT10" s="16"/>
       <c r="AU10" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AV10" s="12" t="s">
         <v>199</v>
@@ -6340,8 +6344,8 @@
       <c r="AW10" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX10" s="13" t="s">
-        <v>653</v>
+      <c r="AX10" s="20" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6415,7 +6419,7 @@
         <v>69</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AA11" s="12">
         <v>2</v>
@@ -6470,7 +6474,7 @@
       </c>
       <c r="AT11" s="16"/>
       <c r="AU11" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AV11" s="12" t="s">
         <v>199</v>
@@ -6478,8 +6482,8 @@
       <c r="AW11" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX11" s="13" t="s">
-        <v>654</v>
+      <c r="AX11" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6583,7 +6587,7 @@
         <v>141</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM12" s="12" t="s">
         <v>232</v>
@@ -6592,7 +6596,7 @@
         <v>160</v>
       </c>
       <c r="AO12" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>164</v>
@@ -6604,7 +6608,7 @@
         <v>179</v>
       </c>
       <c r="AT12" s="16" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AU12" s="12" t="s">
         <v>484</v>
@@ -6615,8 +6619,8 @@
       <c r="AW12" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="AX12" s="13" t="s">
-        <v>655</v>
+      <c r="AX12" s="20" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,7 +6724,7 @@
         <v>141</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM13" s="12" t="s">
         <v>232</v>
@@ -6729,7 +6733,7 @@
         <v>161</v>
       </c>
       <c r="AO13" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>164</v>
@@ -6741,7 +6745,7 @@
         <v>179</v>
       </c>
       <c r="AT13" s="16" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AU13" s="12" t="s">
         <v>484</v>
@@ -6752,8 +6756,8 @@
       <c r="AW13" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="AX13" s="13" t="s">
-        <v>655</v>
+      <c r="AX13" s="20" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6827,7 +6831,7 @@
         <v>215</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AA14" s="12">
         <v>2</v>
@@ -6857,13 +6861,13 @@
         <v>141</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM14" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO14" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>164</v>
@@ -6875,7 +6879,7 @@
         <v>179</v>
       </c>
       <c r="AT14" s="16" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AU14" s="12" t="s">
         <v>484</v>
@@ -6886,8 +6890,8 @@
       <c r="AW14" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="AX14" s="13" t="s">
-        <v>656</v>
+      <c r="AX14" s="20" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6964,7 +6968,7 @@
         <v>486</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA15" s="12">
         <v>2</v>
@@ -6997,7 +7001,7 @@
         <v>141</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM15" s="12" t="s">
         <v>232</v>
@@ -7006,6 +7010,9 @@
         <v>161</v>
       </c>
       <c r="AO15" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AP15" s="12" t="s">
         <v>487</v>
       </c>
       <c r="AQ15" s="12" t="s">
@@ -7022,51 +7029,51 @@
         <v>199</v>
       </c>
       <c r="AW15" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX15" s="12" t="s">
-        <v>657</v>
+        <v>210</v>
+      </c>
+      <c r="AX15" s="28" t="s">
+        <v>662</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="E16" s="12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>253</v>
@@ -7075,33 +7082,30 @@
         <v>254</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V16" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="19" t="s">
         <v>618</v>
       </c>
       <c r="AA16" s="12">
@@ -7111,16 +7115,16 @@
         <v>2</v>
       </c>
       <c r="AC16" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="12" t="s">
-        <v>490</v>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>565</v>
       </c>
       <c r="AF16" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG16" s="19" t="s">
-        <v>110</v>
+      <c r="AG16" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AH16" s="12" t="s">
         <v>120</v>
@@ -7129,214 +7133,217 @@
         <v>140</v>
       </c>
       <c r="AJ16" s="12" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>604</v>
+        <v>490</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN16" s="12" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>488</v>
+        <v>564</v>
       </c>
       <c r="AQ16" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AT16" s="16"/>
       <c r="AU16" s="12" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="AV16" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW16" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX16" s="12" t="s">
-        <v>658</v>
+        <v>208</v>
+      </c>
+      <c r="AX16" s="20" t="s">
+        <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="L17" s="12" t="s">
+      <c r="C17" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2021</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="M17" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="M17" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="N17" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="12" t="s">
+      <c r="S17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="U17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>72</v>
+      <c r="W17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>495</v>
       </c>
       <c r="Z17" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="19">
         <v>2</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AB17" s="19">
         <v>2</v>
       </c>
-      <c r="AC17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="AF17" s="12">
+      <c r="AC17" s="19">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF17" s="19">
         <v>4.3</v>
       </c>
-      <c r="AG17" s="12" t="s">
+      <c r="AG17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH17" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI17" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH17" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI17" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK17" s="12" t="s">
+      <c r="AK17" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AL17" s="12" t="s">
+      <c r="AL17" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM17" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO17" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="AM17" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO17" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="AQ17" s="12" t="s">
+      <c r="AP17" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ17" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AR17" s="12" t="s">
+      <c r="AR17" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV17" s="12" t="s">
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AV17" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="AW17" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX17" s="13" t="s">
-        <v>659</v>
+      <c r="AW17" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX17" s="29" t="s">
+        <v>654</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="E18" s="19">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L18" s="19" t="s">
         <v>248</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="N18" s="19" t="s">
         <v>253</v>
@@ -7345,31 +7352,28 @@
         <v>254</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y18" s="19" t="s">
-        <v>496</v>
+        <v>69</v>
       </c>
       <c r="Z18" s="19" t="s">
         <v>620</v>
@@ -7381,40 +7385,31 @@
         <v>2</v>
       </c>
       <c r="AC18" s="19">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="19" t="s">
-        <v>495</v>
+        <v>2</v>
       </c>
       <c r="AF18" s="19">
         <v>4.3</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH18" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI18" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ18" s="19" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AK18" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AL18" s="19" t="s">
-        <v>494</v>
-      </c>
       <c r="AM18" s="19" t="s">
         <v>233</v>
       </c>
       <c r="AO18" s="19" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="AP18" s="19" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="AQ18" s="19" t="s">
         <v>164</v>
@@ -7422,150 +7417,162 @@
       <c r="AR18" s="19" t="s">
         <v>239</v>
       </c>
+      <c r="AS18" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="AT18" s="17"/>
       <c r="AU18" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AV18" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX18" s="30" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2011</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI19" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL19" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM19" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO19" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="AQ19" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR19" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS19" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AV19" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW18" s="19" t="s">
+      <c r="AW19" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX18" s="19" t="s">
-        <v>660</v>
+      <c r="AX19" s="28" t="s">
+        <v>656</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" s="19">
-        <v>2018</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="W19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z19" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA19" s="19">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="19">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="AG19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH19" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI19" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK19" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM19" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO19" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="AP19" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="AQ19" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR19" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS19" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="AV19" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW19" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX19" s="20" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>349</v>
       </c>
@@ -7636,7 +7643,7 @@
         <v>216</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA20" s="12">
         <v>2</v>
@@ -7648,10 +7655,10 @@
         <v>2</v>
       </c>
       <c r="AD20" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE20" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="AE20" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="AF20" s="12">
         <v>4.3</v>
@@ -7663,10 +7670,7 @@
         <v>120</v>
       </c>
       <c r="AI20" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ20" s="12" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK20" s="12" t="s">
         <v>134</v>
@@ -7678,7 +7682,7 @@
         <v>233</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AQ20" s="12" t="s">
         <v>164</v>
@@ -7691,84 +7695,84 @@
       </c>
       <c r="AT20" s="16"/>
       <c r="AU20" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AV20" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW20" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX20" s="12" t="s">
-        <v>662</v>
+      <c r="AX20" s="28" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E21" s="12">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O21" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X21" s="12" t="s">
         <v>216</v>
@@ -7783,13 +7787,10 @@
         <v>2</v>
       </c>
       <c r="AC21" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE21" s="12" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AF21" s="12">
         <v>4.3</v>
@@ -7801,10 +7802,10 @@
         <v>120</v>
       </c>
       <c r="AI21" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK21" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="AK21" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="AL21" s="12" t="s">
         <v>606</v>
@@ -7813,29 +7814,26 @@
         <v>233</v>
       </c>
       <c r="AO21" s="12" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AQ21" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR21" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="AS21" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="AT21" s="16"/>
       <c r="AU21" s="12" t="s">
         <v>515</v>
       </c>
       <c r="AV21" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW21" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX21" s="12" t="s">
-        <v>500</v>
+        <v>207</v>
+      </c>
+      <c r="AX21" s="28" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7909,7 +7907,7 @@
         <v>216</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA22" s="12">
         <v>2</v>
@@ -7920,9 +7918,6 @@
       <c r="AC22" s="12">
         <v>3</v>
       </c>
-      <c r="AD22" s="12" t="s">
-        <v>504</v>
-      </c>
       <c r="AF22" s="12">
         <v>4.3</v>
       </c>
@@ -7939,13 +7934,13 @@
         <v>148</v>
       </c>
       <c r="AL22" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AM22" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AQ22" s="12" t="s">
         <v>164</v>
@@ -7961,51 +7956,51 @@
         <v>199</v>
       </c>
       <c r="AW22" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX22" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX22" s="28" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E23" s="12">
         <v>2013</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>253</v>
@@ -8014,22 +8009,22 @@
         <v>254</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W23" s="12" t="s">
         <v>48</v>
@@ -8038,7 +8033,7 @@
         <v>216</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>623</v>
+        <v>511</v>
       </c>
       <c r="AA23" s="12">
         <v>2</v>
@@ -8049,29 +8044,35 @@
       <c r="AC23" s="12">
         <v>3</v>
       </c>
+      <c r="AD23" s="13" t="s">
+        <v>518</v>
+      </c>
       <c r="AF23" s="12">
         <v>4.3</v>
       </c>
       <c r="AG23" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH23" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI23" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK23" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="AK23" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="AL23" s="12" t="s">
-        <v>607</v>
+        <v>533</v>
       </c>
       <c r="AM23" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>501</v>
+        <v>512</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>513</v>
       </c>
       <c r="AQ23" s="12" t="s">
         <v>164</v>
@@ -8084,54 +8085,54 @@
         <v>517</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX23" s="12" t="s">
-        <v>503</v>
+        <v>209</v>
+      </c>
+      <c r="AX23" s="28" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E24" s="12">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>253</v>
@@ -8146,25 +8147,25 @@
         <v>21</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="AA24" s="12">
         <v>2</v>
@@ -8175,13 +8176,10 @@
       <c r="AC24" s="12">
         <v>3</v>
       </c>
-      <c r="AD24" s="13" t="s">
-        <v>519</v>
-      </c>
       <c r="AF24" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG24" s="19" t="s">
+      <c r="AG24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="AH24" s="12" t="s">
@@ -8194,16 +8192,13 @@
         <v>148</v>
       </c>
       <c r="AL24" s="12" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="AM24" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="AP24" s="12" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="AQ24" s="12" t="s">
         <v>164</v>
@@ -8211,21 +8206,24 @@
       <c r="AR24" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS24" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="AT24" s="16"/>
       <c r="AU24" s="12" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AV24" s="12" t="s">
         <v>113</v>
       </c>
       <c r="AW24" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX24" s="12" t="s">
-        <v>520</v>
+        <v>208</v>
+      </c>
+      <c r="AX24" s="20" t="s">
+        <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" s="12" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>376</v>
       </c>
@@ -8296,7 +8294,7 @@
         <v>69</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA25" s="12">
         <v>2</v>
@@ -8323,13 +8321,13 @@
         <v>148</v>
       </c>
       <c r="AL25" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM25" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AQ25" s="12" t="s">
         <v>164</v>
@@ -8338,11 +8336,11 @@
         <v>239</v>
       </c>
       <c r="AS25" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT25" s="16"/>
       <c r="AU25" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AV25" s="12" t="s">
         <v>113</v>
@@ -8350,11 +8348,11 @@
       <c r="AW25" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX25" s="13" t="s">
-        <v>524</v>
+      <c r="AX25" s="20" t="s">
+        <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="12" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>376</v>
       </c>
@@ -8425,7 +8423,7 @@
         <v>69</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA26" s="12">
         <v>2</v>
@@ -8452,26 +8450,25 @@
         <v>148</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM26" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AQ26" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR26" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS26" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT26" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="AT26" s="16" t="s">
+        <v>521</v>
+      </c>
       <c r="AU26" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AV26" s="12" t="s">
         <v>113</v>
@@ -8479,49 +8476,49 @@
       <c r="AW26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX26" s="13" t="s">
-        <v>524</v>
+      <c r="AX26" s="20" t="s">
+        <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E27" s="12">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>253</v>
@@ -8530,31 +8527,34 @@
         <v>254</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>69</v>
+        <v>218</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>624</v>
+        <v>507</v>
       </c>
       <c r="AA27" s="12">
         <v>2</v>
@@ -8565,91 +8565,95 @@
       <c r="AC27" s="12">
         <v>3</v>
       </c>
+      <c r="AE27" s="12" t="s">
+        <v>506</v>
+      </c>
       <c r="AF27" s="12">
         <v>4.3</v>
       </c>
       <c r="AG27" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH27" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI27" s="12" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="AK27" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AL27" s="12" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="AM27" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>521</v>
+        <v>505</v>
+      </c>
+      <c r="AP27" s="12" t="s">
+        <v>509</v>
       </c>
       <c r="AQ27" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR27" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT27" s="16" t="s">
-        <v>522</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AS27" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT27" s="16"/>
       <c r="AU27" s="12" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="AV27" s="12" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW27" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX27" s="13" t="s">
-        <v>524</v>
+      <c r="AX27" s="28" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="E28" s="12">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>253</v>
@@ -8658,34 +8662,31 @@
         <v>254</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y28" s="12" t="s">
-        <v>505</v>
+        <v>216</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>508</v>
+        <v>624</v>
       </c>
       <c r="AA28" s="12">
         <v>2</v>
@@ -8696,11 +8697,8 @@
       <c r="AC28" s="12">
         <v>3</v>
       </c>
-      <c r="AE28" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="AF28" s="12">
-        <v>4.3</v>
+      <c r="AF28" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG28" s="12" t="s">
         <v>110</v>
@@ -8708,42 +8706,45 @@
       <c r="AH28" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="AI28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ28" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="AK28" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL28" s="12" t="s">
         <v>608</v>
       </c>
       <c r="AM28" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN28" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="AP28" s="12" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="AQ28" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR28" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS28" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AT28" s="16"/>
       <c r="AU28" s="12" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="AV28" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW28" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX28" s="12" t="s">
-        <v>511</v>
+      <c r="AX28" s="28" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -8817,7 +8818,7 @@
         <v>216</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA29" s="12">
         <v>2</v>
@@ -8847,7 +8848,7 @@
         <v>134</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AM29" s="12" t="s">
         <v>232</v>
@@ -8856,17 +8857,17 @@
         <v>160</v>
       </c>
       <c r="AO29" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AQ29" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR29" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AT29" s="16"/>
       <c r="AU29" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AV29" s="12" t="s">
         <v>200</v>
@@ -8874,49 +8875,49 @@
       <c r="AW29" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX29" s="12" t="s">
-        <v>527</v>
+      <c r="AX29" s="28" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E30" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>253</v>
@@ -8925,31 +8926,31 @@
         <v>254</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T30" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="W30" s="12" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X30" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>625</v>
+        <v>527</v>
       </c>
       <c r="AA30" s="12">
         <v>2</v>
@@ -8958,10 +8959,10 @@
         <v>2</v>
       </c>
       <c r="AC30" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF30" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF30" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG30" s="12" t="s">
         <v>110</v>
@@ -8969,45 +8970,39 @@
       <c r="AH30" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI30" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ30" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AK30" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL30" s="12" t="s">
         <v>609</v>
       </c>
       <c r="AM30" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN30" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="AQ30" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR30" s="12" t="s">
-        <v>171</v>
+        <v>239</v>
+      </c>
+      <c r="AS30" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="AT30" s="16"/>
       <c r="AU30" s="12" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AV30" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW30" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX30" s="12" t="s">
-        <v>527</v>
+      <c r="AX30" s="28" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -9081,7 +9076,7 @@
         <v>216</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA31" s="12">
         <v>2</v>
@@ -9105,13 +9100,13 @@
         <v>148</v>
       </c>
       <c r="AL31" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM31" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO31" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AQ31" s="12" t="s">
         <v>164</v>
@@ -9124,7 +9119,7 @@
       </c>
       <c r="AT31" s="16"/>
       <c r="AU31" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AV31" s="12" t="s">
         <v>199</v>
@@ -9132,31 +9127,31 @@
       <c r="AW31" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX31" s="12" t="s">
-        <v>530</v>
+      <c r="AX31" s="28" t="s">
+        <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E32" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>248</v>
@@ -9168,13 +9163,13 @@
         <v>248</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>253</v>
@@ -9183,31 +9178,34 @@
         <v>254</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T32" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="AA32" s="12">
         <v>2</v>
@@ -9216,28 +9214,31 @@
         <v>2</v>
       </c>
       <c r="AC32" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF32" s="12">
-        <v>4.3</v>
+        <v>3</v>
+      </c>
+      <c r="AE32" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF32" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG32" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH32" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AK32" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL32" s="12" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="AM32" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>533</v>
+        <v>643</v>
       </c>
       <c r="AQ32" s="12" t="s">
         <v>164</v>
@@ -9245,12 +9246,9 @@
       <c r="AR32" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AS32" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="AT32" s="16"/>
       <c r="AU32" s="12" t="s">
-        <v>531</v>
+        <v>580</v>
       </c>
       <c r="AV32" s="12" t="s">
         <v>199</v>
@@ -9258,11 +9256,11 @@
       <c r="AW32" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="12" t="s">
-        <v>532</v>
+      <c r="AX32" s="28" t="s">
+        <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>423</v>
       </c>
@@ -9333,10 +9331,10 @@
         <v>113</v>
       </c>
       <c r="Y33" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA33" s="12">
         <v>2</v>
@@ -9348,7 +9346,7 @@
         <v>3</v>
       </c>
       <c r="AE33" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF33" s="12" t="s">
         <v>477</v>
@@ -9363,13 +9361,13 @@
         <v>150</v>
       </c>
       <c r="AL33" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AM33" s="12" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="AO33" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AQ33" s="12" t="s">
         <v>164</v>
@@ -9379,16 +9377,16 @@
       </c>
       <c r="AT33" s="16"/>
       <c r="AU33" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AV33" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW33" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX33" s="21" t="s">
-        <v>645</v>
+        <v>207</v>
+      </c>
+      <c r="AX33" s="28" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9444,7 +9442,7 @@
         <v>21</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>46</v>
@@ -9462,10 +9460,10 @@
         <v>113</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA34" s="12">
         <v>2</v>
@@ -9477,7 +9475,7 @@
         <v>3</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF34" s="12" t="s">
         <v>477</v>
@@ -9492,13 +9490,13 @@
         <v>150</v>
       </c>
       <c r="AL34" s="12" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AM34" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AQ34" s="12" t="s">
         <v>164</v>
@@ -9508,7 +9506,7 @@
       </c>
       <c r="AT34" s="16"/>
       <c r="AU34" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AV34" s="12" t="s">
         <v>199</v>
@@ -9516,8 +9514,8 @@
       <c r="AW34" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AX34" s="21" t="s">
-        <v>646</v>
+      <c r="AX34" s="28" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9591,10 +9589,10 @@
         <v>113</v>
       </c>
       <c r="Y35" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA35" s="12">
         <v>2</v>
@@ -9606,7 +9604,7 @@
         <v>3</v>
       </c>
       <c r="AE35" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AF35" s="12" t="s">
         <v>477</v>
@@ -9621,13 +9619,13 @@
         <v>150</v>
       </c>
       <c r="AL35" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AM35" s="12" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO35" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AQ35" s="12" t="s">
         <v>164</v>
@@ -9637,39 +9635,39 @@
       </c>
       <c r="AT35" s="16"/>
       <c r="AU35" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AV35" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW35" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX35" s="21" t="s">
-        <v>646</v>
+        <v>208</v>
+      </c>
+      <c r="AX35" s="28" t="s">
+        <v>644</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="E36" s="12">
         <v>2021</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>248</v>
@@ -9681,13 +9679,13 @@
         <v>248</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="N36" s="12" t="s">
         <v>253</v>
@@ -9696,7 +9694,7 @@
         <v>254</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>416</v>
+        <v>284</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>21</v>
@@ -9705,22 +9703,19 @@
         <v>23</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X36" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y36" s="12" t="s">
-        <v>535</v>
+        <v>216</v>
       </c>
       <c r="Z36" s="12" t="s">
         <v>626</v>
@@ -9734,29 +9729,32 @@
       <c r="AC36" s="12">
         <v>3</v>
       </c>
-      <c r="AE36" s="12" t="s">
+      <c r="AE36" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="AF36" s="12" t="s">
-        <v>477</v>
+      <c r="AF36" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG36" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH36" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="AI36" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="AK36" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL36" s="12" t="s">
-        <v>651</v>
+        <v>533</v>
       </c>
       <c r="AM36" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>647</v>
+        <v>537</v>
       </c>
       <c r="AQ36" s="12" t="s">
         <v>164</v>
@@ -9766,84 +9764,84 @@
       </c>
       <c r="AT36" s="16"/>
       <c r="AU36" s="12" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="AV36" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW36" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX36" s="21" t="s">
-        <v>648</v>
+        <v>209</v>
+      </c>
+      <c r="AX36" s="28" t="s">
+        <v>539</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E37" s="12">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>248</v>
+        <v>439</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="Q37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X37" s="12" t="s">
         <v>216</v>
@@ -9861,7 +9859,7 @@
         <v>3</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AF37" s="12">
         <v>4.3</v>
@@ -9870,22 +9868,22 @@
         <v>110</v>
       </c>
       <c r="AH37" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AI37" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AK37" s="12" t="s">
         <v>134</v>
       </c>
       <c r="AL37" s="12" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="AM37" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO37" s="12" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AQ37" s="12" t="s">
         <v>164</v>
@@ -9895,72 +9893,72 @@
       </c>
       <c r="AT37" s="16"/>
       <c r="AU37" s="12" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AV37" s="12" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW37" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX37" s="12" t="s">
-        <v>540</v>
+      <c r="AX37" s="20" t="s">
+        <v>541</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E38" s="12">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O38" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T38" s="12" t="s">
         <v>46</v>
@@ -9969,14 +9967,17 @@
         <v>55</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W38" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X38" s="12" t="s">
         <v>216</v>
       </c>
+      <c r="Y38" s="12" t="s">
+        <v>544</v>
+      </c>
       <c r="Z38" s="12" t="s">
         <v>628</v>
       </c>
@@ -9987,13 +9988,13 @@
         <v>2</v>
       </c>
       <c r="AC38" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AF38" s="12">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG38" s="12" t="s">
         <v>110</v>
@@ -10002,79 +10003,84 @@
         <v>117</v>
       </c>
       <c r="AI38" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AK38" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL38" s="12" t="s">
         <v>611</v>
       </c>
       <c r="AM38" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN38" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AQ38" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR38" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT38" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="AT38" s="16" t="s">
+        <v>546</v>
+      </c>
       <c r="AU38" s="12" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AV38" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX38" s="13" t="s">
-        <v>542</v>
+        <v>207</v>
+      </c>
+      <c r="AX38" s="20" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E39" s="12">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>455</v>
+        <v>310</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="N39" s="12" t="s">
         <v>253</v>
@@ -10083,31 +10089,31 @@
         <v>254</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="Q39" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V39" s="12" t="s">
         <v>44</v>
       </c>
       <c r="W39" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X39" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Z39" s="12" t="s">
         <v>629</v>
@@ -10119,108 +10125,97 @@
         <v>2</v>
       </c>
       <c r="AC39" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE39" s="13" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AF39" s="12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AG39" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AH39" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI39" s="12" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="AK39" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AL39" s="12" t="s">
-        <v>612</v>
-      </c>
       <c r="AM39" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN39" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO39" s="12" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AQ39" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR39" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT39" s="16" t="s">
-        <v>547</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT39" s="16"/>
       <c r="AU39" s="12" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW39" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX39" s="13" t="s">
-        <v>550</v>
+        <v>208</v>
+      </c>
+      <c r="AX39" s="28" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>461</v>
+        <v>583</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>462</v>
+        <v>584</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>463</v>
+        <v>585</v>
       </c>
       <c r="E40" s="12">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>464</v>
+        <v>326</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>310</v>
+        <v>586</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>465</v>
+        <v>587</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>466</v>
+        <v>588</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>468</v>
+        <v>590</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>469</v>
+        <v>591</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>254</v>
+        <v>592</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="12" t="s">
         <v>21</v>
@@ -10229,13 +10224,13 @@
         <v>31</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W40" s="12" t="s">
         <v>53</v>
@@ -10243,11 +10238,8 @@
       <c r="X40" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y40" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="Z40" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AA40" s="12">
         <v>2</v>
@@ -10256,10 +10248,7 @@
         <v>2</v>
       </c>
       <c r="AC40" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE40" s="13" t="s">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="AF40" s="12">
         <v>4.3</v>
@@ -10268,16 +10257,19 @@
         <v>110</v>
       </c>
       <c r="AH40" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK40" s="12" t="s">
-        <v>148</v>
+        <v>123</v>
+      </c>
+      <c r="AI40" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL40" s="12" t="s">
+        <v>659</v>
       </c>
       <c r="AM40" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>553</v>
+        <v>660</v>
       </c>
       <c r="AQ40" s="12" t="s">
         <v>164</v>
@@ -10285,65 +10277,67 @@
       <c r="AR40" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT40" s="16"/>
+      <c r="AT40" s="12" t="s">
+        <v>632</v>
+      </c>
       <c r="AU40" s="12" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="AV40" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW40" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX40" s="12" t="s">
-        <v>554</v>
+        <v>207</v>
+      </c>
+      <c r="AX40" s="20" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="E41" s="12">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>588</v>
+        <v>248</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="N41" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>593</v>
+        <v>254</v>
       </c>
       <c r="P41" s="12" t="s">
         <v>255</v>
@@ -10352,25 +10346,25 @@
         <v>21</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V41" s="12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="W41" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y41" s="12" t="s">
+        <v>635</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="AA41" s="12">
         <v>2</v>
@@ -10379,46 +10373,40 @@
         <v>2</v>
       </c>
       <c r="AC41" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="12">
-        <v>4.3</v>
+        <v>3</v>
+      </c>
+      <c r="AF41" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG41" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH41" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI41" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ41" s="12" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AK41" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL41" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM41" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN41" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO41" s="12" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AQ41" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AR41" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT41" s="12" t="s">
-        <v>635</v>
-      </c>
       <c r="AU41" s="12" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AV41" s="12" t="s">
         <v>199</v>
@@ -10426,22 +10414,22 @@
       <c r="AW41" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AX41" s="13" t="s">
-        <v>637</v>
+      <c r="AX41" s="20" t="s">
+        <v>638</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>595</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>596</v>
       </c>
       <c r="E42" s="12">
         <v>2010</v>
@@ -10450,25 +10438,25 @@
         <v>246</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I42" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>599</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>600</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>253</v>
@@ -10483,7 +10471,7 @@
         <v>21</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T42" s="12" t="s">
         <v>46</v>
@@ -10498,10 +10486,10 @@
         <v>113</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="Z42" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AA42" s="12">
         <v>2</v>
@@ -10528,7 +10516,7 @@
         <v>150</v>
       </c>
       <c r="AL42" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AM42" s="12" t="s">
         <v>232</v>
@@ -10537,63 +10525,63 @@
         <v>160</v>
       </c>
       <c r="AO42" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AQ42" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AU42" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AV42" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW42" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AX42" s="13" t="s">
-        <v>642</v>
+      <c r="AX42" s="20" t="s">
+        <v>640</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>594</v>
+        <v>470</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>595</v>
+        <v>471</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>596</v>
+        <v>472</v>
       </c>
       <c r="E43" s="12">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>246</v>
+        <v>473</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>597</v>
+        <v>280</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>598</v>
+        <v>248</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>599</v>
+        <v>248</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="N43" s="12" t="s">
         <v>253</v>
@@ -10602,31 +10590,34 @@
         <v>254</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="Q43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T43" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="W43" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X43" s="12" t="s">
         <v>113</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>639</v>
+        <v>555</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="AA43" s="12">
         <v>2</v>
@@ -10637,311 +10628,239 @@
       <c r="AC43" s="12">
         <v>3</v>
       </c>
-      <c r="AF43" s="12" t="s">
-        <v>477</v>
+      <c r="AF43" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG43" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH43" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI43" s="12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="AK43" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL43" s="12" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="AM43" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN43" s="12" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="AO43" s="12" t="s">
-        <v>641</v>
+        <v>556</v>
       </c>
       <c r="AQ43" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR43" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT43" s="16"/>
       <c r="AU43" s="12" t="s">
-        <v>643</v>
+        <v>557</v>
       </c>
       <c r="AV43" s="12" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW43" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX43" s="13" t="s">
-        <v>644</v>
+        <v>210</v>
+      </c>
+      <c r="AX43" s="28" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B44" s="12" t="s">
+    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="E44" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H44" s="12" t="s">
+      <c r="C44" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="M44" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2020</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="L45" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="M45" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="L44" s="12" t="s">
+      <c r="J46" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="M44" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="N44" s="12" t="s">
+      <c r="K46" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="N46" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="O44" s="12" t="s">
+      <c r="O46" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="P44" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q44" s="12" t="s">
+      <c r="P46" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q46" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S44" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U44" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W44" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X44" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y44" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="Z44" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="AA44" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB44" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF44" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="AG44" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH44" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK44" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL44" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM44" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO44" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="AQ44" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR44" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT44" s="16"/>
-      <c r="AU44" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="AV44" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW44" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX44" s="12" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E46" s="15">
-        <v>2020</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q46" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="15" t="s">
+      <c r="R46" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
       <c r="E47" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>318</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>248</v>
@@ -10950,13 +10869,13 @@
         <v>248</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>253</v>
@@ -10976,28 +10895,28 @@
     </row>
     <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="E48" s="11">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>248</v>
@@ -11006,13 +10925,13 @@
         <v>248</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>253</v>
@@ -11021,7 +10940,7 @@
         <v>254</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>21</v>
@@ -11029,46 +10948,47 @@
       <c r="R48" s="11" t="s">
         <v>84</v>
       </c>
+      <c r="AG48" s="14"/>
     </row>
-    <row r="49" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="E49" s="11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>248</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="N49" s="11" t="s">
         <v>253</v>
@@ -11077,69 +10997,12 @@
         <v>254</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG49" s="14"/>
-    </row>
-    <row r="50" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E50" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -11154,14 +11017,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P17:P1048576 P6:Q9 Q3:Q16" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P6:Q9 P16:P1048576 Q3:Q15" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11286,64 +11149,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="27" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="25" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="26" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -12382,51 +12245,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="23" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/Taken from github and not from SP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{E94A95D1-D800-4C8A-9884-F65D20DEA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C955FEAC-C3F7-4BF3-B3DE-DE472A84CE62}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{E94A95D1-D800-4C8A-9884-F65D20DEA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7C0AD5-5C3B-491F-BADA-F938B12D6063}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="663">
   <si>
     <t>SearchID</t>
   </si>
@@ -4406,9 +4406,6 @@
     <t>ANCOVA _ Tukey post hoc (pairwise multiple comparisons) _ Kruskal-Wallis _ model class progression analysis _ Faben's method</t>
   </si>
   <si>
-    <t>Multi-Dimensional Scaling analysis _ ANOSIM _ SIMPER _ GLMM</t>
-  </si>
-  <si>
     <t>Spearman rank correlation _ Wilcoxon matched-pairs signed-ranks _ Mann-Whitney U</t>
   </si>
   <si>
@@ -4534,12 +4531,6 @@
     <t>month period before suprabenthos sampling, Fig. 8), no trends are</t>
   </si>
   <si>
-    <t>evident in Rocassa (Cabecera fishing ground) and BaranaS (Barana</t>
-  </si>
-  <si>
-    <t>fishing ground) where fishing occurs only seasonally. Sot assem-</t>
-  </si>
-  <si>
     <t>density, number of species and number of trophic groups with</t>
   </si>
   <si>
@@ -4568,6 +4559,15 @@
   </si>
   <si>
     <t xml:space="preserve">So these low densities were not an effect of fishery, but of the high cockle abundance that made cockle dredging profitable. The proportions of recruit numbers estimated in August (just before cockle dredging) that were still present half a year after fishing (in March) were not different between fishing and non-fishing years nor between fished and unfished areas in fishing years. </t>
+  </si>
+  <si>
+    <t>Even though about 63% of the discarded species were undamaged, 11% showed minor or partial damage and 26% lethal damage.</t>
+  </si>
+  <si>
+    <t>Even though about 63% of the discarded species were undamaged, 11% showed minor or partial damage and 26% lethal damage. Infaunal and epifaunal species with soft-body or fragile shells were the most impacted by the fishing activity (e.g. the sea urchin Echinocardium mediterraneum (~89%) and the bivalve Ensis minor (~74%)).</t>
+  </si>
+  <si>
+    <t>Mactra stultorum _ Liocarcinus vernalis _ Echinocardium mediterraneum _ Ensis minor _ Penaeus kerathurus _ Portumnus latipes _ Acanthocardia tuberculata</t>
   </si>
 </sst>
 </file>
@@ -4733,6 +4733,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4754,15 +4763,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4783,10 +4783,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5052,101 +5048,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX49"/>
+  <dimension ref="A1:AX48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AT54" sqref="AT54"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="92.140625" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.7109375" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" style="12" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="92.1796875" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.7265625" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" style="12" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" style="12" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
-    <col min="50" max="50" width="19.85546875" customWidth="1"/>
+    <col min="50" max="50" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25" t="s">
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="27" t="s">
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="21" t="s">
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="22" t="s">
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5298,7 +5294,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5430,7 +5426,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -5565,7 +5561,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -5696,9 +5692,9 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="28"/>
+      <c r="AX5" s="21"/>
     </row>
-    <row r="6" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>256</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>256</v>
       </c>
@@ -5949,11 +5945,11 @@
       <c r="AW7" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX7" s="28" t="s">
+      <c r="AX7" s="21" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>256</v>
       </c>
@@ -6055,7 +6051,7 @@
       </c>
       <c r="AN8" s="19"/>
       <c r="AO8" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AP8" s="12" t="s">
         <v>513</v>
@@ -6076,11 +6072,11 @@
       <c r="AW8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX8" s="28" t="s">
+      <c r="AX8" s="21" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>256</v>
       </c>
@@ -6182,7 +6178,7 @@
       </c>
       <c r="AN9" s="19"/>
       <c r="AO9" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AP9" s="12" t="s">
         <v>513</v>
@@ -6195,7 +6191,7 @@
       </c>
       <c r="AT9" s="16"/>
       <c r="AU9" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AV9" s="12" t="s">
         <v>205</v>
@@ -6203,11 +6199,11 @@
       <c r="AW9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX9" s="28" t="s">
+      <c r="AX9" s="21" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>265</v>
       </c>
@@ -6345,10 +6341,10 @@
         <v>208</v>
       </c>
       <c r="AX10" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>265</v>
       </c>
@@ -6483,10 +6479,10 @@
         <v>208</v>
       </c>
       <c r="AX11" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>274</v>
       </c>
@@ -6608,7 +6604,7 @@
         <v>179</v>
       </c>
       <c r="AT12" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AU12" s="12" t="s">
         <v>484</v>
@@ -6620,10 +6616,10 @@
         <v>209</v>
       </c>
       <c r="AX12" s="20" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>274</v>
       </c>
@@ -6724,7 +6720,7 @@
         <v>141</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>602</v>
+        <v>662</v>
       </c>
       <c r="AM13" s="12" t="s">
         <v>232</v>
@@ -6745,7 +6741,7 @@
         <v>179</v>
       </c>
       <c r="AT13" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AU13" s="12" t="s">
         <v>484</v>
@@ -6757,48 +6753,48 @@
         <v>209</v>
       </c>
       <c r="AX13" s="20" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E14" s="12">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>253</v>
@@ -6807,28 +6803,31 @@
         <v>254</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>215</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="Z14" s="12" t="s">
         <v>616</v>
@@ -6842,8 +6841,11 @@
       <c r="AC14" s="12">
         <v>3</v>
       </c>
-      <c r="AF14" s="12" t="s">
-        <v>477</v>
+      <c r="AD14" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG14" s="19" t="s">
         <v>110</v>
@@ -6861,13 +6863,19 @@
         <v>141</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO14" s="19" t="s">
-        <v>563</v>
+        <v>232</v>
+      </c>
+      <c r="AN14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO14" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AP14" s="12" t="s">
+        <v>487</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>164</v>
@@ -6875,64 +6883,59 @@
       <c r="AR14" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AS14" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT14" s="16" t="s">
-        <v>658</v>
-      </c>
+      <c r="AT14" s="16"/>
       <c r="AU14" s="12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AV14" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW14" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX14" s="20" t="s">
-        <v>652</v>
+      <c r="AW14" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX14" s="21" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="E15" s="12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>253</v>
@@ -6941,33 +6944,30 @@
         <v>254</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="19" t="s">
         <v>617</v>
       </c>
       <c r="AA15" s="12">
@@ -6977,16 +6977,16 @@
         <v>2</v>
       </c>
       <c r="AC15" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="12" t="s">
-        <v>489</v>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>565</v>
       </c>
       <c r="AF15" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG15" s="19" t="s">
-        <v>110</v>
+      <c r="AG15" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AH15" s="12" t="s">
         <v>120</v>
@@ -6995,217 +6995,217 @@
         <v>140</v>
       </c>
       <c r="AJ15" s="12" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AK15" s="12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AL15" s="12" t="s">
-        <v>603</v>
+        <v>490</v>
       </c>
       <c r="AM15" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN15" s="12" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="AP15" s="12" t="s">
-        <v>487</v>
+        <v>564</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR15" s="12" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AT15" s="16"/>
       <c r="AU15" s="12" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="AV15" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW15" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX15" s="28" t="s">
-        <v>662</v>
+        <v>208</v>
+      </c>
+      <c r="AX15" s="20" t="s">
+        <v>650</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:50" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2017</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="C16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2021</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="M16" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="12" t="s">
+      <c r="S16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>72</v>
+      <c r="W16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>495</v>
       </c>
       <c r="Z16" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="19">
         <v>2</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AB16" s="19">
         <v>2</v>
       </c>
-      <c r="AC16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="AF16" s="12">
+      <c r="AC16" s="19">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF16" s="19">
         <v>4.3</v>
       </c>
-      <c r="AG16" s="12" t="s">
+      <c r="AG16" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH16" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK16" s="12" t="s">
+      <c r="AK16" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AL16" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="AM16" s="12" t="s">
+      <c r="AL16" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM16" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AO16" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="AQ16" s="12" t="s">
+      <c r="AO16" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP16" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ16" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AR16" s="12" t="s">
+      <c r="AR16" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="AV16" s="12" t="s">
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="19" t="s">
+        <v>575</v>
+      </c>
+      <c r="AV16" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="AW16" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX16" s="20" t="s">
-        <v>653</v>
+      <c r="AW16" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX16" s="22" t="s">
+        <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="E17" s="19">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>248</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>253</v>
@@ -7214,31 +7214,28 @@
         <v>254</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="19" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W17" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>495</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="19" t="s">
         <v>619</v>
@@ -7250,40 +7247,31 @@
         <v>2</v>
       </c>
       <c r="AC17" s="19">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="19">
         <v>4.3</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH17" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ17" s="19" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AK17" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AL17" s="19" t="s">
-        <v>493</v>
-      </c>
       <c r="AM17" s="19" t="s">
         <v>233</v>
       </c>
       <c r="AO17" s="19" t="s">
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="AP17" s="19" t="s">
-        <v>492</v>
+        <v>573</v>
       </c>
       <c r="AQ17" s="19" t="s">
         <v>164</v>
@@ -7291,150 +7279,162 @@
       <c r="AR17" s="19" t="s">
         <v>239</v>
       </c>
+      <c r="AS17" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="AT17" s="17"/>
       <c r="AU17" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AV17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX17" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2011</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ18" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL18" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM18" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR18" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS18" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AV18" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW17" s="19" t="s">
+      <c r="AW18" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX17" s="29" t="s">
-        <v>654</v>
+      <c r="AX18" s="21" t="s">
+        <v>653</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="E18" s="19">
-        <v>2018</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="N18" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="W18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA18" s="19">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="19">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="AG18" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH18" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI18" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK18" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM18" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO18" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="AP18" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="AQ18" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR18" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS18" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="AV18" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW18" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX18" s="30" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>349</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>216</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA19" s="12">
         <v>2</v>
@@ -7532,16 +7532,13 @@
         <v>120</v>
       </c>
       <c r="AI19" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ19" s="12" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AK19" s="12" t="s">
         <v>134</v>
       </c>
       <c r="AL19" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AM19" s="12" t="s">
         <v>233</v>
@@ -7563,81 +7560,81 @@
         <v>514</v>
       </c>
       <c r="AV19" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW19" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX19" s="28" t="s">
-        <v>656</v>
+      <c r="AX19" s="21" t="s">
+        <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E20" s="12">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X20" s="12" t="s">
         <v>216</v>
@@ -7652,13 +7649,10 @@
         <v>2</v>
       </c>
       <c r="AC20" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE20" s="12" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AF20" s="12">
         <v>4.3</v>
@@ -7670,19 +7664,19 @@
         <v>120</v>
       </c>
       <c r="AI20" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK20" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="AK20" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="AL20" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM20" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AQ20" s="12" t="s">
         <v>164</v>
@@ -7690,24 +7684,21 @@
       <c r="AR20" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AS20" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="AT20" s="16"/>
       <c r="AU20" s="12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AV20" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW20" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX20" s="28" t="s">
-        <v>499</v>
+        <v>207</v>
+      </c>
+      <c r="AX20" s="21" t="s">
+        <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>359</v>
       </c>
@@ -7778,7 +7769,7 @@
         <v>216</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA21" s="12">
         <v>2</v>
@@ -7789,9 +7780,6 @@
       <c r="AC21" s="12">
         <v>3</v>
       </c>
-      <c r="AD21" s="12" t="s">
-        <v>503</v>
-      </c>
       <c r="AF21" s="12">
         <v>4.3</v>
       </c>
@@ -7824,57 +7812,57 @@
       </c>
       <c r="AT21" s="16"/>
       <c r="AU21" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AV21" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW21" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX21" s="28" t="s">
-        <v>501</v>
+        <v>208</v>
+      </c>
+      <c r="AX21" s="21" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E22" s="12">
         <v>2013</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="N22" s="12" t="s">
         <v>253</v>
@@ -7883,22 +7871,22 @@
         <v>254</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W22" s="12" t="s">
         <v>48</v>
@@ -7907,7 +7895,7 @@
         <v>216</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>622</v>
+        <v>511</v>
       </c>
       <c r="AA22" s="12">
         <v>2</v>
@@ -7918,29 +7906,35 @@
       <c r="AC22" s="12">
         <v>3</v>
       </c>
+      <c r="AD22" s="13" t="s">
+        <v>518</v>
+      </c>
       <c r="AF22" s="12">
         <v>4.3</v>
       </c>
       <c r="AG22" s="19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH22" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI22" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK22" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="AK22" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="AL22" s="12" t="s">
-        <v>606</v>
+        <v>533</v>
       </c>
       <c r="AM22" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>500</v>
+        <v>512</v>
+      </c>
+      <c r="AP22" s="12" t="s">
+        <v>513</v>
       </c>
       <c r="AQ22" s="12" t="s">
         <v>164</v>
@@ -7950,57 +7944,57 @@
       </c>
       <c r="AT22" s="16"/>
       <c r="AU22" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW22" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX22" s="28" t="s">
-        <v>502</v>
+        <v>209</v>
+      </c>
+      <c r="AX22" s="21" t="s">
+        <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E23" s="12">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>253</v>
@@ -8015,25 +8009,25 @@
         <v>21</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="AA23" s="12">
         <v>2</v>
@@ -8044,13 +8038,10 @@
       <c r="AC23" s="12">
         <v>3</v>
       </c>
-      <c r="AD23" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="AF23" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG23" s="19" t="s">
+      <c r="AG23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="AH23" s="12" t="s">
@@ -8063,16 +8054,13 @@
         <v>148</v>
       </c>
       <c r="AL23" s="12" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="AM23" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="AP23" s="12" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AQ23" s="12" t="s">
         <v>164</v>
@@ -8080,21 +8068,24 @@
       <c r="AR23" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS23" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="AT23" s="16"/>
       <c r="AU23" s="12" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AV23" s="12" t="s">
         <v>113</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX23" s="28" t="s">
-        <v>519</v>
+        <v>208</v>
+      </c>
+      <c r="AX23" s="20" t="s">
+        <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" s="12" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>376</v>
       </c>
@@ -8165,7 +8156,7 @@
         <v>69</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA24" s="12">
         <v>2</v>
@@ -8207,7 +8198,7 @@
         <v>239</v>
       </c>
       <c r="AS24" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT24" s="16"/>
       <c r="AU24" s="12" t="s">
@@ -8223,7 +8214,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="12" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>376</v>
       </c>
@@ -8294,7 +8285,7 @@
         <v>69</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA25" s="12">
         <v>2</v>
@@ -8333,12 +8324,11 @@
         <v>164</v>
       </c>
       <c r="AR25" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS25" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT25" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="AT25" s="16" t="s">
+        <v>521</v>
+      </c>
       <c r="AU25" s="12" t="s">
         <v>524</v>
       </c>
@@ -8352,45 +8342,45 @@
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E26" s="12">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>253</v>
@@ -8399,31 +8389,34 @@
         <v>254</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>69</v>
+        <v>218</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>623</v>
+        <v>507</v>
       </c>
       <c r="AA26" s="12">
         <v>2</v>
@@ -8434,91 +8427,95 @@
       <c r="AC26" s="12">
         <v>3</v>
       </c>
+      <c r="AE26" s="12" t="s">
+        <v>506</v>
+      </c>
       <c r="AF26" s="12">
         <v>4.3</v>
       </c>
       <c r="AG26" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH26" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI26" s="12" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="AK26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>522</v>
+        <v>607</v>
       </c>
       <c r="AM26" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>520</v>
+        <v>505</v>
+      </c>
+      <c r="AP26" s="12" t="s">
+        <v>509</v>
       </c>
       <c r="AQ26" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR26" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT26" s="16" t="s">
-        <v>521</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AS26" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT26" s="16"/>
       <c r="AU26" s="12" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="AV26" s="12" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX26" s="20" t="s">
-        <v>523</v>
+      <c r="AX26" s="21" t="s">
+        <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="E27" s="12">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>253</v>
@@ -8527,34 +8524,31 @@
         <v>254</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>504</v>
+        <v>216</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>507</v>
+        <v>623</v>
       </c>
       <c r="AA27" s="12">
         <v>2</v>
@@ -8565,11 +8559,8 @@
       <c r="AC27" s="12">
         <v>3</v>
       </c>
-      <c r="AE27" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF27" s="12">
-        <v>4.3</v>
+      <c r="AF27" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG27" s="12" t="s">
         <v>110</v>
@@ -8577,45 +8568,48 @@
       <c r="AH27" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="AI27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ27" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="AK27" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL27" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AM27" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN27" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AP27" s="12" t="s">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="AQ27" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR27" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS27" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AT27" s="16"/>
       <c r="AU27" s="12" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="AV27" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW27" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX27" s="28" t="s">
-        <v>510</v>
+      <c r="AX27" s="21" t="s">
+        <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>409</v>
       </c>
@@ -8686,7 +8680,7 @@
         <v>216</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA28" s="12">
         <v>2</v>
@@ -8731,7 +8725,7 @@
         <v>164</v>
       </c>
       <c r="AR28" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AT28" s="16"/>
       <c r="AU28" s="12" t="s">
@@ -8743,49 +8737,49 @@
       <c r="AW28" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX28" s="28" t="s">
+      <c r="AX28" s="21" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E29" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>253</v>
@@ -8794,31 +8788,31 @@
         <v>254</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="W29" s="12" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X29" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="AA29" s="12">
         <v>2</v>
@@ -8827,10 +8821,10 @@
         <v>2</v>
       </c>
       <c r="AC29" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF29" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG29" s="12" t="s">
         <v>110</v>
@@ -8838,48 +8832,42 @@
       <c r="AH29" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI29" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ29" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AK29" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM29" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN29" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO29" s="12" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="AQ29" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR29" s="12" t="s">
-        <v>171</v>
+        <v>239</v>
+      </c>
+      <c r="AS29" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="AT29" s="16"/>
       <c r="AU29" s="12" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AV29" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW29" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX29" s="28" t="s">
-        <v>526</v>
+      <c r="AX29" s="21" t="s">
+        <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>417</v>
       </c>
@@ -8993,7 +8981,7 @@
       </c>
       <c r="AT30" s="16"/>
       <c r="AU30" s="12" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AV30" s="12" t="s">
         <v>199</v>
@@ -9001,31 +8989,31 @@
       <c r="AW30" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX30" s="28" t="s">
-        <v>529</v>
+      <c r="AX30" s="21" t="s">
+        <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E31" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>248</v>
@@ -9037,13 +9025,13 @@
         <v>248</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N31" s="12" t="s">
         <v>253</v>
@@ -9052,31 +9040,34 @@
         <v>254</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T31" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="AA31" s="12">
         <v>2</v>
@@ -9085,28 +9076,31 @@
         <v>2</v>
       </c>
       <c r="AC31" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF31" s="12">
-        <v>4.3</v>
+        <v>3</v>
+      </c>
+      <c r="AE31" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF31" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG31" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH31" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AK31" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL31" s="12" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="AM31" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO31" s="12" t="s">
-        <v>532</v>
+        <v>642</v>
       </c>
       <c r="AQ31" s="12" t="s">
         <v>164</v>
@@ -9114,12 +9108,9 @@
       <c r="AR31" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AS31" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="AT31" s="16"/>
       <c r="AU31" s="12" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="AV31" s="12" t="s">
         <v>199</v>
@@ -9127,11 +9118,11 @@
       <c r="AW31" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX31" s="28" t="s">
-        <v>531</v>
+      <c r="AX31" s="21" t="s">
+        <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>423</v>
       </c>
@@ -9205,7 +9196,7 @@
         <v>534</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA32" s="12">
         <v>2</v>
@@ -9235,10 +9226,10 @@
         <v>645</v>
       </c>
       <c r="AM32" s="12" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AQ32" s="12" t="s">
         <v>164</v>
@@ -9254,13 +9245,13 @@
         <v>199</v>
       </c>
       <c r="AW32" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX32" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX32" s="21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>423</v>
       </c>
@@ -9313,7 +9304,7 @@
         <v>21</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T33" s="12" t="s">
         <v>46</v>
@@ -9334,7 +9325,7 @@
         <v>534</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA33" s="12">
         <v>2</v>
@@ -9361,13 +9352,13 @@
         <v>150</v>
       </c>
       <c r="AL33" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM33" s="12" t="s">
         <v>159</v>
       </c>
       <c r="AO33" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AQ33" s="12" t="s">
         <v>164</v>
@@ -9385,11 +9376,11 @@
       <c r="AW33" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AX33" s="28" t="s">
-        <v>642</v>
+      <c r="AX33" s="21" t="s">
+        <v>641</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>423</v>
       </c>
@@ -9463,7 +9454,7 @@
         <v>534</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AA34" s="12">
         <v>2</v>
@@ -9493,10 +9484,10 @@
         <v>646</v>
       </c>
       <c r="AM34" s="12" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AQ34" s="12" t="s">
         <v>164</v>
@@ -9512,33 +9503,33 @@
         <v>199</v>
       </c>
       <c r="AW34" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX34" s="28" t="s">
-        <v>642</v>
+        <v>208</v>
+      </c>
+      <c r="AX34" s="21" t="s">
+        <v>643</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="E35" s="12">
         <v>2021</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>248</v>
@@ -9550,13 +9541,13 @@
         <v>248</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="N35" s="12" t="s">
         <v>253</v>
@@ -9565,7 +9556,7 @@
         <v>254</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>416</v>
+        <v>284</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>21</v>
@@ -9574,22 +9565,19 @@
         <v>23</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W35" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y35" s="12" t="s">
-        <v>534</v>
+        <v>216</v>
       </c>
       <c r="Z35" s="12" t="s">
         <v>625</v>
@@ -9603,29 +9591,32 @@
       <c r="AC35" s="12">
         <v>3</v>
       </c>
-      <c r="AE35" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF35" s="12" t="s">
-        <v>477</v>
+      <c r="AE35" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG35" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH35" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="AI35" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="AK35" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL35" s="12" t="s">
-        <v>647</v>
+        <v>533</v>
       </c>
       <c r="AM35" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO35" s="12" t="s">
-        <v>643</v>
+        <v>537</v>
       </c>
       <c r="AQ35" s="12" t="s">
         <v>164</v>
@@ -9635,84 +9626,84 @@
       </c>
       <c r="AT35" s="16"/>
       <c r="AU35" s="12" t="s">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="AV35" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW35" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX35" s="28" t="s">
-        <v>644</v>
+        <v>209</v>
+      </c>
+      <c r="AX35" s="21" t="s">
+        <v>539</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E36" s="12">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>248</v>
+        <v>439</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V36" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="W36" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X36" s="12" t="s">
         <v>216</v>
@@ -9730,7 +9721,7 @@
         <v>3</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="AF36" s="12">
         <v>4.3</v>
@@ -9739,22 +9730,22 @@
         <v>110</v>
       </c>
       <c r="AH36" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AI36" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AK36" s="12" t="s">
         <v>134</v>
       </c>
       <c r="AL36" s="12" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="AM36" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AQ36" s="12" t="s">
         <v>164</v>
@@ -9764,72 +9755,72 @@
       </c>
       <c r="AT36" s="16"/>
       <c r="AU36" s="12" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AV36" s="12" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW36" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AX36" s="28" t="s">
-        <v>539</v>
+      <c r="AX36" s="20" t="s">
+        <v>541</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E37" s="12">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T37" s="12" t="s">
         <v>46</v>
@@ -9838,14 +9829,17 @@
         <v>55</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X37" s="12" t="s">
         <v>216</v>
       </c>
+      <c r="Y37" s="12" t="s">
+        <v>544</v>
+      </c>
       <c r="Z37" s="12" t="s">
         <v>627</v>
       </c>
@@ -9856,13 +9850,13 @@
         <v>2</v>
       </c>
       <c r="AC37" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AF37" s="12">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AG37" s="12" t="s">
         <v>110</v>
@@ -9871,79 +9865,84 @@
         <v>117</v>
       </c>
       <c r="AI37" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AK37" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL37" s="12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM37" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN37" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO37" s="12" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AQ37" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR37" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT37" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="AT37" s="16" t="s">
+        <v>546</v>
+      </c>
       <c r="AU37" s="12" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AV37" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW37" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX37" s="20" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E38" s="12">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>455</v>
+        <v>310</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>253</v>
@@ -9952,31 +9951,31 @@
         <v>254</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V38" s="12" t="s">
         <v>44</v>
       </c>
       <c r="W38" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X38" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Y38" s="12" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="Z38" s="12" t="s">
         <v>628</v>
@@ -9988,108 +9987,97 @@
         <v>2</v>
       </c>
       <c r="AC38" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AF38" s="12">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AG38" s="12" t="s">
         <v>110</v>
       </c>
       <c r="AH38" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI38" s="12" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="AK38" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AL38" s="12" t="s">
-        <v>611</v>
-      </c>
       <c r="AM38" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN38" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AQ38" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR38" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT38" s="16" t="s">
-        <v>546</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT38" s="16"/>
       <c r="AU38" s="12" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="AV38" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX38" s="20" t="s">
-        <v>549</v>
+        <v>208</v>
+      </c>
+      <c r="AX38" s="21" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" s="12" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>461</v>
+        <v>583</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>462</v>
+        <v>584</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>463</v>
+        <v>585</v>
       </c>
       <c r="E39" s="12">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>464</v>
+        <v>326</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>310</v>
+        <v>586</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>465</v>
+        <v>587</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>466</v>
+        <v>588</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>468</v>
+        <v>590</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>469</v>
+        <v>591</v>
       </c>
       <c r="N39" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>254</v>
+        <v>592</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="12" t="s">
         <v>21</v>
@@ -10098,13 +10086,13 @@
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W39" s="12" t="s">
         <v>53</v>
@@ -10112,11 +10100,8 @@
       <c r="X39" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y39" s="12" t="s">
-        <v>550</v>
-      </c>
       <c r="Z39" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA39" s="12">
         <v>2</v>
@@ -10125,10 +10110,7 @@
         <v>2</v>
       </c>
       <c r="AC39" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE39" s="13" t="s">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="AF39" s="12">
         <v>4.3</v>
@@ -10137,16 +10119,19 @@
         <v>110</v>
       </c>
       <c r="AH39" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK39" s="12" t="s">
-        <v>148</v>
+        <v>123</v>
+      </c>
+      <c r="AI39" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL39" s="12" t="s">
+        <v>656</v>
       </c>
       <c r="AM39" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO39" s="12" t="s">
-        <v>552</v>
+        <v>657</v>
       </c>
       <c r="AQ39" s="12" t="s">
         <v>164</v>
@@ -10154,65 +10139,67 @@
       <c r="AR39" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT39" s="16"/>
+      <c r="AT39" s="12" t="s">
+        <v>631</v>
+      </c>
       <c r="AU39" s="12" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW39" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX39" s="28" t="s">
-        <v>553</v>
+        <v>207</v>
+      </c>
+      <c r="AX39" s="20" t="s">
+        <v>658</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" s="12" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E40" s="12">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>587</v>
+        <v>248</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>592</v>
+        <v>254</v>
       </c>
       <c r="P40" s="12" t="s">
         <v>255</v>
@@ -10221,25 +10208,25 @@
         <v>21</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="W40" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X40" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>634</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="AA40" s="12">
         <v>2</v>
@@ -10248,40 +10235,40 @@
         <v>2</v>
       </c>
       <c r="AC40" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="12">
-        <v>4.3</v>
+        <v>3</v>
+      </c>
+      <c r="AF40" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG40" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH40" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AI40" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="AK40" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="AL40" s="12" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="AM40" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN40" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="AQ40" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AR40" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT40" s="12" t="s">
-        <v>632</v>
-      </c>
       <c r="AU40" s="12" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AV40" s="12" t="s">
         <v>199</v>
@@ -10290,10 +10277,10 @@
         <v>207</v>
       </c>
       <c r="AX40" s="20" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>593</v>
       </c>
@@ -10346,7 +10333,7 @@
         <v>21</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T41" s="12" t="s">
         <v>46</v>
@@ -10361,10 +10348,10 @@
         <v>113</v>
       </c>
       <c r="Y41" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z41" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="Z41" s="12" t="s">
-        <v>636</v>
       </c>
       <c r="AA41" s="12">
         <v>2</v>
@@ -10391,7 +10378,7 @@
         <v>150</v>
       </c>
       <c r="AL41" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM41" s="12" t="s">
         <v>232</v>
@@ -10400,63 +10387,63 @@
         <v>160</v>
       </c>
       <c r="AO41" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AQ41" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AU41" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AV41" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW41" s="12" t="s">
         <v>207</v>
       </c>
       <c r="AX41" s="20" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>593</v>
+        <v>470</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>595</v>
+        <v>472</v>
       </c>
       <c r="E42" s="12">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>246</v>
+        <v>473</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>596</v>
+        <v>280</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>597</v>
+        <v>248</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>598</v>
+        <v>248</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>599</v>
+        <v>474</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>253</v>
@@ -10465,31 +10452,34 @@
         <v>254</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="Q42" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T42" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X42" s="12" t="s">
         <v>113</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="Z42" s="12" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="AA42" s="12">
         <v>2</v>
@@ -10500,311 +10490,239 @@
       <c r="AC42" s="12">
         <v>3</v>
       </c>
-      <c r="AF42" s="12" t="s">
-        <v>477</v>
+      <c r="AF42" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG42" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH42" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI42" s="12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="AK42" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL42" s="12" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="AM42" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN42" s="12" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="AO42" s="12" t="s">
-        <v>637</v>
+        <v>556</v>
       </c>
       <c r="AQ42" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR42" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT42" s="16"/>
       <c r="AU42" s="12" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
       <c r="AV42" s="12" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW42" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX42" s="20" t="s">
-        <v>640</v>
+        <v>210</v>
+      </c>
+      <c r="AX42" s="21" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="E43" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H43" s="12" t="s">
+      <c r="C43" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="M43" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E44" s="15">
+        <v>2020</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="L44" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="M44" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E45" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="I45" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="K43" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="L43" s="12" t="s">
+      <c r="J45" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="M43" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="N43" s="12" t="s">
+      <c r="K45" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="N45" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="O45" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="P43" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q43" s="12" t="s">
+      <c r="P45" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V43" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W43" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X43" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y43" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z43" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="AA43" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB43" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC43" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF43" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="AG43" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH43" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK43" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL43" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM43" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO43" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="AQ43" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR43" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT43" s="16"/>
-      <c r="AU43" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="AV43" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW43" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX43" s="28" t="s">
-        <v>558</v>
+      <c r="R45" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E44" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E45" s="15">
-        <v>2020</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q45" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
       <c r="E46" s="11">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>318</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>248</v>
@@ -10813,13 +10731,13 @@
         <v>248</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>253</v>
@@ -10837,30 +10755,30 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="E47" s="11">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>248</v>
@@ -10869,13 +10787,13 @@
         <v>248</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>253</v>
@@ -10884,7 +10802,7 @@
         <v>254</v>
       </c>
       <c r="P47" s="11" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>21</v>
@@ -10892,46 +10810,47 @@
       <c r="R47" s="11" t="s">
         <v>84</v>
       </c>
+      <c r="AG47" s="14"/>
     </row>
-    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="E48" s="11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>248</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>253</v>
@@ -10940,69 +10859,12 @@
         <v>254</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG48" s="14"/>
-    </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E49" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -11017,14 +10879,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P6:Q9 P16:P1048576 Q3:Q15" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P6:Q9 P15:P1048576 Q3:Q14" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AR3:AS1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN1048576 AR3:AS1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11138,75 +11000,75 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="24" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25" t="s">
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -11214,7 +11076,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11366,7 +11228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11423,7 +11285,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -11480,7 +11342,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -11536,7 +11398,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11581,7 +11443,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11623,7 +11485,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11661,7 +11523,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11696,7 +11558,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11728,7 +11590,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11763,7 +11625,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11795,7 +11657,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -11830,7 +11692,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -11859,7 +11721,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -11888,7 +11750,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -11908,7 +11770,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -11916,22 +11778,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -11966,7 +11828,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -11992,7 +11854,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -12015,7 +11877,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -12026,7 +11888,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -12037,7 +11899,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -12045,12 +11907,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -12073,7 +11935,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -12099,7 +11961,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -12125,7 +11987,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12145,7 +12007,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12160,7 +12022,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12174,7 +12036,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -12182,10 +12044,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12213,85 +12075,85 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="22" max="22" width="18.7265625" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.26953125" customWidth="1"/>
+    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -12392,7 +12254,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12458,7 +12320,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12509,7 +12371,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12563,7 +12425,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12605,7 +12467,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12650,7 +12512,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12688,7 +12550,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12726,7 +12588,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12761,7 +12623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12793,7 +12655,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -12825,7 +12687,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -12854,7 +12716,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -12877,7 +12739,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -12903,7 +12765,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -12920,7 +12782,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -12931,7 +12793,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -12945,7 +12807,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -12959,7 +12821,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -12970,7 +12832,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -12984,7 +12846,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -12995,7 +12857,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -13006,7 +12868,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -13014,7 +12876,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -13022,7 +12884,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -13030,7 +12892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -13044,7 +12906,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -13055,7 +12917,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -13066,7 +12928,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -13077,7 +12939,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -13085,7 +12947,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -13093,12 +12955,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -13118,23 +12980,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -13246,31 +13099,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C7FA93-5CE6-4EAF-BCC9-E36208EBEE56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -13283,4 +13131,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{E94A95D1-D800-4C8A-9884-F65D20DEA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7C0AD5-5C3B-491F-BADA-F938B12D6063}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C592DF-17E9-4E4A-8822-2E8562EFFFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$51</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="670">
   <si>
     <t>SearchID</t>
   </si>
@@ -3830,15 +3830,6 @@
     <t>Callista chione</t>
   </si>
   <si>
-    <t xml:space="preserve">Appropriate manangement plans are needed to sufficiently recover the population to sustain harvesting. We suggest the following management guidelines: (1) banning artisanal clam dredging until the population has recevere; and (2) implementing other alternatives to beach nourishment to mitigate coastal erosion. If no alternatives to beach nourishment are found, sand dredging should be restricted to the southern area and preferably to depths at which there are no vulnerable species. </t>
-  </si>
-  <si>
-    <t>Overfishing</t>
-  </si>
-  <si>
-    <t>Dredging effects on species habitat</t>
-  </si>
-  <si>
     <t>Multi-Dimensional Scaling analysis_ANOSIM_SIMPER_GLMM_</t>
   </si>
   <si>
@@ -3858,9 +3849,6 @@
   </si>
   <si>
     <t>We found no evidence for the states hypotheses on fishery effects</t>
-  </si>
-  <si>
-    <t>Lophelia reefs</t>
   </si>
   <si>
     <t>Trawling pressure (average number of times seabed trawled per year)</t>
@@ -4155,9 +4143,6 @@
     <t>organic matter quality/ concentrations</t>
   </si>
   <si>
-    <t>increased trawling disturbance</t>
-  </si>
-  <si>
     <t xml:space="preserve">We found substantial differences in the quality of the organic matter between these two regions. In particular, the organic matter was more degraded in the trawled than the untrawled region. </t>
   </si>
   <si>
@@ -4212,9 +4197,6 @@
   </si>
   <si>
     <t>direct impact of mechanised clam dedging</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
   </si>
   <si>
     <t>This paper was difficult to analyse.</t>
@@ -4292,12 +4274,6 @@
     <t>abundances (major groups) _ diversity indices</t>
   </si>
   <si>
-    <t>Density _ Biomass _ Growth</t>
-  </si>
-  <si>
-    <t>species richnes _ abundance _ colony size</t>
-  </si>
-  <si>
     <t>bird count _ bird habitat disturbance</t>
   </si>
   <si>
@@ -4525,12 +4501,6 @@
     <t>Diversity indices</t>
   </si>
   <si>
-    <t>assemblages are plotted against fishing pressure (average of the 3-</t>
-  </si>
-  <si>
-    <t>month period before suprabenthos sampling, Fig. 8), no trends are</t>
-  </si>
-  <si>
     <t>density, number of species and number of trophic groups with</t>
   </si>
   <si>
@@ -4568,6 +4538,59 @@
   </si>
   <si>
     <t>Mactra stultorum _ Liocarcinus vernalis _ Echinocardium mediterraneum _ Ensis minor _ Penaeus kerathurus _ Portumnus latipes _ Acanthocardia tuberculata</t>
+  </si>
+  <si>
+    <t>colony heigth</t>
+  </si>
+  <si>
+    <t>The mean height of colonies at impacted sites was around half the size of colonies observed at non-impacted sites. At the heaviest impacted sites, there were no large coral fragments, only evenly distributed small fragments (&lt; 10 cm) of live coral.</t>
+  </si>
+  <si>
+    <t>Lophelia pertusa _ Paragorgia arborea</t>
+  </si>
+  <si>
+    <t>broken or tilted colonies</t>
+  </si>
+  <si>
+    <t>At the heaviest impacted sites, broken or tilted colonies of P. arborea were observed. Such sites were most likely recently exposed to bottom trawling. In other places the impact was less extensive and non-impacted colonies were observed between damaged patches with broken colonies and trawl tracks on the seabed. The most visible impact on the reef habitat from bottom contact of fishing gear was breakage and displacement of coral colonies. At some places, fragmented corals lined up as tracks, or elongated fields.</t>
+  </si>
+  <si>
+    <t>species richnes _ abundance</t>
+  </si>
+  <si>
+    <t>Both species richness and abundance was higher at nonimpacted coral habitats compared to impacted. The mean abundance of individuals was slightly higher on non-impacted bottom compared to impacted, but displayed great variation.</t>
+  </si>
+  <si>
+    <t>substrate heterogeneity</t>
+  </si>
+  <si>
+    <t>Broken Lophelia colonies with their live parts positioned down onto the seabed could be caused by bottom trawls, but lost long-lines, which in some cases were observed close to such features, may
+also have had this impact.</t>
+  </si>
+  <si>
+    <t>Lophelia pertusa</t>
+  </si>
+  <si>
+    <t>occurrence of trawl marks</t>
+  </si>
+  <si>
+    <t>observation of lost long-lines</t>
+  </si>
+  <si>
+    <t>trawled vs untrawled area</t>
+  </si>
+  <si>
+    <t>Sand extraction</t>
+  </si>
+  <si>
+    <t>annual landings</t>
+  </si>
+  <si>
+    <t>Results showed that the distribution had been hugely reduced, showing a sharp decline in density and biomass and a decrease in the mean population size in 2010. Our results confirm that the
+species is a slow-growing bivalve that is highly vulnerable to disturbances prolonged in time. The results clearly suggest that the decline of C. chione bed was mainly caused by the interaction of two coastal uses: sand dredging and clam fisheries.</t>
+  </si>
+  <si>
+    <t>Density _ Biomass</t>
   </si>
 </sst>
 </file>
@@ -5048,12 +5071,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX48"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="AL59" sqref="AL59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5368,7 +5391,7 @@
         <v>476</v>
       </c>
       <c r="Z3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5398,13 +5421,13 @@
         <v>134</v>
       </c>
       <c r="AL3" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AM3" t="s">
         <v>231</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5414,7 +5437,7 @@
       </c>
       <c r="AT3" s="16"/>
       <c r="AU3" s="12" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -5423,7 +5446,7 @@
         <v>207</v>
       </c>
       <c r="AX3" s="20" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5500,7 +5523,7 @@
         <v>476</v>
       </c>
       <c r="Z4" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5530,7 +5553,7 @@
         <v>134</v>
       </c>
       <c r="AL4" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AM4" t="s">
         <v>232</v>
@@ -5539,7 +5562,7 @@
         <v>160</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5549,7 +5572,7 @@
       </c>
       <c r="AT4" s="16"/>
       <c r="AU4" s="12" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5558,7 +5581,7 @@
         <v>210</v>
       </c>
       <c r="AX4" s="20" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.35">
@@ -5635,7 +5658,7 @@
         <v>476</v>
       </c>
       <c r="Z5" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5665,7 +5688,7 @@
         <v>134</v>
       </c>
       <c r="AL5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AM5" t="s">
         <v>232</v>
@@ -5674,7 +5697,7 @@
         <v>161</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5684,7 +5707,7 @@
       </c>
       <c r="AT5" s="16"/>
       <c r="AU5" s="12" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -5765,13 +5788,13 @@
         <v>69</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AA6" s="12">
         <v>2</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AF6" s="12">
         <v>4.3</v>
@@ -5798,10 +5821,10 @@
         <v>233</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AQ6" s="12" t="s">
         <v>164</v>
@@ -5811,7 +5834,7 @@
       </c>
       <c r="AT6" s="16"/>
       <c r="AU6" s="12" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AV6" s="12" t="s">
         <v>203</v>
@@ -5820,7 +5843,7 @@
         <v>208</v>
       </c>
       <c r="AX6" s="20" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5894,7 +5917,7 @@
         <v>69</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AA7" s="12">
         <v>2</v>
@@ -5924,10 +5947,10 @@
         <v>233</v>
       </c>
       <c r="AO7" s="12" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AQ7" s="12" t="s">
         <v>164</v>
@@ -5937,7 +5960,7 @@
       </c>
       <c r="AT7" s="16"/>
       <c r="AU7" s="12" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AV7" s="12" t="s">
         <v>206</v>
@@ -5946,7 +5969,7 @@
         <v>208</v>
       </c>
       <c r="AX7" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -6020,7 +6043,7 @@
         <v>69</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AA8" s="12">
         <v>2</v>
@@ -6051,10 +6074,10 @@
       </c>
       <c r="AN8" s="19"/>
       <c r="AO8" s="12" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AQ8" s="12" t="s">
         <v>164</v>
@@ -6064,7 +6087,7 @@
       </c>
       <c r="AT8" s="16"/>
       <c r="AU8" s="12" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AV8" s="12" t="s">
         <v>199</v>
@@ -6073,7 +6096,7 @@
         <v>209</v>
       </c>
       <c r="AX8" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -6147,7 +6170,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AA9" s="12">
         <v>2</v>
@@ -6178,10 +6201,10 @@
       </c>
       <c r="AN9" s="19"/>
       <c r="AO9" s="12" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AQ9" s="12" t="s">
         <v>164</v>
@@ -6191,7 +6214,7 @@
       </c>
       <c r="AT9" s="16"/>
       <c r="AU9" s="12" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="AV9" s="12" t="s">
         <v>205</v>
@@ -6200,10 +6223,10 @@
         <v>209</v>
       </c>
       <c r="AX9" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>265</v>
       </c>
@@ -6271,10 +6294,10 @@
         <v>48</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="AA10" s="12">
         <v>2</v>
@@ -6285,14 +6308,11 @@
       <c r="AC10" s="12">
         <v>3</v>
       </c>
-      <c r="AD10" s="12" t="s">
-        <v>480</v>
-      </c>
       <c r="AF10" s="12">
         <v>4.3</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH10" s="12" t="s">
         <v>120</v>
@@ -6316,10 +6336,10 @@
         <v>160</v>
       </c>
       <c r="AO10" s="12" t="s">
-        <v>481</v>
+        <v>667</v>
       </c>
       <c r="AP10" s="12" t="s">
-        <v>482</v>
+        <v>666</v>
       </c>
       <c r="AQ10" s="12" t="s">
         <v>164</v>
@@ -6332,7 +6352,7 @@
       </c>
       <c r="AT10" s="16"/>
       <c r="AU10" s="12" t="s">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="AV10" s="12" t="s">
         <v>199</v>
@@ -6340,49 +6360,49 @@
       <c r="AW10" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX10" s="20" t="s">
-        <v>648</v>
+      <c r="AX10" s="21" t="s">
+        <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E11" s="12">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>253</v>
@@ -6391,7 +6411,7 @@
         <v>254</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>21</v>
@@ -6400,22 +6420,22 @@
         <v>31</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>615</v>
+        <v>480</v>
       </c>
       <c r="AA11" s="12">
         <v>2</v>
@@ -6426,11 +6446,11 @@
       <c r="AC11" s="12">
         <v>3</v>
       </c>
-      <c r="AF11" s="12">
-        <v>4.3</v>
+      <c r="AF11" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH11" s="12" t="s">
         <v>120</v>
@@ -6445,7 +6465,7 @@
         <v>141</v>
       </c>
       <c r="AL11" s="12" t="s">
-        <v>479</v>
+        <v>594</v>
       </c>
       <c r="AM11" s="12" t="s">
         <v>232</v>
@@ -6453,11 +6473,8 @@
       <c r="AN11" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AO11" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="AP11" s="12" t="s">
-        <v>482</v>
+      <c r="AO11" s="19" t="s">
+        <v>558</v>
       </c>
       <c r="AQ11" s="12" t="s">
         <v>164</v>
@@ -6466,20 +6483,22 @@
         <v>168</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT11" s="16"/>
+        <v>179</v>
+      </c>
+      <c r="AT11" s="16" t="s">
+        <v>645</v>
+      </c>
       <c r="AU11" s="12" t="s">
-        <v>578</v>
+        <v>481</v>
       </c>
       <c r="AV11" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW11" s="12" t="s">
-        <v>208</v>
+      <c r="AW11" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="AX11" s="20" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6553,7 +6572,7 @@
         <v>215</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AA12" s="12">
         <v>2</v>
@@ -6583,16 +6602,16 @@
         <v>141</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="AM12" s="12" t="s">
         <v>232</v>
       </c>
       <c r="AN12" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO12" s="19" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>164</v>
@@ -6604,10 +6623,10 @@
         <v>179</v>
       </c>
       <c r="AT12" s="16" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="AU12" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AV12" s="12" t="s">
         <v>199</v>
@@ -6616,48 +6635,48 @@
         <v>209</v>
       </c>
       <c r="AX12" s="20" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E13" s="12">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>253</v>
@@ -6666,31 +6685,34 @@
         <v>254</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X13" s="12" t="s">
         <v>215</v>
       </c>
+      <c r="Y13" s="12" t="s">
+        <v>483</v>
+      </c>
       <c r="Z13" s="12" t="s">
-        <v>483</v>
+        <v>608</v>
       </c>
       <c r="AA13" s="12">
         <v>2</v>
@@ -6701,8 +6723,11 @@
       <c r="AC13" s="12">
         <v>3</v>
       </c>
-      <c r="AF13" s="12" t="s">
-        <v>477</v>
+      <c r="AD13" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG13" s="19" t="s">
         <v>110</v>
@@ -6720,7 +6745,7 @@
         <v>141</v>
       </c>
       <c r="AL13" s="12" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="AM13" s="12" t="s">
         <v>232</v>
@@ -6728,8 +6753,11 @@
       <c r="AN13" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AO13" s="19" t="s">
-        <v>563</v>
+      <c r="AO13" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="AP13" s="12" t="s">
+        <v>484</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>164</v>
@@ -6737,64 +6765,59 @@
       <c r="AR13" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AS13" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT13" s="16" t="s">
-        <v>655</v>
-      </c>
+      <c r="AT13" s="16"/>
       <c r="AU13" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AV13" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AW13" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX13" s="20" t="s">
-        <v>661</v>
+      <c r="AW13" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX13" s="21" t="s">
+        <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="E14" s="12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>253</v>
@@ -6803,34 +6826,31 @@
         <v>254</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V14" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>616</v>
+        <v>72</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>609</v>
       </c>
       <c r="AA14" s="12">
         <v>2</v>
@@ -6839,59 +6859,50 @@
         <v>2</v>
       </c>
       <c r="AC14" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="12" t="s">
-        <v>489</v>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>559</v>
       </c>
       <c r="AF14" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG14" s="19" t="s">
-        <v>110</v>
+      <c r="AG14" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AH14" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ14" s="12" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="AK14" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL14" s="12" t="s">
-        <v>603</v>
+        <v>148</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN14" s="12" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="AP14" s="12" t="s">
-        <v>487</v>
+        <v>663</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>660</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR14" s="12" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AT14" s="16"/>
       <c r="AU14" s="12" t="s">
-        <v>485</v>
+        <v>658</v>
       </c>
       <c r="AV14" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX14" s="21" t="s">
         <v>659</v>
@@ -6968,7 +6979,7 @@
         <v>72</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="AA15" s="12">
         <v>2</v>
@@ -6980,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="12" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AF15" s="12">
         <v>4.3</v>
@@ -6994,20 +7005,17 @@
       <c r="AI15" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AJ15" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="AK15" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AL15" s="12" t="s">
-        <v>490</v>
-      </c>
       <c r="AM15" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>564</v>
+        <v>663</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>660</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>164</v>
@@ -7017,7 +7025,7 @@
       </c>
       <c r="AT15" s="16"/>
       <c r="AU15" s="12" t="s">
-        <v>579</v>
+        <v>658</v>
       </c>
       <c r="AV15" s="12" t="s">
         <v>199</v>
@@ -7025,349 +7033,346 @@
       <c r="AW15" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX15" s="20" t="s">
-        <v>650</v>
+      <c r="AX15" s="21" t="s">
+        <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2021</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="L16" s="19" t="s">
+      <c r="C16" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="N16" s="19" t="s">
+      <c r="M16" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="Q16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="19" t="s">
+      <c r="S16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="V16" s="19" t="s">
+      <c r="X16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="AQ16" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR16" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AV16" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW16" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX16" s="21" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="W16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X16" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y16" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA16" s="19">
+      <c r="U17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA17" s="12">
         <v>2</v>
       </c>
-      <c r="AB16" s="19">
+      <c r="AB17" s="12">
         <v>2</v>
       </c>
-      <c r="AC16" s="19">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="AF16" s="19">
+      <c r="AC17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF17" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH16" s="19" t="s">
+      <c r="AG17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH17" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AI16" s="19" t="s">
+      <c r="AI17" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AJ16" s="19" t="s">
+      <c r="AJ17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL17" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR17" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="AV17" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AK16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL16" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM16" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO16" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="AP16" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="AQ16" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR16" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="19" t="s">
-        <v>575</v>
-      </c>
-      <c r="AV16" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW16" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX16" s="22" t="s">
-        <v>651</v>
+      <c r="AW17" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX17" s="21" t="s">
+        <v>657</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="19" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="E17" s="19">
-        <v>2018</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z17" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="AA17" s="19">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="19">
-        <v>2</v>
-      </c>
-      <c r="AF17" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="AG17" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH17" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM17" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO17" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="AP17" s="19" t="s">
-        <v>573</v>
-      </c>
-      <c r="AQ17" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR17" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS17" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="AV17" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW17" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX17" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="E18" s="12">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>57</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z18" s="12" t="s">
-        <v>620</v>
+        <v>72</v>
+      </c>
+      <c r="Z18" s="19" t="s">
+        <v>609</v>
       </c>
       <c r="AA18" s="12">
         <v>2</v>
@@ -7376,19 +7381,16 @@
         <v>2</v>
       </c>
       <c r="AC18" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="12" t="s">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="12" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="AF18" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG18" s="19" t="s">
-        <v>107</v>
+      <c r="AG18" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AH18" s="12" t="s">
         <v>120</v>
@@ -7397,379 +7399,382 @@
         <v>140</v>
       </c>
       <c r="AJ18" s="12" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AK18" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL18" s="12" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="AM18" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO18" s="12" t="s">
-        <v>496</v>
+        <v>231</v>
+      </c>
+      <c r="AP18" s="12" t="s">
+        <v>664</v>
       </c>
       <c r="AQ18" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR18" s="12" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="AS18" s="12" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AT18" s="16"/>
       <c r="AU18" s="12" t="s">
-        <v>514</v>
+        <v>656</v>
       </c>
       <c r="AV18" s="12" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW18" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX18" s="21" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:50" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2011</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="C19" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="O19" s="12" t="s">
+      <c r="M19" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="12" t="s">
+      <c r="P19" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T19" s="12" t="s">
+      <c r="S19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19" s="12" t="s">
+      <c r="U19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="Z19" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA19" s="12">
+      <c r="Y19" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z19" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA19" s="19">
         <v>2</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="19">
         <v>2</v>
       </c>
-      <c r="AC19" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE19" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF19" s="12">
+      <c r="AC19" s="19">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF19" s="19">
         <v>4.3</v>
       </c>
       <c r="AG19" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="AH19" s="12" t="s">
+      <c r="AH19" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AI19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK19" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL19" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="AM19" s="12" t="s">
+      <c r="AI19" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ19" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL19" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="AM19" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AO19" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ19" s="12" t="s">
+      <c r="AO19" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="AP19" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="AQ19" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AR19" s="12" t="s">
+      <c r="AR19" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AS19" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="AV19" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW19" s="12" t="s">
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="AV19" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW19" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="AX19" s="21" t="s">
-        <v>499</v>
+      <c r="AX19" s="22" t="s">
+        <v>641</v>
       </c>
     </row>
-    <row r="20" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:50" s="19" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E20" s="12">
-        <v>2013</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2018</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L20" s="12" t="s">
+      <c r="I20" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="N20" s="12" t="s">
+      <c r="M20" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="N20" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="P20" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="12" t="s">
+      <c r="P20" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X20" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z20" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA20" s="12">
+      <c r="S20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA20" s="19">
         <v>2</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AB20" s="19">
         <v>2</v>
       </c>
-      <c r="AC20" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD20" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF20" s="12">
+      <c r="AC20" s="19">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="19">
         <v>4.3</v>
       </c>
       <c r="AG20" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI20" s="12" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="AH20" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI20" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="AK20" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AL20" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="AM20" s="12" t="s">
+      <c r="AM20" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AO20" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="AQ20" s="12" t="s">
+      <c r="AO20" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="AP20" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="AQ20" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AR20" s="12" t="s">
+      <c r="AR20" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="AV20" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW20" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX20" s="21" t="s">
-        <v>501</v>
+      <c r="AS20" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="AV20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX20" s="23" t="s">
+        <v>642</v>
       </c>
     </row>
-    <row r="21" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" s="12" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E21" s="12">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O21" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X21" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="AA21" s="12">
         <v>2</v>
@@ -7778,7 +7783,13 @@
         <v>2</v>
       </c>
       <c r="AC21" s="12">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AD21" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="AF21" s="12">
         <v>4.3</v>
@@ -7792,17 +7803,20 @@
       <c r="AI21" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AK21" s="19" t="s">
-        <v>148</v>
+      <c r="AJ21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK21" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="AL21" s="12" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="AM21" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO21" s="12" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AQ21" s="12" t="s">
         <v>164</v>
@@ -7810,92 +7824,95 @@
       <c r="AR21" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS21" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT21" s="16"/>
       <c r="AU21" s="12" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AV21" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW21" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX21" s="21" t="s">
-        <v>502</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="22" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E22" s="12">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T22" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X22" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>511</v>
+        <v>612</v>
       </c>
       <c r="AA22" s="12">
         <v>2</v>
@@ -7904,37 +7921,37 @@
         <v>2</v>
       </c>
       <c r="AC22" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD22" s="13" t="s">
-        <v>518</v>
+        <v>2</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="AF22" s="12">
         <v>4.3</v>
       </c>
       <c r="AG22" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH22" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI22" s="12" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="AK22" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL22" s="12" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="AM22" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="AP22" s="12" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="AQ22" s="12" t="s">
         <v>164</v>
@@ -7942,59 +7959,62 @@
       <c r="AR22" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS22" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT22" s="16"/>
       <c r="AU22" s="12" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="AW22" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AX22" s="21" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E23" s="12">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>253</v>
@@ -8003,31 +8023,31 @@
         <v>254</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="AA23" s="12">
         <v>2</v>
@@ -8038,29 +8058,32 @@
       <c r="AC23" s="12">
         <v>3</v>
       </c>
+      <c r="AD23" s="12" t="s">
+        <v>499</v>
+      </c>
       <c r="AF23" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG23" s="12" t="s">
-        <v>111</v>
+      <c r="AG23" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="AH23" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK23" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AK23" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AL23" s="12" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="AM23" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="AQ23" s="12" t="s">
         <v>164</v>
@@ -8068,62 +8091,59 @@
       <c r="AR23" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AS23" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="AT23" s="16"/>
       <c r="AU23" s="12" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AV23" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW23" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX23" s="20" t="s">
-        <v>523</v>
+        <v>207</v>
+      </c>
+      <c r="AX23" s="21" t="s">
+        <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="12" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E24" s="12">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>248</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>253</v>
@@ -8132,31 +8152,31 @@
         <v>254</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="AA24" s="12">
         <v>2</v>
@@ -8170,26 +8190,26 @@
       <c r="AF24" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG24" s="12" t="s">
-        <v>111</v>
+      <c r="AG24" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="AH24" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI24" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK24" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AK24" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AL24" s="12" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="AM24" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO24" s="12" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="AQ24" s="12" t="s">
         <v>164</v>
@@ -8197,62 +8217,59 @@
       <c r="AR24" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AS24" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="AT24" s="16"/>
       <c r="AU24" s="12" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="AV24" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW24" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX24" s="20" t="s">
-        <v>523</v>
+      <c r="AX24" s="21" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E25" s="12">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="N25" s="12" t="s">
         <v>253</v>
@@ -8267,25 +8284,25 @@
         <v>21</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>622</v>
+        <v>507</v>
       </c>
       <c r="AA25" s="12">
         <v>2</v>
@@ -8296,10 +8313,13 @@
       <c r="AC25" s="12">
         <v>3</v>
       </c>
+      <c r="AD25" s="13" t="s">
+        <v>514</v>
+      </c>
       <c r="AF25" s="12">
         <v>4.3</v>
       </c>
-      <c r="AG25" s="12" t="s">
+      <c r="AG25" s="19" t="s">
         <v>111</v>
       </c>
       <c r="AH25" s="12" t="s">
@@ -8312,75 +8332,76 @@
         <v>148</v>
       </c>
       <c r="AL25" s="12" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="AM25" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO25" s="12" t="s">
-        <v>520</v>
+        <v>508</v>
+      </c>
+      <c r="AP25" s="12" t="s">
+        <v>509</v>
       </c>
       <c r="AQ25" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR25" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT25" s="16" t="s">
-        <v>521</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT25" s="16"/>
       <c r="AU25" s="12" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="AV25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="AW25" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX25" s="20" t="s">
-        <v>523</v>
+        <v>209</v>
+      </c>
+      <c r="AX25" s="21" t="s">
+        <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E26" s="12">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>389</v>
+        <v>248</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>253</v>
@@ -8389,34 +8410,31 @@
         <v>254</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y26" s="12" t="s">
-        <v>504</v>
+        <v>69</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>507</v>
+        <v>614</v>
       </c>
       <c r="AA26" s="12">
         <v>2</v>
@@ -8427,32 +8445,29 @@
       <c r="AC26" s="12">
         <v>3</v>
       </c>
-      <c r="AE26" s="12" t="s">
-        <v>506</v>
-      </c>
       <c r="AF26" s="12">
         <v>4.3</v>
       </c>
       <c r="AG26" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH26" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AI26" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="AK26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AL26" s="12" t="s">
-        <v>607</v>
+        <v>518</v>
       </c>
       <c r="AM26" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO26" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AP26" s="12" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="AQ26" s="12" t="s">
         <v>164</v>
@@ -8461,61 +8476,61 @@
         <v>239</v>
       </c>
       <c r="AS26" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AT26" s="16"/>
       <c r="AU26" s="12" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="AV26" s="12" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX26" s="21" t="s">
-        <v>510</v>
+      <c r="AX26" s="20" t="s">
+        <v>519</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" s="12" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E27" s="12">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>412</v>
+        <v>246</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>253</v>
@@ -8524,31 +8539,31 @@
         <v>254</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="AA27" s="12">
         <v>2</v>
@@ -8559,95 +8574,92 @@
       <c r="AC27" s="12">
         <v>3</v>
       </c>
-      <c r="AF27" s="12" t="s">
-        <v>477</v>
+      <c r="AF27" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG27" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH27" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI27" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ27" s="12" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AK27" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL27" s="12" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="AM27" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN27" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO27" s="12" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="AQ27" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR27" s="12" t="s">
-        <v>170</v>
+        <v>239</v>
+      </c>
+      <c r="AS27" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="AT27" s="16"/>
       <c r="AU27" s="12" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AV27" s="12" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW27" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX27" s="21" t="s">
-        <v>526</v>
+      <c r="AX27" s="20" t="s">
+        <v>519</v>
       </c>
     </row>
-    <row r="28" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E28" s="12">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>412</v>
+        <v>246</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="N28" s="12" t="s">
         <v>253</v>
@@ -8656,31 +8668,31 @@
         <v>254</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="Q28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="AA28" s="12">
         <v>2</v>
@@ -8691,95 +8703,91 @@
       <c r="AC28" s="12">
         <v>3</v>
       </c>
-      <c r="AF28" s="12" t="s">
-        <v>477</v>
+      <c r="AF28" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG28" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH28" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI28" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ28" s="12" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AK28" s="12" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="AM28" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="AQ28" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR28" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT28" s="16"/>
+        <v>168</v>
+      </c>
+      <c r="AT28" s="16" t="s">
+        <v>517</v>
+      </c>
       <c r="AU28" s="12" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AV28" s="12" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW28" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AX28" s="21" t="s">
-        <v>526</v>
+      <c r="AX28" s="20" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="E29" s="12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>248</v>
+        <v>391</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>253</v>
@@ -8788,7 +8796,7 @@
         <v>254</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="Q29" s="12" t="s">
         <v>21</v>
@@ -8800,19 +8808,22 @@
         <v>46</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>41</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X29" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="AA29" s="12">
         <v>2</v>
@@ -8821,7 +8832,10 @@
         <v>2</v>
       </c>
       <c r="AC29" s="12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE29" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="AF29" s="12">
         <v>4.3</v>
@@ -8836,13 +8850,16 @@
         <v>148</v>
       </c>
       <c r="AL29" s="12" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="AM29" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO29" s="12" t="s">
-        <v>532</v>
+        <v>501</v>
+      </c>
+      <c r="AP29" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="AQ29" s="12" t="s">
         <v>164</v>
@@ -8855,57 +8872,57 @@
       </c>
       <c r="AT29" s="16"/>
       <c r="AU29" s="12" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="AV29" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW29" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AX29" s="21" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E30" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>253</v>
@@ -8914,31 +8931,31 @@
         <v>254</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X30" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>527</v>
+        <v>615</v>
       </c>
       <c r="AA30" s="12">
         <v>2</v>
@@ -8947,10 +8964,10 @@
         <v>2</v>
       </c>
       <c r="AC30" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF30" s="12">
-        <v>4.3</v>
+        <v>3</v>
+      </c>
+      <c r="AF30" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG30" s="12" t="s">
         <v>110</v>
@@ -8958,80 +8975,86 @@
       <c r="AH30" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="AI30" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ30" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="AK30" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL30" s="12" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AM30" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN30" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO30" s="12" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="AQ30" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR30" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS30" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AT30" s="16"/>
       <c r="AU30" s="12" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AV30" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW30" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AX30" s="21" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E31" s="12">
         <v>2021</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>426</v>
+        <v>309</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N31" s="12" t="s">
         <v>253</v>
@@ -9046,28 +9069,25 @@
         <v>21</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W31" s="12" t="s">
         <v>55</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y31" s="12" t="s">
-        <v>534</v>
+        <v>216</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="AA31" s="12">
         <v>2</v>
@@ -9078,71 +9098,77 @@
       <c r="AC31" s="12">
         <v>3</v>
       </c>
-      <c r="AE31" s="12" t="s">
-        <v>535</v>
-      </c>
       <c r="AF31" s="12" t="s">
         <v>477</v>
       </c>
       <c r="AG31" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH31" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="AI31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ31" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="AK31" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL31" s="12" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="AM31" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="AN31" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="AO31" s="12" t="s">
-        <v>642</v>
+        <v>574</v>
       </c>
       <c r="AQ31" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR31" s="12" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="AT31" s="16"/>
       <c r="AU31" s="12" t="s">
-        <v>580</v>
+        <v>521</v>
       </c>
       <c r="AV31" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW31" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AX31" s="21" t="s">
-        <v>640</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E32" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>248</v>
@@ -9154,13 +9180,13 @@
         <v>248</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>253</v>
@@ -9169,34 +9195,31 @@
         <v>254</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T32" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y32" s="12" t="s">
-        <v>534</v>
+        <v>216</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>624</v>
+        <v>523</v>
       </c>
       <c r="AA32" s="12">
         <v>2</v>
@@ -9205,31 +9228,28 @@
         <v>2</v>
       </c>
       <c r="AC32" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE32" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF32" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG32" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH32" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK32" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL32" s="12" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="AM32" s="12" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO32" s="12" t="s">
-        <v>642</v>
+        <v>528</v>
       </c>
       <c r="AQ32" s="12" t="s">
         <v>164</v>
@@ -9237,41 +9257,44 @@
       <c r="AR32" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS32" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT32" s="16"/>
       <c r="AU32" s="12" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="AV32" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW32" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX32" s="21" t="s">
-        <v>641</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E33" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>335</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>248</v>
@@ -9283,13 +9306,13 @@
         <v>248</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N33" s="12" t="s">
         <v>253</v>
@@ -9298,34 +9321,31 @@
         <v>254</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="T33" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y33" s="12" t="s">
-        <v>534</v>
+        <v>216</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>624</v>
+        <v>523</v>
       </c>
       <c r="AA33" s="12">
         <v>2</v>
@@ -9334,31 +9354,28 @@
         <v>2</v>
       </c>
       <c r="AC33" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE33" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF33" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF33" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG33" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH33" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK33" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL33" s="12" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="AM33" s="12" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO33" s="12" t="s">
-        <v>642</v>
+        <v>528</v>
       </c>
       <c r="AQ33" s="12" t="s">
         <v>164</v>
@@ -9366,21 +9383,24 @@
       <c r="AR33" s="12" t="s">
         <v>239</v>
       </c>
+      <c r="AS33" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="AT33" s="16"/>
       <c r="AU33" s="12" t="s">
-        <v>580</v>
+        <v>526</v>
       </c>
       <c r="AV33" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW33" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX33" s="21" t="s">
-        <v>641</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>423</v>
       </c>
@@ -9433,7 +9453,7 @@
         <v>21</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>46</v>
@@ -9451,10 +9471,10 @@
         <v>113</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AA34" s="12">
         <v>2</v>
@@ -9466,7 +9486,7 @@
         <v>3</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AF34" s="12" t="s">
         <v>477</v>
@@ -9481,13 +9501,13 @@
         <v>150</v>
       </c>
       <c r="AL34" s="12" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AM34" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO34" s="12" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="AQ34" s="12" t="s">
         <v>164</v>
@@ -9497,7 +9517,7 @@
       </c>
       <c r="AT34" s="16"/>
       <c r="AU34" s="12" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AV34" s="12" t="s">
         <v>199</v>
@@ -9506,30 +9526,30 @@
         <v>208</v>
       </c>
       <c r="AX34" s="21" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E35" s="12">
         <v>2021</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>248</v>
@@ -9541,13 +9561,13 @@
         <v>248</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N35" s="12" t="s">
         <v>253</v>
@@ -9556,31 +9576,34 @@
         <v>254</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="V35" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W35" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AA35" s="12">
         <v>2</v>
@@ -9591,32 +9614,29 @@
       <c r="AC35" s="12">
         <v>3</v>
       </c>
-      <c r="AE35" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="AF35" s="12">
-        <v>4.3</v>
+      <c r="AE35" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF35" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG35" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI35" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AK35" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL35" s="12" t="s">
-        <v>533</v>
+        <v>637</v>
       </c>
       <c r="AM35" s="12" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO35" s="12" t="s">
-        <v>537</v>
+        <v>634</v>
       </c>
       <c r="AQ35" s="12" t="s">
         <v>164</v>
@@ -9626,90 +9646,93 @@
       </c>
       <c r="AT35" s="16"/>
       <c r="AU35" s="12" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AV35" s="12" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW35" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX35" s="21" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="36" spans="1:50" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E36" s="12">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>254</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W36" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="V36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="W36" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="X36" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="AA36" s="12">
         <v>2</v>
@@ -9720,32 +9743,29 @@
       <c r="AC36" s="12">
         <v>3</v>
       </c>
-      <c r="AE36" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF36" s="12">
-        <v>4.3</v>
+      <c r="AE36" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF36" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG36" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH36" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI36" s="12" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AK36" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL36" s="12" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="AM36" s="12" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO36" s="12" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="AQ36" s="12" t="s">
         <v>164</v>
@@ -9755,57 +9775,57 @@
       </c>
       <c r="AT36" s="16"/>
       <c r="AU36" s="12" t="s">
-        <v>542</v>
+        <v>572</v>
       </c>
       <c r="AV36" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW36" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX36" s="20" t="s">
-        <v>541</v>
+        <v>207</v>
+      </c>
+      <c r="AX36" s="21" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" s="12" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="E37" s="12">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>454</v>
+        <v>335</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>456</v>
+        <v>248</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>457</v>
+        <v>248</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>458</v>
+        <v>248</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="N37" s="12" t="s">
         <v>253</v>
@@ -9814,34 +9834,34 @@
         <v>254</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="Q37" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="V37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W37" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="X37" s="12" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="Y37" s="12" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="AA37" s="12">
         <v>2</v>
@@ -9850,99 +9870,91 @@
         <v>2</v>
       </c>
       <c r="AC37" s="12">
-        <v>2</v>
-      </c>
-      <c r="AE37" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="AF37" s="12">
-        <v>4.5</v>
+        <v>3</v>
+      </c>
+      <c r="AE37" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF37" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="AG37" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH37" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI37" s="12" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="AK37" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL37" s="12" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="AM37" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN37" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO37" s="12" t="s">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="AQ37" s="12" t="s">
         <v>164</v>
       </c>
       <c r="AR37" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT37" s="16" t="s">
-        <v>546</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT37" s="16"/>
       <c r="AU37" s="12" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="AV37" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AW37" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX37" s="20" t="s">
-        <v>549</v>
+        <v>208</v>
+      </c>
+      <c r="AX37" s="21" t="s">
+        <v>635</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="E38" s="12">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>465</v>
+        <v>248</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>466</v>
+        <v>248</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>467</v>
+        <v>248</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>253</v>
@@ -9951,34 +9963,31 @@
         <v>254</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="Q38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S38" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="V38" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W38" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="X38" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y38" s="12" t="s">
-        <v>550</v>
-      </c>
       <c r="Z38" s="12" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="AA38" s="12">
         <v>2</v>
@@ -9990,7 +9999,7 @@
         <v>3</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="AF38" s="12">
         <v>4.3</v>
@@ -9999,16 +10008,22 @@
         <v>110</v>
       </c>
       <c r="AH38" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AI38" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="AK38" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+      <c r="AL38" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="AM38" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO38" s="12" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="AQ38" s="12" t="s">
         <v>164</v>
@@ -10018,66 +10033,66 @@
       </c>
       <c r="AT38" s="16"/>
       <c r="AU38" s="12" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="AV38" s="12" t="s">
         <v>113</v>
       </c>
       <c r="AW38" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX38" s="21" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="12" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" s="12" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>583</v>
+        <v>435</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>584</v>
+        <v>436</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>585</v>
+        <v>437</v>
       </c>
       <c r="E39" s="12">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>586</v>
+        <v>327</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>587</v>
+        <v>438</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>588</v>
+        <v>439</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>589</v>
+        <v>440</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>590</v>
+        <v>441</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>592</v>
+        <v>254</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q39" s="12" t="s">
         <v>21</v>
@@ -10086,22 +10101,22 @@
         <v>31</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W39" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X39" s="12" t="s">
         <v>216</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="AA39" s="12">
         <v>2</v>
@@ -10110,7 +10125,10 @@
         <v>2</v>
       </c>
       <c r="AC39" s="12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE39" s="13" t="s">
+        <v>539</v>
       </c>
       <c r="AF39" s="12">
         <v>4.3</v>
@@ -10119,19 +10137,22 @@
         <v>110</v>
       </c>
       <c r="AH39" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AI39" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="AK39" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="AL39" s="12" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="AM39" s="12" t="s">
         <v>233</v>
       </c>
       <c r="AO39" s="12" t="s">
-        <v>657</v>
+        <v>536</v>
       </c>
       <c r="AQ39" s="12" t="s">
         <v>164</v>
@@ -10139,61 +10160,59 @@
       <c r="AR39" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT39" s="12" t="s">
-        <v>631</v>
-      </c>
+      <c r="AT39" s="16"/>
       <c r="AU39" s="12" t="s">
-        <v>632</v>
+        <v>538</v>
       </c>
       <c r="AV39" s="12" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW39" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX39" s="20" t="s">
-        <v>658</v>
+        <v>537</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="12" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>593</v>
+        <v>451</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>594</v>
+        <v>452</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>595</v>
+        <v>453</v>
       </c>
       <c r="E40" s="12">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>246</v>
+        <v>454</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>597</v>
+        <v>457</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>598</v>
+        <v>458</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>599</v>
+        <v>459</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="N40" s="12" t="s">
         <v>253</v>
@@ -10202,31 +10221,34 @@
         <v>254</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q40" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T40" s="12" t="s">
         <v>46</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="W40" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X40" s="12" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>634</v>
+        <v>540</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AA40" s="12">
         <v>2</v>
@@ -10235,25 +10257,28 @@
         <v>2</v>
       </c>
       <c r="AC40" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF40" s="12" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AE40" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="AF40" s="12">
+        <v>4.5</v>
       </c>
       <c r="AG40" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH40" s="12" t="s">
         <v>117</v>
       </c>
       <c r="AI40" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AK40" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL40" s="12" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="AM40" s="12" t="s">
         <v>232</v>
@@ -10262,13 +10287,19 @@
         <v>160</v>
       </c>
       <c r="AO40" s="12" t="s">
-        <v>636</v>
+        <v>543</v>
       </c>
       <c r="AQ40" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR40" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT40" s="16" t="s">
+        <v>542</v>
+      </c>
       <c r="AU40" s="12" t="s">
-        <v>638</v>
+        <v>541</v>
       </c>
       <c r="AV40" s="12" t="s">
         <v>199</v>
@@ -10277,48 +10308,48 @@
         <v>207</v>
       </c>
       <c r="AX40" s="20" t="s">
-        <v>637</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" s="12" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>593</v>
+        <v>461</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>594</v>
+        <v>462</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>595</v>
+        <v>463</v>
       </c>
       <c r="E41" s="12">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>246</v>
+        <v>464</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>596</v>
+        <v>310</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>597</v>
+        <v>466</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>598</v>
+        <v>467</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>599</v>
+        <v>468</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>600</v>
+        <v>469</v>
       </c>
       <c r="N41" s="12" t="s">
         <v>253</v>
@@ -10327,31 +10358,34 @@
         <v>254</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="W41" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>634</v>
+        <v>546</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="AA41" s="12">
         <v>2</v>
@@ -10362,124 +10396,119 @@
       <c r="AC41" s="12">
         <v>3</v>
       </c>
-      <c r="AF41" s="12" t="s">
-        <v>477</v>
+      <c r="AE41" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>4.3</v>
       </c>
       <c r="AG41" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH41" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI41" s="12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="AK41" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL41" s="12" t="s">
-        <v>633</v>
+        <v>148</v>
       </c>
       <c r="AM41" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN41" s="12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO41" s="12" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="AQ41" s="12" t="s">
         <v>164</v>
       </c>
+      <c r="AR41" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT41" s="16"/>
       <c r="AU41" s="12" t="s">
-        <v>638</v>
+        <v>547</v>
       </c>
       <c r="AV41" s="12" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW41" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX41" s="20" t="s">
-        <v>639</v>
+        <v>208</v>
+      </c>
+      <c r="AX41" s="21" t="s">
+        <v>548</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" s="12" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>470</v>
+        <v>575</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>471</v>
+        <v>576</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>472</v>
+        <v>577</v>
       </c>
       <c r="E42" s="12">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>473</v>
+        <v>326</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>280</v>
+        <v>578</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>248</v>
+        <v>579</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>248</v>
+        <v>580</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>248</v>
+        <v>581</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>474</v>
+        <v>582</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>248</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>475</v>
+        <v>583</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>254</v>
+        <v>584</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="12" t="s">
         <v>21</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V42" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X42" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y42" s="12" t="s">
-        <v>555</v>
+        <v>216</v>
       </c>
       <c r="Z42" s="12" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="AA42" s="12">
         <v>2</v>
@@ -10488,7 +10517,7 @@
         <v>2</v>
       </c>
       <c r="AC42" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF42" s="12">
         <v>4.3</v>
@@ -10497,19 +10526,19 @@
         <v>110</v>
       </c>
       <c r="AH42" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK42" s="12" t="s">
-        <v>148</v>
+        <v>123</v>
+      </c>
+      <c r="AI42" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="AL42" s="12" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="AM42" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AO42" s="12" t="s">
-        <v>556</v>
+        <v>647</v>
       </c>
       <c r="AQ42" s="12" t="s">
         <v>164</v>
@@ -10517,236 +10546,446 @@
       <c r="AR42" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AT42" s="16"/>
+      <c r="AT42" s="12" t="s">
+        <v>623</v>
+      </c>
       <c r="AU42" s="12" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="AV42" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW42" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX42" s="20" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" s="12" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E43" s="12">
+        <v>2010</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W43" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X43" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AW42" s="12" t="s">
+      <c r="Y43" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z43" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI43" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK43" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL43" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AM43" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN43" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO43" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AQ43" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU43" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV43" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW43" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX43" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2010</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z44" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH44" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI44" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK44" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL44" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AM44" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN44" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO44" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AQ44" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU44" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW44" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX44" s="20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y45" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z45" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF45" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="AG45" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH45" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK45" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL45" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM45" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO45" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="AQ45" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR45" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT45" s="16"/>
+      <c r="AU45" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="AV45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW45" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="AX42" s="21" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="11">
-        <v>2015</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E44" s="15">
-        <v>2020</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P44" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q44" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E45" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>84</v>
+      <c r="AX45" s="21" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E46" s="11">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="G46" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>248</v>
-      </c>
       <c r="J46" s="11" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>253</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="P46" s="11" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>21</v>
@@ -10755,102 +10994,101 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B47" s="11" t="s">
+    <row r="47" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="C47" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E47" s="15">
         <v>2020</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="H47" s="11" t="s">
+      <c r="F47" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="L47" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="N47" s="11" t="s">
+      <c r="M47" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="N47" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="P47" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q47" s="11" t="s">
+      <c r="P47" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q47" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AG47" s="14"/>
     </row>
     <row r="48" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="E48" s="11">
         <v>2019</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="H48" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>447</v>
-      </c>
       <c r="J48" s="11" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>253</v>
@@ -10859,12 +11097,181 @@
         <v>254</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2018</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2020</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG50" s="14"/>
+    </row>
+    <row r="51" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E51" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -10879,7 +11286,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P6:Q9 P15:P1048576 Q3:Q14" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P6:Q9 P14:P1048576 Q3:Q13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -12986,6 +13393,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -13099,25 +13515,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C7FA93-5CE6-4EAF-BCC9-E36208EBEE56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13131,12 +13552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C592DF-17E9-4E4A-8822-2E8562EFFFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEB3FB4-977F-41D6-B231-1A0E6C261A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5074,9 +5074,9 @@
   <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AL59" sqref="AL59"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7410,7 +7410,7 @@
       <c r="AM18" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="AP18" s="12" t="s">
+      <c r="AO18" s="12" t="s">
         <v>664</v>
       </c>
       <c r="AQ18" s="12" t="s">
@@ -13393,15 +13393,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -13515,30 +13506,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C7FA93-5CE6-4EAF-BCC9-E36208EBEE56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13552,4 +13544,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A961BD6-FA20-44D9-A43F-6E810E37C480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DD7AE-9312-4A81-B8A8-60F4AE18D70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5061,10 +5061,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AU58" sqref="AU58"/>
+      <selection pane="bottomLeft" activeCell="AK45" sqref="AK45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10384,9 +10384,9 @@
         <v>110</v>
       </c>
       <c r="AH41" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI41" t="s">
         <v>148</v>
       </c>
       <c r="AM41" t="s">
@@ -10882,9 +10882,9 @@
         <v>110</v>
       </c>
       <c r="AH45" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK45" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI45" t="s">
         <v>148</v>
       </c>
       <c r="AL45" t="s">
@@ -13370,15 +13370,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -13492,30 +13483,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C7FA93-5CE6-4EAF-BCC9-E36208EBEE56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13529,4 +13521,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_MacMillan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DD7AE-9312-4A81-B8A8-60F4AE18D70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF211DB1-BC56-4063-A759-3CDB94E0D1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$55</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="677">
   <si>
     <t>SearchID</t>
   </si>
@@ -4140,32 +4140,7 @@
     <t>Number of selected species caught per creel</t>
   </si>
   <si>
-    <t>The maximum number of individuals per
-creel was higher in creels without an escape gap than
-in those with an escape gap (Table 1, Kruskal-Wallis
-H = 8.87, p = 0.003). The average number of L. depurator
-per creel differed in the same way (Table 1, H =
-14.29, p &lt; 0.001). During the period when no bait
-remained in the creels (Days 64 to 363) and the overall
-numbers of L. depurator had declined (Fig. 1), the difference
-between creel types was less marked, for both
-the maximum number of individuals (Table 1, H = 2.34,
-p = 0.126) and the average number of individuals per
-creel (Table 2, H = 4.51, p = 0.034).</t>
-  </si>
-  <si>
     <t>gear selectivity (without escape gap)</t>
-  </si>
-  <si>
-    <t>There were no significant differences between
-creels with escape gaps and those without in the maximum
-number of individuals per creel for any species
-(p &gt; 0.05). As in the Loch Sween trial, the number of
-Liocarcinus depurator per creel (averaged over the
-study period for each creel) was higher in creels without
-escape gaps (mean ± SD, 0.36 ± 0.281 creel–1, n =
-11) than in those with escape gaps (0.16 ± 0.187 creel–1,
-n = 16; H = 5.01, p = 0.025).</t>
   </si>
   <si>
     <t>direct impact of mechanised clam dedging</t>
@@ -4249,9 +4224,6 @@
     <t>bird count _ bird habitat disturbance</t>
   </si>
   <si>
-    <t>catch _ mortality</t>
-  </si>
-  <si>
     <t>Fishing mortality and exploitation rate</t>
   </si>
   <si>
@@ -4307,9 +4279,6 @@
   </si>
   <si>
     <t>In the North and Baltic seas Atlantic cod Gadus morhua stocks collapsed as part or one of the major factors inducing large-scale ecosystem regime shifts. Determining the relative contribution of overfishing and climate variability in causing these shifts has proven difficult. While facing similar climatic conditions, the Sound (i.e. a narrow strait located between the North and Baltic seas) differs from its neighbouring areas in the magnitude of fishing pressure as it is subjected to a local trawl fishing ban since 1932. By means of 3 independent multivariate analyses, we investigated the state and development of the Sound ecosystem, specifically testing for the occurrence of regime shifts and their potential drivers. By comparing the ecosystem development of the Sound with the neighbouring North and Baltic seas, we were able to demonstrate the positive effect of the trawl fishing ban on the resilience of the local cod stock to environmental change. The recovery and healthy condition of the Sound cod stock illustrate the need for adaptive marine management strategies that maximize ecosystem resilience. © Inter-Research 2010, www.int-res.com.</t>
-  </si>
-  <si>
-    <t>Nephrops novegicus _ Carcinus maenas _ Liocarcinus depurator _ Cancer pagurus _ Asterias rubens</t>
   </si>
   <si>
     <t>Donax trunculus _ Chamelea gallina _ Mactra stultorum _ Liocarcinus vernalis _ Echinocardium mediterraneum</t>
@@ -4588,6 +4557,43 @@
 (Table 5). In reef habitat 20% was at low enough intensity to allow for recovery. For
 147 km2 of reef, no estimate could be made of whether
 recovery was possible.</t>
+  </si>
+  <si>
+    <t>Liocarcinus depurator</t>
+  </si>
+  <si>
+    <t>The maximum number of individuals per creel was higher in creels without an escape gap than in those with an escape gap for one loch, whereas no difference was found for the other loch</t>
+  </si>
+  <si>
+    <t>As in the Loch Sween trial, the number of
+Liocarcinus depurator per creel (averaged over the
+study period for each creel) was higher in creels without escape gaps (mean ± SD, 0.36 ± 0.281 creel–1, n =
+11) than in those with escape gaps (0.16 ± 0.187 creel–1,
+n = 16; H = 5.01, p = 0.025).</t>
+  </si>
+  <si>
+    <t>Gadus morhua _ Trisopterus minutus _ Pleuronectes platessa _ Myoxocephalus scorpius</t>
+  </si>
+  <si>
+    <t>No significant difference in number of fish in creels with or without escape gap</t>
+  </si>
+  <si>
+    <t>Scyliorhinus canicula</t>
+  </si>
+  <si>
+    <t>Nephrops norvegicus _ Carcinus maenas _ Cancer pagurus _ Asterias rubens</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>Results from both trials suggest that mortality of Nephrops norvegicus trapped in lost creels is low, with only 2 observed mortalities in the Loch Sween experiment and none in the Loch Torridon study. However, it should be noted that, in the Loch Sween study, the estimated percentage of creel entries resulting in death has wide confidence limits. Nevertheless, it appears that N. norvegicus can survive for long periods within creels and the majority are eventually able to escape.</t>
+  </si>
+  <si>
+    <t>All species were evidently able to escape from the creels following capture, although there was an apparent difference in a species’ ability to escape, reflected in the time periods spent within the creel.</t>
+  </si>
+  <si>
+    <t>abandoned creel</t>
   </si>
 </sst>
 </file>
@@ -5059,12 +5065,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX51"/>
+  <dimension ref="A1:AX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AF1" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="AK45" sqref="AK45"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5378,7 +5384,7 @@
         <v>476</v>
       </c>
       <c r="Z3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5408,13 +5414,13 @@
         <v>134</v>
       </c>
       <c r="AL3" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="AM3" t="s">
         <v>231</v>
       </c>
       <c r="AO3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5422,7 +5428,9 @@
       <c r="AR3" t="s">
         <v>171</v>
       </c>
-      <c r="AT3" s="13"/>
+      <c r="AT3" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="AU3" t="s">
         <v>553</v>
       </c>
@@ -5430,10 +5438,10 @@
         <v>199</v>
       </c>
       <c r="AW3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX3" s="16" t="s">
-        <v>554</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5510,7 +5518,7 @@
         <v>476</v>
       </c>
       <c r="Z4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5540,16 +5548,13 @@
         <v>134</v>
       </c>
       <c r="AL4" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AM4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="AO4" t="s">
-        <v>572</v>
+        <v>673</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5557,9 +5562,11 @@
       <c r="AR4" t="s">
         <v>171</v>
       </c>
-      <c r="AT4" s="13"/>
+      <c r="AT4" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="AU4" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5567,11 +5574,11 @@
       <c r="AW4" t="s">
         <v>210</v>
       </c>
-      <c r="AX4" s="16" t="s">
-        <v>556</v>
+      <c r="AX4" t="s">
+        <v>674</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>476</v>
       </c>
       <c r="Z5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5675,16 +5682,13 @@
         <v>134</v>
       </c>
       <c r="AL5" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="AM5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="AO5" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5692,57 +5696,61 @@
       <c r="AR5" t="s">
         <v>171</v>
       </c>
-      <c r="AT5" s="13"/>
+      <c r="AT5" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="AU5" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
       </c>
       <c r="AW5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX5" s="17"/>
+        <v>207</v>
+      </c>
+      <c r="AX5" s="16" t="s">
+        <v>668</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
         <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E6">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
         <v>248</v>
       </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L6" t="s">
         <v>248</v>
       </c>
       <c r="M6" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N6" t="s">
         <v>253</v>
@@ -5751,127 +5759,126 @@
         <v>254</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
         <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X6" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>476</v>
       </c>
       <c r="Z6" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AA6">
         <v>2</v>
       </c>
-      <c r="AD6" s="4" t="s">
-        <v>564</v>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
       </c>
       <c r="AF6">
-        <v>4.3</v>
-      </c>
-      <c r="AG6" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="AG6" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AH6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AL6" t="s">
-        <v>478</v>
+        <v>669</v>
       </c>
       <c r="AM6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO6" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>509</v>
+        <v>554</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
       </c>
       <c r="AR6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT6" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="AU6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AV6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AW6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>563</v>
+        <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
         <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E7">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H7" t="s">
         <v>248</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L7" t="s">
         <v>248</v>
       </c>
       <c r="M7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N7" t="s">
         <v>253</v>
@@ -5880,39 +5887,48 @@
         <v>254</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q7" t="s">
         <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
         <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X7" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>476</v>
       </c>
       <c r="Z7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AA7">
         <v>2</v>
       </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
       <c r="AF7">
-        <v>4.3</v>
-      </c>
-      <c r="AG7" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="AG7" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AH7" t="s">
@@ -5925,79 +5941,78 @@
         <v>113</v>
       </c>
       <c r="AK7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL7" t="s">
-        <v>478</v>
-      </c>
-      <c r="AM7" s="15" t="s">
-        <v>233</v>
+        <v>672</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>231</v>
       </c>
       <c r="AO7" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>562</v>
+        <v>676</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
       </c>
       <c r="AR7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT7" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="AT7" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="AU7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AV7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX7" s="17" t="s">
-        <v>563</v>
+        <v>210</v>
+      </c>
+      <c r="AX7" s="16" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E8">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
         <v>248</v>
       </c>
       <c r="I8" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J8" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K8" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L8" t="s">
         <v>248</v>
       </c>
       <c r="M8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N8" t="s">
         <v>253</v>
@@ -6006,125 +6021,126 @@
         <v>254</v>
       </c>
       <c r="P8" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s">
         <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X8" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>476</v>
       </c>
       <c r="Z8" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
       <c r="AF8">
-        <v>4.3</v>
-      </c>
-      <c r="AG8" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="AG8" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AL8" t="s">
-        <v>478</v>
-      </c>
-      <c r="AM8" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN8" s="15"/>
+        <v>669</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>231</v>
+      </c>
       <c r="AO8" t="s">
-        <v>643</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>509</v>
+        <v>676</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
       </c>
       <c r="AR8" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT8" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="AT8" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="AU8" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AV8" t="s">
         <v>199</v>
       </c>
       <c r="AW8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX8" s="17" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
         <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E9">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
         <v>248</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="J9" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="K9" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L9" t="s">
         <v>248</v>
       </c>
       <c r="M9" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="N9" t="s">
         <v>253</v>
@@ -6133,125 +6149,126 @@
         <v>254</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q9" t="s">
         <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s">
         <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X9" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>476</v>
       </c>
       <c r="Z9" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="AA9">
         <v>2</v>
       </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
       <c r="AF9">
-        <v>4.3</v>
-      </c>
-      <c r="AG9" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>110</v>
       </c>
       <c r="AH9" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AI9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AL9" t="s">
-        <v>478</v>
-      </c>
-      <c r="AM9" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN9" s="15"/>
+        <v>671</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>231</v>
+      </c>
       <c r="AO9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>509</v>
+        <v>676</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
       </c>
       <c r="AR9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT9" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="AT9" s="13" t="s">
+        <v>595</v>
+      </c>
       <c r="AU9" t="s">
-        <v>638</v>
+        <v>567</v>
       </c>
       <c r="AV9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX9" s="17" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E10">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
         <v>248</v>
       </c>
       <c r="I10" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="J10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L10" t="s">
         <v>248</v>
       </c>
       <c r="M10" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N10" t="s">
         <v>253</v>
@@ -6272,34 +6289,31 @@
         <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="X10" t="s">
         <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AA10">
         <v>2</v>
       </c>
-      <c r="AB10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
-        <v>3</v>
+      <c r="AD10" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="AF10">
         <v>4.3</v>
       </c>
-      <c r="AG10" s="15" t="s">
-        <v>109</v>
+      <c r="AG10" t="s">
+        <v>110</v>
       </c>
       <c r="AH10" t="s">
         <v>120</v>
@@ -6311,85 +6325,79 @@
         <v>113</v>
       </c>
       <c r="AK10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO10" t="s">
-        <v>666</v>
+        <v>558</v>
       </c>
       <c r="AP10" t="s">
-        <v>665</v>
+        <v>509</v>
       </c>
       <c r="AQ10" t="s">
         <v>164</v>
       </c>
       <c r="AR10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="AT10" s="13"/>
       <c r="AU10" t="s">
-        <v>668</v>
+        <v>557</v>
       </c>
       <c r="AV10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AW10" t="s">
         <v>208</v>
       </c>
-      <c r="AX10" s="17" t="s">
-        <v>667</v>
+      <c r="AX10" s="16" t="s">
+        <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E11">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I11" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="J11" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="K11" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L11" t="s">
         <v>248</v>
       </c>
       <c r="M11" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="N11" t="s">
         <v>253</v>
@@ -6398,7 +6406,7 @@
         <v>254</v>
       </c>
       <c r="P11" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="Q11" t="s">
         <v>21</v>
@@ -6407,36 +6415,30 @@
         <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
         <v>41</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>215</v>
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
+        <v>69</v>
       </c>
       <c r="Z11" t="s">
-        <v>480</v>
+        <v>601</v>
       </c>
       <c r="AA11">
         <v>2</v>
       </c>
-      <c r="AB11">
-        <v>2</v>
-      </c>
-      <c r="AC11">
-        <v>3</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG11" s="15" t="s">
+      <c r="AF11">
+        <v>4.3</v>
+      </c>
+      <c r="AG11" t="s">
         <v>110</v>
       </c>
       <c r="AH11" t="s">
@@ -6449,84 +6451,79 @@
         <v>113</v>
       </c>
       <c r="AK11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO11" s="15" t="s">
-        <v>557</v>
+        <v>478</v>
+      </c>
+      <c r="AM11" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>560</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
       </c>
       <c r="AR11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT11" s="13" t="s">
-        <v>644</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT11" s="13"/>
       <c r="AU11" t="s">
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="AV11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW11" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX11" s="16" t="s">
-        <v>649</v>
+        <v>206</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX11" s="17" t="s">
+        <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E12">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="J12" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="K12" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="L12" t="s">
         <v>248</v>
       </c>
       <c r="M12" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="N12" t="s">
         <v>253</v>
@@ -6535,7 +6532,7 @@
         <v>254</v>
       </c>
       <c r="P12" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="Q12" t="s">
         <v>21</v>
@@ -6544,36 +6541,30 @@
         <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
         <v>41</v>
       </c>
       <c r="W12" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>215</v>
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
+        <v>69</v>
       </c>
       <c r="Z12" t="s">
-        <v>480</v>
+        <v>601</v>
       </c>
       <c r="AA12">
         <v>2</v>
       </c>
-      <c r="AB12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
-        <v>3</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG12" s="15" t="s">
+      <c r="AF12">
+        <v>4.3</v>
+      </c>
+      <c r="AG12" t="s">
         <v>110</v>
       </c>
       <c r="AH12" t="s">
@@ -6586,84 +6577,80 @@
         <v>113</v>
       </c>
       <c r="AK12" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s">
-        <v>651</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO12" s="15" t="s">
-        <v>557</v>
+        <v>478</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN12" s="15"/>
+      <c r="AO12" t="s">
+        <v>639</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>509</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
       </c>
       <c r="AR12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>644</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT12" s="13"/>
       <c r="AU12" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="AV12" t="s">
         <v>199</v>
       </c>
-      <c r="AW12" s="15" t="s">
+      <c r="AW12" t="s">
         <v>209</v>
       </c>
-      <c r="AX12" s="16" t="s">
-        <v>650</v>
+      <c r="AX12" s="17" t="s">
+        <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="E13">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F13" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="H13" t="s">
         <v>248</v>
       </c>
       <c r="I13" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="J13" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K13" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L13" t="s">
         <v>248</v>
       </c>
       <c r="M13" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="N13" t="s">
         <v>253</v>
@@ -6672,51 +6659,39 @@
         <v>254</v>
       </c>
       <c r="P13" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="Q13" t="s">
         <v>21</v>
       </c>
       <c r="S13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" t="s">
         <v>41</v>
       </c>
-      <c r="U13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" t="s">
-        <v>42</v>
-      </c>
       <c r="W13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X13" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>483</v>
+        <v>69</v>
       </c>
       <c r="Z13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AA13">
         <v>2</v>
       </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>3</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>486</v>
-      </c>
       <c r="AF13">
         <v>4.3</v>
       </c>
-      <c r="AG13" s="15" t="s">
+      <c r="AG13" t="s">
         <v>110</v>
       </c>
       <c r="AH13" t="s">
@@ -6729,82 +6704,80 @@
         <v>113</v>
       </c>
       <c r="AK13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s">
-        <v>594</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>161</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="AM13" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN13" s="15"/>
       <c r="AO13" t="s">
-        <v>485</v>
+        <v>639</v>
       </c>
       <c r="AP13" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="AQ13" t="s">
         <v>164</v>
       </c>
       <c r="AR13" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AT13" s="13"/>
       <c r="AU13" t="s">
-        <v>482</v>
+        <v>634</v>
       </c>
       <c r="AV13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AX13" s="17" t="s">
-        <v>648</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="E14">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F14" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="J14" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="K14" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="L14" t="s">
         <v>248</v>
       </c>
       <c r="M14" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="N14" t="s">
         <v>253</v>
@@ -6819,7 +6792,7 @@
         <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T14" t="s">
         <v>45</v>
@@ -6828,16 +6801,16 @@
         <v>57</v>
       </c>
       <c r="V14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z14" s="15" t="s">
-        <v>608</v>
+        <v>69</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>602</v>
       </c>
       <c r="AA14">
         <v>2</v>
@@ -6846,44 +6819,53 @@
         <v>2</v>
       </c>
       <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>558</v>
+        <v>3</v>
       </c>
       <c r="AF14">
         <v>4.3</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>113</v>
       </c>
-      <c r="AH14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>144</v>
-      </c>
       <c r="AK14" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>479</v>
       </c>
       <c r="AM14" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>160</v>
       </c>
       <c r="AO14" t="s">
         <v>662</v>
       </c>
       <c r="AP14" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AQ14" t="s">
         <v>164</v>
       </c>
       <c r="AR14" t="s">
-        <v>239</v>
+        <v>168</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>178</v>
       </c>
       <c r="AT14" s="13"/>
       <c r="AU14" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="AV14" t="s">
         <v>199</v>
@@ -6892,48 +6874,48 @@
         <v>208</v>
       </c>
       <c r="AX14" s="17" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E15">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="F15" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="G15" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="J15" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="K15" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="L15" t="s">
         <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="N15" t="s">
         <v>253</v>
@@ -6942,31 +6924,31 @@
         <v>254</v>
       </c>
       <c r="P15" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="Q15" t="s">
         <v>21</v>
       </c>
       <c r="S15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15" s="15" t="s">
-        <v>608</v>
+        <v>49</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>480</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6975,16 +6957,13 @@
         <v>2</v>
       </c>
       <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>558</v>
-      </c>
-      <c r="AF15">
-        <v>4.3</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG15" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="AH15" t="s">
         <v>120</v>
@@ -6992,77 +6971,88 @@
       <c r="AI15" t="s">
         <v>140</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>113</v>
+      </c>
       <c r="AK15" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>589</v>
       </c>
       <c r="AM15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>662</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>659</v>
+        <v>232</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO15" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
       </c>
       <c r="AR15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT15" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT15" s="13" t="s">
+        <v>640</v>
+      </c>
       <c r="AU15" t="s">
-        <v>657</v>
+        <v>481</v>
       </c>
       <c r="AV15" t="s">
         <v>199</v>
       </c>
-      <c r="AW15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX15" s="17" t="s">
-        <v>639</v>
+      <c r="AW15" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX15" s="16" t="s">
+        <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="E16">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="G16" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="H16" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I16" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="J16" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="K16" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="L16" t="s">
         <v>248</v>
       </c>
       <c r="M16" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -7071,31 +7061,31 @@
         <v>254</v>
       </c>
       <c r="P16" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z16" s="15" t="s">
-        <v>608</v>
+        <v>49</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>480</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -7104,16 +7094,13 @@
         <v>2</v>
       </c>
       <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>558</v>
-      </c>
-      <c r="AF16">
-        <v>4.3</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="AH16" t="s">
         <v>120</v>
@@ -7122,79 +7109,87 @@
         <v>140</v>
       </c>
       <c r="AJ16" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AK16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AL16" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="AM16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>662</v>
+        <v>232</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO16" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT16" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT16" s="13" t="s">
+        <v>640</v>
+      </c>
       <c r="AU16" t="s">
-        <v>652</v>
+        <v>481</v>
       </c>
       <c r="AV16" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX16" s="17" t="s">
-        <v>653</v>
+        <v>199</v>
+      </c>
+      <c r="AW16" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX16" s="16" t="s">
+        <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="B17" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E17">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F17" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G17" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H17" t="s">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="J17" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="K17" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="L17" t="s">
         <v>248</v>
       </c>
       <c r="M17" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="N17" t="s">
         <v>253</v>
@@ -7203,31 +7198,34 @@
         <v>254</v>
       </c>
       <c r="P17" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="Q17" t="s">
         <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
         <v>42</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z17" s="15" t="s">
-        <v>608</v>
+        <v>215</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>603</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -7236,16 +7234,16 @@
         <v>2</v>
       </c>
       <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>558</v>
+        <v>3</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>486</v>
       </c>
       <c r="AF17">
         <v>4.3</v>
       </c>
-      <c r="AG17" t="s">
-        <v>113</v>
+      <c r="AG17" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
         <v>120</v>
@@ -7254,38 +7252,44 @@
         <v>140</v>
       </c>
       <c r="AJ17" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AK17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AL17" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="AM17" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>161</v>
       </c>
       <c r="AO17" t="s">
-        <v>662</v>
+        <v>485</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>484</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AT17" s="13"/>
       <c r="AU17" t="s">
-        <v>655</v>
+        <v>482</v>
       </c>
       <c r="AV17" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX17" s="17" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7359,7 +7363,7 @@
         <v>72</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -7371,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AF18">
         <v>4.3</v>
@@ -7380,388 +7384,376 @@
         <v>113</v>
       </c>
       <c r="AH18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s">
         <v>148</v>
       </c>
-      <c r="AL18" t="s">
-        <v>661</v>
-      </c>
       <c r="AM18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>663</v>
+        <v>658</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>655</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
       </c>
       <c r="AR18" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="AT18" s="13"/>
       <c r="AU18" t="s">
+        <v>653</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX18" s="17" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19">
+        <v>2017</v>
+      </c>
+      <c r="F19" t="s">
+        <v>298</v>
+      </c>
+      <c r="G19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" t="s">
+        <v>311</v>
+      </c>
+      <c r="J19" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" t="s">
+        <v>314</v>
+      </c>
+      <c r="N19" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" t="s">
+        <v>254</v>
+      </c>
+      <c r="P19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" t="s">
+        <v>57</v>
+      </c>
+      <c r="V19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>556</v>
+      </c>
+      <c r="AF19">
+        <v>4.3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>658</v>
+      </c>
+      <c r="AP19" t="s">
         <v>655</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AQ19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT19" s="13"/>
+      <c r="AU19" t="s">
+        <v>653</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX19" s="17" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20">
+        <v>2017</v>
+      </c>
+      <c r="F20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" t="s">
+        <v>310</v>
+      </c>
+      <c r="I20" t="s">
+        <v>311</v>
+      </c>
+      <c r="J20" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" t="s">
+        <v>314</v>
+      </c>
+      <c r="N20" t="s">
+        <v>253</v>
+      </c>
+      <c r="O20" t="s">
+        <v>254</v>
+      </c>
+      <c r="P20" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
+      </c>
+      <c r="X20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>556</v>
+      </c>
+      <c r="AF20">
+        <v>4.3</v>
+      </c>
+      <c r="AG20" t="s">
         <v>113</v>
       </c>
-      <c r="AW18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX18" s="17" t="s">
-        <v>660</v>
+      <c r="AH20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>650</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>658</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT20" s="13"/>
+      <c r="AU20" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX20" s="17" t="s">
+        <v>649</v>
       </c>
     </row>
-    <row r="19" spans="1:50" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2021</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y19" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA19" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="15">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF19" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="AG19" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH19" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI19" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ19" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL19" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="AM19" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO19" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="AP19" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="AQ19" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR19" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="AV19" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW19" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX19" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E20" s="15">
-        <v>2018</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="V20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="W20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="15">
-        <v>2</v>
-      </c>
-      <c r="AF20" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="AG20" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH20" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI20" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK20" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM20" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO20" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="AP20" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="AQ20" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR20" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS20" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="AV20" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW20" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX20" s="18" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="E21">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="H21" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="I21" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="J21" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K21" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="L21" t="s">
         <v>248</v>
       </c>
       <c r="M21" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="N21" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O21" t="s">
         <v>254</v>
       </c>
       <c r="P21" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>611</v>
+        <v>72</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>604</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7770,19 +7762,16 @@
         <v>2</v>
       </c>
       <c r="AC21">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="AF21">
         <v>4.3</v>
       </c>
-      <c r="AG21" s="15" t="s">
-        <v>107</v>
+      <c r="AG21" t="s">
+        <v>113</v>
       </c>
       <c r="AH21" t="s">
         <v>120</v>
@@ -7791,19 +7780,19 @@
         <v>140</v>
       </c>
       <c r="AJ21" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="AK21" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL21" t="s">
-        <v>595</v>
+        <v>650</v>
       </c>
       <c r="AM21" t="s">
         <v>233</v>
       </c>
       <c r="AO21" t="s">
-        <v>492</v>
+        <v>658</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7811,95 +7800,92 @@
       <c r="AR21" t="s">
         <v>239</v>
       </c>
-      <c r="AS21" t="s">
-        <v>175</v>
-      </c>
       <c r="AT21" s="13"/>
       <c r="AU21" t="s">
-        <v>510</v>
+        <v>651</v>
       </c>
       <c r="AV21" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX21" s="17" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="E22">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="F22" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="H22" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="I22" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="J22" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K22" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="L22" t="s">
         <v>248</v>
       </c>
       <c r="M22" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="N22" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O22" t="s">
         <v>254</v>
       </c>
       <c r="P22" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="Q22" t="s">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>611</v>
+        <v>72</v>
+      </c>
+      <c r="Z22" s="15" t="s">
+        <v>604</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7908,388 +7894,400 @@
         <v>2</v>
       </c>
       <c r="AC22">
-        <v>2</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="AF22">
         <v>4.3</v>
       </c>
-      <c r="AG22" s="15" t="s">
-        <v>107</v>
+      <c r="AG22" t="s">
+        <v>113</v>
       </c>
       <c r="AH22" t="s">
         <v>120</v>
       </c>
       <c r="AI22" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>154</v>
       </c>
       <c r="AK22" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL22" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
       <c r="AM22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s">
-        <v>492</v>
+        <v>659</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
       </c>
       <c r="AR22" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="AS22" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AT22" s="13"/>
       <c r="AU22" t="s">
-        <v>510</v>
+        <v>651</v>
       </c>
       <c r="AV22" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="AW22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AX22" s="17" t="s">
-        <v>495</v>
+        <v>656</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:50" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C23" t="s">
-        <v>360</v>
-      </c>
-      <c r="D23" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23">
-        <v>2013</v>
-      </c>
-      <c r="F23" t="s">
-        <v>362</v>
-      </c>
-      <c r="G23" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="C23" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I23" t="s">
-        <v>363</v>
-      </c>
-      <c r="J23" t="s">
-        <v>364</v>
-      </c>
-      <c r="K23" t="s">
-        <v>365</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="P23" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="M23" t="s">
-        <v>366</v>
-      </c>
-      <c r="N23" t="s">
-        <v>253</v>
-      </c>
-      <c r="O23" t="s">
-        <v>254</v>
-      </c>
-      <c r="P23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S23" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="S23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="U23" t="s">
-        <v>52</v>
-      </c>
-      <c r="V23" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="U23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="Z23" t="s">
-        <v>612</v>
-      </c>
-      <c r="AA23">
+      <c r="Y23" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA23" s="15">
         <v>2</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="15">
         <v>2</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="15">
         <v>3</v>
       </c>
-      <c r="AD23" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF23">
+      <c r="AD23" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF23" s="15">
         <v>4.3</v>
       </c>
       <c r="AG23" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AH23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AI23" s="15" t="s">
         <v>140</v>
+      </c>
+      <c r="AJ23" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="AK23" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="AL23" t="s">
-        <v>597</v>
-      </c>
-      <c r="AM23" t="s">
+      <c r="AL23" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="AM23" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="AO23" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ23" t="s">
+      <c r="AO23" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AP23" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="AQ23" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AR23" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AT23" s="13"/>
-      <c r="AU23" t="s">
-        <v>511</v>
-      </c>
-      <c r="AV23" t="s">
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="AV23" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="AW23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX23" s="17" t="s">
-        <v>497</v>
+      <c r="AW23" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX23" s="3" t="s">
+        <v>636</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>359</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:50" s="15" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D24" t="s">
-        <v>361</v>
-      </c>
-      <c r="E24">
-        <v>2013</v>
-      </c>
-      <c r="F24" t="s">
-        <v>362</v>
-      </c>
-      <c r="G24" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="C24" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I24" t="s">
-        <v>363</v>
-      </c>
-      <c r="J24" t="s">
-        <v>364</v>
-      </c>
-      <c r="K24" t="s">
-        <v>365</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="I24" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="M24" t="s">
-        <v>366</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="P24" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="P24" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" t="s">
-        <v>46</v>
-      </c>
-      <c r="U24" t="s">
-        <v>52</v>
-      </c>
-      <c r="V24" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s">
-        <v>48</v>
-      </c>
-      <c r="X24" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>612</v>
-      </c>
-      <c r="AA24">
+      <c r="S24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA24" s="15">
         <v>2</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="15">
         <v>2</v>
       </c>
-      <c r="AC24">
-        <v>3</v>
-      </c>
-      <c r="AF24">
+      <c r="AC24" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="15">
         <v>4.3</v>
       </c>
       <c r="AG24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="AH24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI24" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="AK24" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="AL24" t="s">
-        <v>597</v>
-      </c>
-      <c r="AM24" t="s">
+      <c r="AM24" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="AO24" t="s">
-        <v>496</v>
-      </c>
-      <c r="AQ24" t="s">
+      <c r="AO24" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="AP24" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="AQ24" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AR24" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AT24" s="13"/>
-      <c r="AU24" t="s">
-        <v>512</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW24" t="s">
+      <c r="AS24" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW24" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="AX24" s="17" t="s">
-        <v>498</v>
+      <c r="AX24" s="18" t="s">
+        <v>637</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B25" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="E25">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F25" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="G25" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="H25" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="I25" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="J25" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="K25" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="L25" t="s">
         <v>248</v>
       </c>
       <c r="M25" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O25" t="s">
         <v>254</v>
       </c>
       <c r="P25" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q25" t="s">
         <v>21</v>
       </c>
       <c r="S25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T25" t="s">
         <v>46</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X25" t="s">
         <v>216</v>
       </c>
       <c r="Z25" t="s">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -8298,37 +8296,40 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>514</v>
+        <v>2</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>494</v>
       </c>
       <c r="AF25">
         <v>4.3</v>
       </c>
       <c r="AG25" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI25" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>113</v>
       </c>
       <c r="AK25" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL25" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="AM25" t="s">
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>508</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -8336,92 +8337,95 @@
       <c r="AR25" t="s">
         <v>239</v>
       </c>
+      <c r="AS25" t="s">
+        <v>175</v>
+      </c>
       <c r="AT25" s="13"/>
       <c r="AU25" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AV25" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW25" t="s">
         <v>209</v>
       </c>
       <c r="AX25" s="17" t="s">
-        <v>515</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B26" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="E26">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="G26" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I26" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="J26" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="K26" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="L26" t="s">
         <v>248</v>
       </c>
       <c r="M26" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O26" t="s">
         <v>254</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T26" t="s">
         <v>46</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X26" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z26" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -8430,28 +8434,37 @@
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>494</v>
       </c>
       <c r="AF26">
         <v>4.3</v>
       </c>
-      <c r="AG26" t="s">
-        <v>111</v>
+      <c r="AG26" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="AH26" t="s">
         <v>120</v>
       </c>
+      <c r="AI26" t="s">
+        <v>133</v>
+      </c>
       <c r="AK26" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL26" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="AM26" t="s">
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -8460,61 +8473,61 @@
         <v>239</v>
       </c>
       <c r="AS26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT26" s="13"/>
       <c r="AU26" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AV26" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="AW26" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX26" s="16" t="s">
-        <v>669</v>
+        <v>209</v>
+      </c>
+      <c r="AX26" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E27">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="G27" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="H27" t="s">
         <v>248</v>
       </c>
       <c r="I27" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="J27" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="K27" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="L27" t="s">
         <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="N27" t="s">
         <v>253</v>
@@ -8523,31 +8536,31 @@
         <v>254</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
       <c r="S27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T27" t="s">
         <v>46</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X27" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z27" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -8558,26 +8571,32 @@
       <c r="AC27">
         <v>3</v>
       </c>
+      <c r="AD27" t="s">
+        <v>499</v>
+      </c>
       <c r="AF27">
         <v>4.3</v>
       </c>
-      <c r="AG27" t="s">
-        <v>111</v>
+      <c r="AG27" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="AH27" t="s">
         <v>120</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AI27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK27" s="15" t="s">
         <v>148</v>
       </c>
       <c r="AL27" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="AM27" t="s">
         <v>233</v>
       </c>
       <c r="AO27" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -8585,62 +8604,59 @@
       <c r="AR27" t="s">
         <v>239</v>
       </c>
-      <c r="AS27" t="s">
-        <v>175</v>
-      </c>
       <c r="AT27" s="13"/>
       <c r="AU27" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="AV27" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW27" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX27" s="16" t="s">
-        <v>669</v>
+        <v>207</v>
+      </c>
+      <c r="AX27" s="17" t="s">
+        <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B28" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E28">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="G28" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="H28" t="s">
         <v>248</v>
       </c>
       <c r="I28" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="J28" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="K28" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
       </c>
       <c r="M28" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="N28" t="s">
         <v>253</v>
@@ -8649,31 +8665,31 @@
         <v>254</v>
       </c>
       <c r="P28" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T28" t="s">
         <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X28" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="Z28" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8687,85 +8703,86 @@
       <c r="AF28">
         <v>4.3</v>
       </c>
-      <c r="AG28" t="s">
-        <v>111</v>
+      <c r="AG28" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="AH28" t="s">
         <v>120</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AI28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK28" s="15" t="s">
         <v>148</v>
       </c>
       <c r="AL28" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="AM28" t="s">
         <v>233</v>
       </c>
       <c r="AO28" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AR28" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT28" s="13" t="s">
-        <v>517</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT28" s="13"/>
       <c r="AU28" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AV28" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW28" t="s">
         <v>208</v>
       </c>
-      <c r="AX28" s="16" t="s">
-        <v>669</v>
+      <c r="AX28" s="17" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D29" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E29">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F29" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="G29" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="H29" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="I29" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="J29" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="K29" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="L29" t="s">
         <v>248</v>
       </c>
       <c r="M29" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="N29" t="s">
         <v>253</v>
@@ -8774,13 +8791,13 @@
         <v>254</v>
       </c>
       <c r="P29" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
       </c>
       <c r="S29" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T29" t="s">
         <v>46</v>
@@ -8792,16 +8809,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X29" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>500</v>
+        <v>216</v>
       </c>
       <c r="Z29" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8812,32 +8826,35 @@
       <c r="AC29">
         <v>3</v>
       </c>
-      <c r="AE29" t="s">
-        <v>502</v>
+      <c r="AD29" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="AF29">
         <v>4.3</v>
       </c>
-      <c r="AG29" t="s">
-        <v>110</v>
+      <c r="AG29" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="AH29" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>148</v>
       </c>
       <c r="AK29" t="s">
         <v>148</v>
       </c>
       <c r="AL29" t="s">
-        <v>598</v>
+        <v>528</v>
       </c>
       <c r="AM29" t="s">
         <v>233</v>
       </c>
       <c r="AO29" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AP29" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8845,62 +8862,59 @@
       <c r="AR29" t="s">
         <v>239</v>
       </c>
-      <c r="AS29" t="s">
-        <v>175</v>
-      </c>
       <c r="AT29" s="13"/>
       <c r="AU29" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="AV29" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX29" s="17" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D30" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E30">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F30" t="s">
-        <v>412</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="J30" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="K30" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="N30" t="s">
         <v>253</v>
@@ -8909,31 +8923,31 @@
         <v>254</v>
       </c>
       <c r="P30" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
         <v>42</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X30" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8944,95 +8958,89 @@
       <c r="AC30">
         <v>3</v>
       </c>
-      <c r="AF30" t="s">
-        <v>477</v>
+      <c r="AF30">
+        <v>4.3</v>
       </c>
       <c r="AG30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH30" t="s">
         <v>120</v>
       </c>
-      <c r="AI30" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>113</v>
-      </c>
       <c r="AK30" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL30" t="s">
-        <v>599</v>
+        <v>518</v>
       </c>
       <c r="AM30" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO30" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
       <c r="AR30" t="s">
-        <v>170</v>
+        <v>239</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>176</v>
       </c>
       <c r="AT30" s="13"/>
       <c r="AU30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AV30" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW30" t="s">
         <v>208</v>
       </c>
-      <c r="AX30" s="17" t="s">
-        <v>521</v>
+      <c r="AX30" s="16" t="s">
+        <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E31">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="J31" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="K31" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="L31" t="s">
         <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="N31" t="s">
         <v>253</v>
@@ -9041,31 +9049,31 @@
         <v>254</v>
       </c>
       <c r="P31" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
       <c r="S31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
         <v>42</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X31" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z31" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -9076,95 +9084,89 @@
       <c r="AC31">
         <v>3</v>
       </c>
-      <c r="AF31" t="s">
-        <v>477</v>
+      <c r="AF31">
+        <v>4.3</v>
       </c>
       <c r="AG31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH31" t="s">
         <v>120</v>
       </c>
-      <c r="AI31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>113</v>
-      </c>
       <c r="AK31" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="AL31" t="s">
-        <v>599</v>
+        <v>518</v>
       </c>
       <c r="AM31" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AR31" t="s">
-        <v>171</v>
+        <v>239</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>175</v>
       </c>
       <c r="AT31" s="13"/>
       <c r="AU31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AV31" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="AW31" t="s">
         <v>208</v>
       </c>
-      <c r="AX31" s="17" t="s">
-        <v>521</v>
+      <c r="AX31" s="16" t="s">
+        <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="B32" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="D32" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="E32">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="F32" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="H32" t="s">
         <v>248</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
+        <v>381</v>
       </c>
       <c r="K32" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="L32" t="s">
         <v>248</v>
       </c>
       <c r="M32" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="N32" t="s">
         <v>253</v>
@@ -9173,31 +9175,31 @@
         <v>254</v>
       </c>
       <c r="P32" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
       <c r="S32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T32" t="s">
         <v>46</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W32" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="X32" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>522</v>
+        <v>609</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -9206,13 +9208,13 @@
         <v>2</v>
       </c>
       <c r="AC32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF32">
         <v>4.3</v>
       </c>
       <c r="AG32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH32" t="s">
         <v>120</v>
@@ -9221,76 +9223,75 @@
         <v>148</v>
       </c>
       <c r="AL32" t="s">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="AM32" t="s">
         <v>233</v>
       </c>
       <c r="AO32" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AR32" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT32" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="AT32" s="13" t="s">
+        <v>517</v>
+      </c>
       <c r="AU32" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AV32" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW32" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="17" t="s">
-        <v>524</v>
+      <c r="AX32" s="16" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="E33">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F33" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="G33" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>391</v>
       </c>
       <c r="K33" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="L33" t="s">
         <v>248</v>
       </c>
       <c r="M33" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="N33" t="s">
         <v>253</v>
@@ -9299,7 +9300,7 @@
         <v>254</v>
       </c>
       <c r="P33" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
@@ -9311,19 +9312,22 @@
         <v>46</v>
       </c>
       <c r="U33" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
         <v>41</v>
       </c>
       <c r="W33" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X33" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>500</v>
       </c>
       <c r="Z33" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -9332,7 +9336,10 @@
         <v>2</v>
       </c>
       <c r="AC33">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>502</v>
       </c>
       <c r="AF33">
         <v>4.3</v>
@@ -9347,13 +9354,16 @@
         <v>148</v>
       </c>
       <c r="AL33" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AM33" t="s">
         <v>233</v>
       </c>
       <c r="AO33" t="s">
-        <v>527</v>
+        <v>501</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>505</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -9366,57 +9376,57 @@
       </c>
       <c r="AT33" s="13"/>
       <c r="AU33" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="AV33" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW33" t="s">
         <v>208</v>
       </c>
       <c r="AX33" s="17" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B34" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D34" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E34">
         <v>2021</v>
       </c>
       <c r="F34" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="G34" t="s">
-        <v>426</v>
+        <v>309</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="K34" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L34" t="s">
         <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N34" t="s">
         <v>253</v>
@@ -9431,28 +9441,25 @@
         <v>21</v>
       </c>
       <c r="S34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W34" t="s">
         <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>529</v>
+        <v>216</v>
       </c>
       <c r="Z34" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -9463,89 +9470,95 @@
       <c r="AC34">
         <v>3</v>
       </c>
-      <c r="AE34" t="s">
-        <v>530</v>
-      </c>
       <c r="AF34" t="s">
         <v>477</v>
       </c>
       <c r="AG34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH34" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>113</v>
       </c>
       <c r="AK34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL34" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="AM34" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>160</v>
       </c>
       <c r="AO34" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AR34" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="AT34" s="13"/>
       <c r="AU34" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="AV34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW34" t="s">
         <v>208</v>
       </c>
       <c r="AX34" s="17" t="s">
-        <v>631</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B35" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E35">
         <v>2021</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="G35" t="s">
-        <v>426</v>
+        <v>309</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="K35" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="L35" t="s">
         <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N35" t="s">
         <v>253</v>
@@ -9560,28 +9573,25 @@
         <v>21</v>
       </c>
       <c r="S35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W35" t="s">
         <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>529</v>
+        <v>216</v>
       </c>
       <c r="Z35" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9592,71 +9602,77 @@
       <c r="AC35">
         <v>3</v>
       </c>
-      <c r="AE35" t="s">
-        <v>530</v>
-      </c>
       <c r="AF35" t="s">
         <v>477</v>
       </c>
       <c r="AG35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH35" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>113</v>
       </c>
       <c r="AK35" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL35" t="s">
-        <v>636</v>
+        <v>595</v>
       </c>
       <c r="AM35" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AR35" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="AT35" s="13"/>
       <c r="AU35" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="AV35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX35" s="17" t="s">
-        <v>632</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B36" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D36" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E36">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F36" t="s">
         <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H36" t="s">
         <v>248</v>
@@ -9668,13 +9684,13 @@
         <v>248</v>
       </c>
       <c r="K36" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L36" t="s">
         <v>248</v>
       </c>
       <c r="M36" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N36" t="s">
         <v>253</v>
@@ -9683,34 +9699,31 @@
         <v>254</v>
       </c>
       <c r="P36" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q36" t="s">
         <v>21</v>
       </c>
       <c r="S36" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="T36" t="s">
         <v>46</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V36" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>529</v>
+        <v>216</v>
       </c>
       <c r="Z36" t="s">
-        <v>615</v>
+        <v>522</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9719,31 +9732,28 @@
         <v>2</v>
       </c>
       <c r="AC36">
-        <v>3</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF36">
+        <v>4.3</v>
       </c>
       <c r="AG36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH36" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL36" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="AM36" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AO36" t="s">
-        <v>633</v>
+        <v>527</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
@@ -9751,41 +9761,44 @@
       <c r="AR36" t="s">
         <v>239</v>
       </c>
+      <c r="AS36" t="s">
+        <v>175</v>
+      </c>
       <c r="AT36" s="13"/>
       <c r="AU36" t="s">
-        <v>571</v>
+        <v>523</v>
       </c>
       <c r="AV36" t="s">
         <v>199</v>
       </c>
       <c r="AW36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX36" s="17" t="s">
-        <v>632</v>
+        <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B37" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D37" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E37">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F37" t="s">
         <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H37" t="s">
         <v>248</v>
@@ -9797,13 +9810,13 @@
         <v>248</v>
       </c>
       <c r="K37" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L37" t="s">
         <v>248</v>
       </c>
       <c r="M37" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N37" t="s">
         <v>253</v>
@@ -9812,34 +9825,31 @@
         <v>254</v>
       </c>
       <c r="P37" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q37" t="s">
         <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="T37" t="s">
         <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X37" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>529</v>
+        <v>216</v>
       </c>
       <c r="Z37" t="s">
-        <v>615</v>
+        <v>522</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9848,31 +9858,28 @@
         <v>2</v>
       </c>
       <c r="AC37">
-        <v>3</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AF37">
+        <v>4.3</v>
       </c>
       <c r="AG37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL37" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="AM37" t="s">
         <v>233</v>
       </c>
       <c r="AO37" t="s">
-        <v>633</v>
+        <v>527</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
@@ -9880,9 +9887,12 @@
       <c r="AR37" t="s">
         <v>239</v>
       </c>
+      <c r="AS37" t="s">
+        <v>175</v>
+      </c>
       <c r="AT37" s="13"/>
       <c r="AU37" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="AV37" t="s">
         <v>199</v>
@@ -9891,30 +9901,30 @@
         <v>208</v>
       </c>
       <c r="AX37" s="17" t="s">
-        <v>634</v>
+        <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B38" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D38" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E38">
         <v>2021</v>
       </c>
       <c r="F38" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="H38" t="s">
         <v>248</v>
@@ -9926,13 +9936,13 @@
         <v>248</v>
       </c>
       <c r="K38" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L38" t="s">
         <v>248</v>
       </c>
       <c r="M38" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N38" t="s">
         <v>253</v>
@@ -9941,31 +9951,34 @@
         <v>254</v>
       </c>
       <c r="P38" t="s">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="Q38" t="s">
         <v>21</v>
       </c>
       <c r="S38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T38" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="U38" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W38" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X38" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>529</v>
       </c>
       <c r="Z38" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9976,32 +9989,29 @@
       <c r="AC38">
         <v>3</v>
       </c>
-      <c r="AE38" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="AF38">
-        <v>4.3</v>
+      <c r="AE38" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>477</v>
       </c>
       <c r="AG38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH38" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AK38" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL38" t="s">
-        <v>528</v>
+        <v>631</v>
       </c>
       <c r="AM38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO38" t="s">
-        <v>532</v>
+        <v>629</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
@@ -10011,90 +10021,93 @@
       </c>
       <c r="AT38" s="13"/>
       <c r="AU38" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="AV38" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX38" s="17" t="s">
-        <v>534</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
         <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D39" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E39">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="H39" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>439</v>
+        <v>248</v>
       </c>
       <c r="J39" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="L39" t="s">
         <v>248</v>
       </c>
       <c r="M39" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N39" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s">
         <v>254</v>
       </c>
       <c r="P39" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="Q39" t="s">
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T39" t="s">
         <v>46</v>
       </c>
       <c r="U39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V39" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" t="s">
         <v>55</v>
       </c>
-      <c r="V39" t="s">
-        <v>41</v>
-      </c>
-      <c r="W39" t="s">
-        <v>51</v>
-      </c>
       <c r="X39" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>529</v>
       </c>
       <c r="Z39" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -10105,32 +10118,29 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AE39" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF39">
-        <v>4.3</v>
+      <c r="AE39" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>477</v>
       </c>
       <c r="AG39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH39" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AK39" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL39" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="AM39" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO39" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -10140,57 +10150,57 @@
       </c>
       <c r="AT39" s="13"/>
       <c r="AU39" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="AV39" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX39" s="16" t="s">
-        <v>536</v>
+        <v>207</v>
+      </c>
+      <c r="AX39" s="17" t="s">
+        <v>628</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="B40" t="s">
         <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="D40" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="E40">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="F40" t="s">
-        <v>454</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="H40" t="s">
-        <v>456</v>
+        <v>248</v>
       </c>
       <c r="I40" t="s">
-        <v>457</v>
+        <v>248</v>
       </c>
       <c r="J40" t="s">
-        <v>458</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="L40" t="s">
         <v>248</v>
       </c>
       <c r="M40" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="N40" t="s">
         <v>253</v>
@@ -10199,34 +10209,34 @@
         <v>254</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="Q40" t="s">
         <v>21</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T40" t="s">
         <v>46</v>
       </c>
       <c r="U40" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" t="s">
+        <v>46</v>
+      </c>
+      <c r="W40" t="s">
         <v>55</v>
       </c>
-      <c r="V40" t="s">
-        <v>44</v>
-      </c>
-      <c r="W40" t="s">
-        <v>52</v>
-      </c>
       <c r="X40" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="Y40" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="Z40" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -10235,49 +10245,41 @@
         <v>2</v>
       </c>
       <c r="AC40">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF40">
-        <v>4.5</v>
+        <v>3</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>477</v>
       </c>
       <c r="AG40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL40" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="AM40" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO40" t="s">
-        <v>542</v>
+        <v>629</v>
       </c>
       <c r="AQ40" t="s">
         <v>164</v>
       </c>
       <c r="AR40" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT40" s="13" t="s">
-        <v>541</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AT40" s="13"/>
       <c r="AU40" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="AV40" t="s">
         <v>199</v>
@@ -10285,49 +10287,49 @@
       <c r="AW40" t="s">
         <v>207</v>
       </c>
-      <c r="AX40" s="16" t="s">
-        <v>544</v>
+      <c r="AX40" s="17" t="s">
+        <v>628</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s">
         <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="D41" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="F41" t="s">
-        <v>464</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="H41" t="s">
-        <v>465</v>
+        <v>248</v>
       </c>
       <c r="I41" t="s">
-        <v>466</v>
+        <v>248</v>
       </c>
       <c r="J41" t="s">
-        <v>467</v>
+        <v>248</v>
       </c>
       <c r="K41" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="L41" t="s">
         <v>248</v>
       </c>
       <c r="M41" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="N41" t="s">
         <v>253</v>
@@ -10336,34 +10338,34 @@
         <v>254</v>
       </c>
       <c r="P41" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="Q41" t="s">
         <v>21</v>
       </c>
       <c r="S41" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T41" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X41" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="Y41" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="Z41" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -10374,26 +10376,29 @@
       <c r="AC41">
         <v>3</v>
       </c>
-      <c r="AE41" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="AF41">
-        <v>4.3</v>
+      <c r="AE41" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>477</v>
       </c>
       <c r="AG41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>633</v>
       </c>
       <c r="AM41" t="s">
         <v>233</v>
       </c>
       <c r="AO41" t="s">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
@@ -10403,90 +10408,90 @@
       </c>
       <c r="AT41" s="13"/>
       <c r="AU41" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="AV41" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW41" t="s">
         <v>208</v>
       </c>
       <c r="AX41" s="17" t="s">
-        <v>547</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>574</v>
+        <v>429</v>
       </c>
       <c r="B42" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>575</v>
+        <v>430</v>
       </c>
       <c r="D42" t="s">
-        <v>576</v>
+        <v>431</v>
       </c>
       <c r="E42">
-        <v>2000</v>
+        <v>2021</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>432</v>
       </c>
       <c r="G42" t="s">
-        <v>577</v>
+        <v>344</v>
       </c>
       <c r="H42" t="s">
-        <v>578</v>
+        <v>248</v>
       </c>
       <c r="I42" t="s">
-        <v>579</v>
+        <v>248</v>
       </c>
       <c r="J42" t="s">
-        <v>580</v>
+        <v>248</v>
       </c>
       <c r="K42" t="s">
-        <v>581</v>
+        <v>433</v>
       </c>
       <c r="L42" t="s">
         <v>248</v>
       </c>
       <c r="M42" t="s">
-        <v>582</v>
+        <v>434</v>
       </c>
       <c r="N42" t="s">
         <v>253</v>
       </c>
       <c r="O42" t="s">
-        <v>583</v>
+        <v>254</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Q42" t="s">
         <v>21</v>
       </c>
       <c r="S42" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="W42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="X42" t="s">
         <v>216</v>
       </c>
       <c r="Z42" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -10495,7 +10500,10 @@
         <v>2</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE42" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="AF42">
         <v>4.3</v>
@@ -10504,19 +10512,22 @@
         <v>110</v>
       </c>
       <c r="AH42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI42" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>134</v>
       </c>
       <c r="AL42" t="s">
-        <v>645</v>
+        <v>528</v>
       </c>
       <c r="AM42" t="s">
         <v>233</v>
       </c>
       <c r="AO42" t="s">
-        <v>646</v>
+        <v>532</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -10524,94 +10535,92 @@
       <c r="AR42" t="s">
         <v>239</v>
       </c>
-      <c r="AT42" t="s">
-        <v>622</v>
-      </c>
+      <c r="AT42" s="13"/>
       <c r="AU42" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="AV42" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW42" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX42" s="16" t="s">
-        <v>647</v>
+        <v>209</v>
+      </c>
+      <c r="AX42" s="17" t="s">
+        <v>534</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>584</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>585</v>
+        <v>436</v>
       </c>
       <c r="D43" t="s">
-        <v>586</v>
+        <v>437</v>
       </c>
       <c r="E43">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>352</v>
       </c>
       <c r="G43" t="s">
-        <v>587</v>
+        <v>327</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>588</v>
+        <v>439</v>
       </c>
       <c r="J43" t="s">
-        <v>589</v>
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>590</v>
+        <v>441</v>
       </c>
       <c r="L43" t="s">
         <v>248</v>
       </c>
       <c r="M43" t="s">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="N43" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s">
         <v>254</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="Q43" t="s">
         <v>21</v>
       </c>
       <c r="S43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T43" t="s">
         <v>46</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="V43" t="s">
+        <v>41</v>
       </c>
       <c r="W43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X43" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>625</v>
+        <v>216</v>
       </c>
       <c r="Z43" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -10622,11 +10631,14 @@
       <c r="AC43">
         <v>3</v>
       </c>
-      <c r="AF43" t="s">
-        <v>477</v>
+      <c r="AE43" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AF43">
+        <v>4.3</v>
       </c>
       <c r="AG43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH43" t="s">
         <v>117</v>
@@ -10635,75 +10647,76 @@
         <v>138</v>
       </c>
       <c r="AK43" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL43" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="AM43" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO43" t="s">
-        <v>627</v>
+        <v>535</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
       </c>
+      <c r="AR43" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT43" s="13"/>
       <c r="AU43" t="s">
-        <v>629</v>
+        <v>537</v>
       </c>
       <c r="AV43" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AW43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX43" s="16" t="s">
-        <v>628</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="44" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>584</v>
+        <v>451</v>
       </c>
       <c r="B44" t="s">
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>585</v>
+        <v>452</v>
       </c>
       <c r="D44" t="s">
-        <v>586</v>
+        <v>453</v>
       </c>
       <c r="E44">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="F44" t="s">
-        <v>246</v>
+        <v>454</v>
       </c>
       <c r="G44" t="s">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="H44" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="I44" t="s">
-        <v>588</v>
+        <v>457</v>
       </c>
       <c r="J44" t="s">
-        <v>589</v>
+        <v>458</v>
       </c>
       <c r="K44" t="s">
-        <v>590</v>
+        <v>459</v>
       </c>
       <c r="L44" t="s">
         <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>591</v>
+        <v>460</v>
       </c>
       <c r="N44" t="s">
         <v>253</v>
@@ -10712,31 +10725,34 @@
         <v>254</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q44" t="s">
         <v>21</v>
       </c>
       <c r="S44" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T44" t="s">
         <v>46</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="V44" t="s">
+        <v>44</v>
       </c>
       <c r="W44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X44" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Y44" t="s">
-        <v>625</v>
+        <v>539</v>
       </c>
       <c r="Z44" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -10745,25 +10761,28 @@
         <v>2</v>
       </c>
       <c r="AC44">
-        <v>3</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>477</v>
+        <v>2</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AF44">
+        <v>4.5</v>
       </c>
       <c r="AG44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH44" t="s">
         <v>117</v>
       </c>
       <c r="AI44" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AK44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL44" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="AM44" t="s">
         <v>232</v>
@@ -10772,63 +10791,69 @@
         <v>160</v>
       </c>
       <c r="AO44" t="s">
-        <v>627</v>
+        <v>542</v>
       </c>
       <c r="AQ44" t="s">
         <v>164</v>
       </c>
+      <c r="AR44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT44" s="13" t="s">
+        <v>541</v>
+      </c>
       <c r="AU44" t="s">
-        <v>629</v>
+        <v>540</v>
       </c>
       <c r="AV44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW44" t="s">
         <v>207</v>
       </c>
       <c r="AX44" s="16" t="s">
-        <v>630</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B45" t="s">
         <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D45" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E45">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="F45" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G45" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="I45" t="s">
-        <v>248</v>
+        <v>466</v>
       </c>
       <c r="J45" t="s">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="K45" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L45" t="s">
         <v>248</v>
       </c>
       <c r="M45" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N45" t="s">
         <v>253</v>
@@ -10837,34 +10862,34 @@
         <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="Q45" t="s">
         <v>21</v>
       </c>
       <c r="S45" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X45" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Y45" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="Z45" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AA45">
         <v>2</v>
@@ -10875,6 +10900,9 @@
       <c r="AC45">
         <v>3</v>
       </c>
+      <c r="AE45" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="AF45">
         <v>4.3</v>
       </c>
@@ -10887,14 +10915,11 @@
       <c r="AI45" t="s">
         <v>148</v>
       </c>
-      <c r="AL45" t="s">
-        <v>603</v>
-      </c>
       <c r="AM45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AO45" t="s">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="AQ45" t="s">
         <v>164</v>
@@ -10904,290 +10929,567 @@
       </c>
       <c r="AT45" s="13"/>
       <c r="AU45" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AV45" t="s">
         <v>113</v>
       </c>
       <c r="AW45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX45" s="17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>571</v>
+      </c>
+      <c r="B46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" t="s">
+        <v>572</v>
+      </c>
+      <c r="D46" t="s">
+        <v>573</v>
+      </c>
+      <c r="E46">
+        <v>2000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>574</v>
+      </c>
+      <c r="H46" t="s">
+        <v>575</v>
+      </c>
+      <c r="I46" t="s">
+        <v>576</v>
+      </c>
+      <c r="J46" t="s">
+        <v>577</v>
+      </c>
+      <c r="K46" t="s">
+        <v>578</v>
+      </c>
+      <c r="L46" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" t="s">
+        <v>579</v>
+      </c>
+      <c r="N46" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" t="s">
+        <v>580</v>
+      </c>
+      <c r="P46" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" t="s">
+        <v>42</v>
+      </c>
+      <c r="U46" t="s">
+        <v>57</v>
+      </c>
+      <c r="V46" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s">
+        <v>53</v>
+      </c>
+      <c r="X46" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
+      <c r="AC46">
+        <v>2</v>
+      </c>
+      <c r="AF46">
+        <v>4.3</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>642</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>619</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX46" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>581</v>
+      </c>
+      <c r="B47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
+        <v>582</v>
+      </c>
+      <c r="D47" t="s">
+        <v>583</v>
+      </c>
+      <c r="E47">
+        <v>2010</v>
+      </c>
+      <c r="F47" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" t="s">
+        <v>584</v>
+      </c>
+      <c r="H47" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" t="s">
+        <v>585</v>
+      </c>
+      <c r="J47" t="s">
+        <v>586</v>
+      </c>
+      <c r="K47" t="s">
+        <v>587</v>
+      </c>
+      <c r="L47" t="s">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s">
+        <v>588</v>
+      </c>
+      <c r="N47" t="s">
+        <v>253</v>
+      </c>
+      <c r="O47" t="s">
+        <v>254</v>
+      </c>
+      <c r="P47" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" t="s">
+        <v>46</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="W47" t="s">
+        <v>53</v>
+      </c>
+      <c r="X47" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>625</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX47" s="16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>581</v>
+      </c>
+      <c r="B48" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" t="s">
+        <v>582</v>
+      </c>
+      <c r="D48" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48">
+        <v>2010</v>
+      </c>
+      <c r="F48" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" t="s">
+        <v>584</v>
+      </c>
+      <c r="H48" t="s">
+        <v>248</v>
+      </c>
+      <c r="I48" t="s">
+        <v>585</v>
+      </c>
+      <c r="J48" t="s">
+        <v>586</v>
+      </c>
+      <c r="K48" t="s">
+        <v>587</v>
+      </c>
+      <c r="L48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M48" t="s">
+        <v>588</v>
+      </c>
+      <c r="N48" t="s">
+        <v>253</v>
+      </c>
+      <c r="O48" t="s">
+        <v>254</v>
+      </c>
+      <c r="P48" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" t="s">
+        <v>33</v>
+      </c>
+      <c r="T48" t="s">
+        <v>46</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="W48" t="s">
+        <v>53</v>
+      </c>
+      <c r="X48" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA48">
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>625</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX48" s="16" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>470</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>471</v>
+      </c>
+      <c r="D49" t="s">
+        <v>472</v>
+      </c>
+      <c r="E49">
+        <v>2021</v>
+      </c>
+      <c r="F49" t="s">
+        <v>473</v>
+      </c>
+      <c r="G49" t="s">
+        <v>280</v>
+      </c>
+      <c r="H49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I49" t="s">
+        <v>248</v>
+      </c>
+      <c r="J49" t="s">
+        <v>248</v>
+      </c>
+      <c r="K49" t="s">
+        <v>474</v>
+      </c>
+      <c r="L49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" t="s">
+        <v>475</v>
+      </c>
+      <c r="N49" t="s">
+        <v>253</v>
+      </c>
+      <c r="O49" t="s">
+        <v>254</v>
+      </c>
+      <c r="P49" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" t="s">
+        <v>46</v>
+      </c>
+      <c r="U49" t="s">
+        <v>55</v>
+      </c>
+      <c r="V49" t="s">
+        <v>46</v>
+      </c>
+      <c r="W49" t="s">
+        <v>49</v>
+      </c>
+      <c r="X49" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AF49">
+        <v>4.3</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>599</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>550</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT49" s="13"/>
+      <c r="AU49" t="s">
+        <v>551</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW49" t="s">
         <v>210</v>
       </c>
-      <c r="AX45" s="17" t="s">
+      <c r="AX49" s="17" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+    <row r="50" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E46" s="10">
-        <v>2015</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="E47" s="12">
-        <v>2020</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="E48" s="10">
-        <v>2019</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="P48" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q48" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E49" s="10">
-        <v>2018</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="P49" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q49" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
-        <v>332</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="E50" s="10">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>253</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="Q50" s="10" t="s">
         <v>21</v>
@@ -11195,61 +11497,285 @@
       <c r="R50" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AG50" s="11"/>
     </row>
-    <row r="51" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51" s="12">
+        <v>2020</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E53" s="10">
+        <v>2018</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E54" s="10">
+        <v>2020</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG54" s="11"/>
+    </row>
+    <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E55" s="10">
         <v>2019</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F55" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G55" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J55" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K55" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="L55" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="M51" s="10" t="s">
+      <c r="M55" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="N51" s="10" t="s">
+      <c r="N55" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="O51" s="10" t="s">
+      <c r="O55" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="P51" s="10" t="s">
+      <c r="P55" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Q55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R51" s="10" t="s">
+      <c r="R55" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -11264,7 +11790,7 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P6:Q9 P14:P1048576 Q3:Q13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P10:Q13 P18:P1048576 Q3:Q17" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
@@ -13364,9 +13890,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13484,25 +14013,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13524,9 +14043,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>